--- a/jogos_2025-05-22.xlsx
+++ b/jogos_2025-05-22.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="216" uniqueCount="120">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="208" uniqueCount="115">
   <si>
     <t>Date</t>
   </si>
@@ -211,12 +211,6 @@
     <t>16:00</t>
   </si>
   <si>
-    <t>18:00</t>
-  </si>
-  <si>
-    <t>19:00</t>
-  </si>
-  <si>
     <t>Greece Super League</t>
   </si>
   <si>
@@ -229,21 +223,18 @@
     <t>Netherlands Eredivisie</t>
   </si>
   <si>
+    <t>Sweden Allsvenskan</t>
+  </si>
+  <si>
     <t>Sweden Superettan</t>
   </si>
   <si>
-    <t>Sweden Allsvenskan</t>
+    <t>Algeria Ligue 1</t>
   </si>
   <si>
     <t>Switzerland Super League</t>
   </si>
   <si>
-    <t>Paraguay Division Profesional</t>
-  </si>
-  <si>
-    <t>Algeria Ligue 1</t>
-  </si>
-  <si>
     <t>2024/2025</t>
   </si>
   <si>
@@ -268,48 +259,45 @@
     <t>AZ</t>
   </si>
   <si>
+    <t>Hammarby</t>
+  </si>
+  <si>
+    <t>Kallithea</t>
+  </si>
+  <si>
+    <t>Helsingborg</t>
+  </si>
+  <si>
+    <t>Varberg</t>
+  </si>
+  <si>
+    <t>CS Constantine</t>
+  </si>
+  <si>
     <t>Kalmar</t>
   </si>
   <si>
-    <t>Kallithea</t>
-  </si>
-  <si>
-    <t>Helsingborg</t>
+    <t>Malmö FF</t>
   </si>
   <si>
     <t>GIF Sundsvall</t>
   </si>
   <si>
-    <t>Varberg</t>
-  </si>
-  <si>
-    <t>Hammarby</t>
-  </si>
-  <si>
-    <t>Malmö FF</t>
-  </si>
-  <si>
     <t>Al Ahli</t>
   </si>
   <si>
+    <t>Grasshopper</t>
+  </si>
+  <si>
     <t>Winterthur</t>
   </si>
   <si>
-    <t>Grasshopper</t>
-  </si>
-  <si>
     <t>Yverdon Sport</t>
   </si>
   <si>
     <t>Twente</t>
   </si>
   <si>
-    <t>Atlético Tembetary</t>
-  </si>
-  <si>
-    <t>MC Alger</t>
-  </si>
-  <si>
     <t>Panserraikos</t>
   </si>
   <si>
@@ -328,46 +316,43 @@
     <t>Heerenveen</t>
   </si>
   <si>
+    <t>Mjällby</t>
+  </si>
+  <si>
+    <t>Lamia</t>
+  </si>
+  <si>
+    <t>Oddevold</t>
+  </si>
+  <si>
+    <t>Landskrona</t>
+  </si>
+  <si>
+    <t>MC Oran</t>
+  </si>
+  <si>
     <t>Umeå</t>
   </si>
   <si>
-    <t>Lamia</t>
-  </si>
-  <si>
-    <t>Oddevold</t>
+    <t>AIK</t>
   </si>
   <si>
     <t>Brage</t>
   </si>
   <si>
-    <t>Landskrona</t>
-  </si>
-  <si>
-    <t>Mjällby</t>
-  </si>
-  <si>
-    <t>AIK</t>
-  </si>
-  <si>
     <t>Al Ittifaq</t>
   </si>
   <si>
+    <t>St. Gallen</t>
+  </si>
+  <si>
     <t>Sion</t>
   </si>
   <si>
-    <t>St. Gallen</t>
-  </si>
-  <si>
     <t>Zürich</t>
   </si>
   <si>
     <t>NEC</t>
-  </si>
-  <si>
-    <t>Guaraní</t>
-  </si>
-  <si>
-    <t>USM Alger</t>
   </si>
   <si>
     <t>incomplete</t>
@@ -737,7 +722,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:BD21"/>
+  <dimension ref="A1:BD20"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -921,16 +906,16 @@
         <v>56</v>
       </c>
       <c r="C2" t="s">
-        <v>67</v>
+        <v>65</v>
       </c>
       <c r="D2" t="s">
-        <v>76</v>
+        <v>73</v>
       </c>
       <c r="E2" t="s">
-        <v>78</v>
+        <v>75</v>
       </c>
       <c r="F2" t="s">
-        <v>98</v>
+        <v>94</v>
       </c>
       <c r="G2">
         <v>0</v>
@@ -945,7 +930,7 @@
         <v>0</v>
       </c>
       <c r="K2" t="s">
-        <v>118</v>
+        <v>113</v>
       </c>
       <c r="L2">
         <v>2.4</v>
@@ -1020,10 +1005,10 @@
         <v>1.06</v>
       </c>
       <c r="AJ2" t="s">
-        <v>119</v>
+        <v>114</v>
       </c>
       <c r="AK2" t="s">
-        <v>119</v>
+        <v>114</v>
       </c>
       <c r="AL2">
         <v>1.33</v>
@@ -1047,7 +1032,7 @@
         <v>2.27</v>
       </c>
       <c r="AS2">
-        <v>0</v>
+        <v>3.05</v>
       </c>
       <c r="AT2">
         <v>0</v>
@@ -1062,7 +1047,7 @@
         <v>1.6</v>
       </c>
       <c r="AX2">
-        <v>0</v>
+        <v>1.28</v>
       </c>
       <c r="AY2">
         <v>0</v>
@@ -1091,16 +1076,16 @@
         <v>56</v>
       </c>
       <c r="C3" t="s">
-        <v>67</v>
+        <v>65</v>
       </c>
       <c r="D3" t="s">
+        <v>73</v>
+      </c>
+      <c r="E3" t="s">
         <v>76</v>
       </c>
-      <c r="E3" t="s">
-        <v>79</v>
-      </c>
       <c r="F3" t="s">
-        <v>99</v>
+        <v>95</v>
       </c>
       <c r="G3">
         <v>0</v>
@@ -1115,16 +1100,16 @@
         <v>0</v>
       </c>
       <c r="K3" t="s">
-        <v>118</v>
+        <v>113</v>
       </c>
       <c r="L3">
-        <v>2.3</v>
+        <v>2.19</v>
       </c>
       <c r="M3">
-        <v>3.17</v>
+        <v>3.4</v>
       </c>
       <c r="N3">
-        <v>3.08</v>
+        <v>3.05</v>
       </c>
       <c r="O3">
         <v>1.67</v>
@@ -1166,10 +1151,10 @@
         <v>3.3</v>
       </c>
       <c r="AB3">
-        <v>1.85</v>
+        <v>2.02</v>
       </c>
       <c r="AC3">
-        <v>1.95</v>
+        <v>1.79</v>
       </c>
       <c r="AD3">
         <v>3.35</v>
@@ -1190,10 +1175,10 @@
         <v>1.05</v>
       </c>
       <c r="AJ3" t="s">
-        <v>119</v>
+        <v>114</v>
       </c>
       <c r="AK3" t="s">
-        <v>119</v>
+        <v>114</v>
       </c>
       <c r="AL3">
         <v>1.35</v>
@@ -1261,16 +1246,16 @@
         <v>57</v>
       </c>
       <c r="C4" t="s">
-        <v>68</v>
+        <v>66</v>
       </c>
       <c r="D4" t="s">
-        <v>76</v>
+        <v>73</v>
       </c>
       <c r="E4" t="s">
-        <v>80</v>
+        <v>77</v>
       </c>
       <c r="F4" t="s">
-        <v>100</v>
+        <v>96</v>
       </c>
       <c r="G4">
         <v>0</v>
@@ -1285,7 +1270,7 @@
         <v>0</v>
       </c>
       <c r="K4" t="s">
-        <v>118</v>
+        <v>113</v>
       </c>
       <c r="L4">
         <v>0</v>
@@ -1360,10 +1345,10 @@
         <v>0</v>
       </c>
       <c r="AJ4" t="s">
-        <v>119</v>
+        <v>114</v>
       </c>
       <c r="AK4" t="s">
-        <v>119</v>
+        <v>114</v>
       </c>
       <c r="AL4">
         <v>0</v>
@@ -1431,16 +1416,16 @@
         <v>58</v>
       </c>
       <c r="C5" t="s">
-        <v>69</v>
+        <v>67</v>
       </c>
       <c r="D5" t="s">
-        <v>76</v>
+        <v>73</v>
       </c>
       <c r="E5" t="s">
-        <v>81</v>
+        <v>78</v>
       </c>
       <c r="F5" t="s">
-        <v>101</v>
+        <v>97</v>
       </c>
       <c r="G5">
         <v>0</v>
@@ -1455,7 +1440,7 @@
         <v>0</v>
       </c>
       <c r="K5" t="s">
-        <v>118</v>
+        <v>113</v>
       </c>
       <c r="L5">
         <v>1.67</v>
@@ -1530,10 +1515,10 @@
         <v>1.13</v>
       </c>
       <c r="AJ5" t="s">
-        <v>119</v>
+        <v>114</v>
       </c>
       <c r="AK5" t="s">
-        <v>119</v>
+        <v>114</v>
       </c>
       <c r="AL5">
         <v>1.2</v>
@@ -1601,16 +1586,16 @@
         <v>59</v>
       </c>
       <c r="C6" t="s">
-        <v>69</v>
+        <v>67</v>
       </c>
       <c r="D6" t="s">
-        <v>76</v>
+        <v>73</v>
       </c>
       <c r="E6" t="s">
-        <v>82</v>
+        <v>79</v>
       </c>
       <c r="F6" t="s">
-        <v>102</v>
+        <v>98</v>
       </c>
       <c r="G6">
         <v>0</v>
@@ -1625,7 +1610,7 @@
         <v>0</v>
       </c>
       <c r="K6" t="s">
-        <v>118</v>
+        <v>113</v>
       </c>
       <c r="L6">
         <v>2.9</v>
@@ -1700,10 +1685,10 @@
         <v>1.18</v>
       </c>
       <c r="AJ6" t="s">
-        <v>119</v>
+        <v>114</v>
       </c>
       <c r="AK6" t="s">
-        <v>119</v>
+        <v>114</v>
       </c>
       <c r="AL6">
         <v>1.62</v>
@@ -1771,16 +1756,16 @@
         <v>60</v>
       </c>
       <c r="C7" t="s">
-        <v>70</v>
+        <v>68</v>
       </c>
       <c r="D7" t="s">
-        <v>76</v>
+        <v>73</v>
       </c>
       <c r="E7" t="s">
-        <v>83</v>
+        <v>80</v>
       </c>
       <c r="F7" t="s">
-        <v>103</v>
+        <v>99</v>
       </c>
       <c r="G7">
         <v>0</v>
@@ -1795,7 +1780,7 @@
         <v>0</v>
       </c>
       <c r="K7" t="s">
-        <v>118</v>
+        <v>113</v>
       </c>
       <c r="L7">
         <v>1.43</v>
@@ -1870,10 +1855,10 @@
         <v>1.22</v>
       </c>
       <c r="AJ7" t="s">
-        <v>119</v>
+        <v>114</v>
       </c>
       <c r="AK7" t="s">
-        <v>119</v>
+        <v>114</v>
       </c>
       <c r="AL7">
         <v>1.11</v>
@@ -1941,16 +1926,16 @@
         <v>61</v>
       </c>
       <c r="C8" t="s">
-        <v>71</v>
+        <v>69</v>
       </c>
       <c r="D8" t="s">
-        <v>77</v>
+        <v>74</v>
       </c>
       <c r="E8" t="s">
-        <v>84</v>
+        <v>81</v>
       </c>
       <c r="F8" t="s">
-        <v>104</v>
+        <v>100</v>
       </c>
       <c r="G8">
         <v>0</v>
@@ -1965,127 +1950,127 @@
         <v>0</v>
       </c>
       <c r="K8" t="s">
-        <v>118</v>
+        <v>113</v>
       </c>
       <c r="L8">
+        <v>1.86</v>
+      </c>
+      <c r="M8">
+        <v>3.41</v>
+      </c>
+      <c r="N8">
+        <v>3.45</v>
+      </c>
+      <c r="O8">
+        <v>1.67</v>
+      </c>
+      <c r="P8">
+        <v>10</v>
+      </c>
+      <c r="Q8">
+        <v>2.5</v>
+      </c>
+      <c r="R8">
+        <v>1.36</v>
+      </c>
+      <c r="S8">
+        <v>2.9</v>
+      </c>
+      <c r="T8">
+        <v>2.62</v>
+      </c>
+      <c r="U8">
+        <v>1.42</v>
+      </c>
+      <c r="V8">
+        <v>6.65</v>
+      </c>
+      <c r="W8">
+        <v>1.05</v>
+      </c>
+      <c r="X8">
+        <v>1.05</v>
+      </c>
+      <c r="Y8">
+        <v>10</v>
+      </c>
+      <c r="Z8">
+        <v>1.28</v>
+      </c>
+      <c r="AA8">
+        <v>3.75</v>
+      </c>
+      <c r="AB8">
+        <v>1.83</v>
+      </c>
+      <c r="AC8">
+        <v>1.87</v>
+      </c>
+      <c r="AD8">
+        <v>3.1</v>
+      </c>
+      <c r="AE8">
+        <v>1.38</v>
+      </c>
+      <c r="AF8">
+        <v>1.67</v>
+      </c>
+      <c r="AG8">
+        <v>2.05</v>
+      </c>
+      <c r="AH8">
+        <v>6</v>
+      </c>
+      <c r="AI8">
+        <v>1.13</v>
+      </c>
+      <c r="AJ8" t="s">
+        <v>114</v>
+      </c>
+      <c r="AK8" t="s">
+        <v>114</v>
+      </c>
+      <c r="AL8">
+        <v>1.25</v>
+      </c>
+      <c r="AM8">
         <v>1.22</v>
       </c>
-      <c r="M8">
-        <v>5.2</v>
-      </c>
-      <c r="N8">
-        <v>9.199999999999999</v>
-      </c>
-      <c r="O8">
-        <v>1.25</v>
-      </c>
-      <c r="P8">
-        <v>13</v>
-      </c>
-      <c r="Q8">
-        <v>4.2</v>
-      </c>
-      <c r="R8">
-        <v>1.25</v>
-      </c>
-      <c r="S8">
-        <v>3.55</v>
-      </c>
-      <c r="T8">
-        <v>2.2</v>
-      </c>
-      <c r="U8">
-        <v>1.6</v>
-      </c>
-      <c r="V8">
-        <v>5.15</v>
-      </c>
-      <c r="W8">
-        <v>1.11</v>
-      </c>
-      <c r="X8">
-        <v>1.03</v>
-      </c>
-      <c r="Y8">
-        <v>13</v>
-      </c>
-      <c r="Z8">
-        <v>1.18</v>
-      </c>
-      <c r="AA8">
-        <v>5</v>
-      </c>
-      <c r="AB8">
-        <v>1.57</v>
-      </c>
-      <c r="AC8">
-        <v>2.35</v>
-      </c>
-      <c r="AD8">
-        <v>2.4</v>
-      </c>
-      <c r="AE8">
-        <v>1.5</v>
-      </c>
-      <c r="AF8">
-        <v>2.05</v>
-      </c>
-      <c r="AG8">
-        <v>1.65</v>
-      </c>
-      <c r="AH8">
-        <v>4.5</v>
-      </c>
-      <c r="AI8">
-        <v>1.2</v>
-      </c>
-      <c r="AJ8" t="s">
-        <v>119</v>
-      </c>
-      <c r="AK8" t="s">
-        <v>119</v>
-      </c>
-      <c r="AL8">
-        <v>1.04</v>
-      </c>
-      <c r="AM8">
-        <v>1.12</v>
-      </c>
       <c r="AN8">
-        <v>3.85</v>
+        <v>1.85</v>
       </c>
       <c r="AO8">
         <v>-1</v>
       </c>
       <c r="AP8">
-        <v>1.22</v>
+        <v>1.18</v>
       </c>
       <c r="AQ8">
-        <v>1.38</v>
+        <v>1.3</v>
       </c>
       <c r="AR8">
-        <v>1.61</v>
+        <v>1.5</v>
       </c>
       <c r="AS8">
-        <v>1.96</v>
+        <v>1.79</v>
       </c>
       <c r="AT8">
-        <v>2.43</v>
+        <v>2.2</v>
       </c>
       <c r="AU8">
-        <v>3.8</v>
+        <v>4.3</v>
       </c>
       <c r="AV8">
-        <v>2.8</v>
+        <v>3.05</v>
       </c>
       <c r="AW8">
-        <v>2.15</v>
+        <v>2.35</v>
       </c>
       <c r="AX8">
-        <v>1.74</v>
+        <v>1.9</v>
       </c>
       <c r="AY8">
-        <v>1.49</v>
+        <v>1.58</v>
       </c>
       <c r="AZ8">
         <v>0</v>
@@ -2094,10 +2079,10 @@
         <v>0</v>
       </c>
       <c r="BB8">
-        <v>1.25</v>
+        <v>1.67</v>
       </c>
       <c r="BC8">
-        <v>4.2</v>
+        <v>2.5</v>
       </c>
       <c r="BD8" s="3">
         <v>45799.58333333334</v>
@@ -2111,16 +2096,16 @@
         <v>61</v>
       </c>
       <c r="C9" t="s">
-        <v>67</v>
+        <v>65</v>
       </c>
       <c r="D9" t="s">
-        <v>76</v>
+        <v>73</v>
       </c>
       <c r="E9" t="s">
-        <v>85</v>
+        <v>82</v>
       </c>
       <c r="F9" t="s">
-        <v>105</v>
+        <v>101</v>
       </c>
       <c r="G9">
         <v>0</v>
@@ -2135,7 +2120,7 @@
         <v>0</v>
       </c>
       <c r="K9" t="s">
-        <v>118</v>
+        <v>113</v>
       </c>
       <c r="L9">
         <v>1.51</v>
@@ -2210,10 +2195,10 @@
         <v>1.08</v>
       </c>
       <c r="AJ9" t="s">
-        <v>119</v>
+        <v>114</v>
       </c>
       <c r="AK9" t="s">
-        <v>119</v>
+        <v>114</v>
       </c>
       <c r="AL9">
         <v>1.08</v>
@@ -2281,16 +2266,16 @@
         <v>61</v>
       </c>
       <c r="C10" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="D10" t="s">
-        <v>77</v>
+        <v>74</v>
       </c>
       <c r="E10" t="s">
-        <v>86</v>
+        <v>83</v>
       </c>
       <c r="F10" t="s">
-        <v>106</v>
+        <v>102</v>
       </c>
       <c r="G10">
         <v>0</v>
@@ -2305,7 +2290,7 @@
         <v>0</v>
       </c>
       <c r="K10" t="s">
-        <v>118</v>
+        <v>113</v>
       </c>
       <c r="L10">
         <v>1.68</v>
@@ -2317,13 +2302,13 @@
         <v>4.2</v>
       </c>
       <c r="O10">
-        <v>0</v>
+        <v>1.7</v>
       </c>
       <c r="P10">
-        <v>0</v>
+        <v>8.5</v>
       </c>
       <c r="Q10">
-        <v>0</v>
+        <v>2.45</v>
       </c>
       <c r="R10">
         <v>1.41</v>
@@ -2380,10 +2365,10 @@
         <v>1.05</v>
       </c>
       <c r="AJ10" t="s">
-        <v>119</v>
+        <v>114</v>
       </c>
       <c r="AK10" t="s">
-        <v>119</v>
+        <v>114</v>
       </c>
       <c r="AL10">
         <v>1.15</v>
@@ -2434,10 +2419,10 @@
         <v>0</v>
       </c>
       <c r="BB10">
-        <v>0</v>
+        <v>1.7</v>
       </c>
       <c r="BC10">
-        <v>0</v>
+        <v>2.45</v>
       </c>
       <c r="BD10" s="3">
         <v>45799.58333333334</v>
@@ -2451,16 +2436,16 @@
         <v>61</v>
       </c>
       <c r="C11" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="D11" t="s">
-        <v>77</v>
+        <v>74</v>
       </c>
       <c r="E11" t="s">
-        <v>87</v>
+        <v>84</v>
       </c>
       <c r="F11" t="s">
-        <v>107</v>
+        <v>103</v>
       </c>
       <c r="G11">
         <v>0</v>
@@ -2475,127 +2460,127 @@
         <v>0</v>
       </c>
       <c r="K11" t="s">
-        <v>118</v>
+        <v>113</v>
       </c>
       <c r="L11">
-        <v>2.62</v>
+        <v>2.15</v>
       </c>
       <c r="M11">
-        <v>3.28</v>
+        <v>3.5</v>
       </c>
       <c r="N11">
-        <v>2.31</v>
+        <v>2.72</v>
       </c>
       <c r="O11">
+        <v>1.85</v>
+      </c>
+      <c r="P11">
+        <v>9.5</v>
+      </c>
+      <c r="Q11">
         <v>2.1</v>
       </c>
-      <c r="P11">
-        <v>8.5</v>
-      </c>
-      <c r="Q11">
-        <v>2</v>
-      </c>
       <c r="R11">
-        <v>1.4</v>
+        <v>1.3</v>
       </c>
       <c r="S11">
-        <v>2.8</v>
+        <v>3.2</v>
       </c>
       <c r="T11">
-        <v>2.9</v>
+        <v>2.45</v>
       </c>
       <c r="U11">
+        <v>1.5</v>
+      </c>
+      <c r="V11">
+        <v>5.6</v>
+      </c>
+      <c r="W11">
+        <v>1.11</v>
+      </c>
+      <c r="X11">
+        <v>1.05</v>
+      </c>
+      <c r="Y11">
+        <v>10</v>
+      </c>
+      <c r="Z11">
+        <v>1.18</v>
+      </c>
+      <c r="AA11">
+        <v>4.25</v>
+      </c>
+      <c r="AB11">
+        <v>1.83</v>
+      </c>
+      <c r="AC11">
+        <v>1.87</v>
+      </c>
+      <c r="AD11">
+        <v>2.75</v>
+      </c>
+      <c r="AE11">
+        <v>1.42</v>
+      </c>
+      <c r="AF11">
+        <v>1.53</v>
+      </c>
+      <c r="AG11">
+        <v>2.25</v>
+      </c>
+      <c r="AH11">
+        <v>5.3</v>
+      </c>
+      <c r="AI11">
+        <v>1.12</v>
+      </c>
+      <c r="AJ11" t="s">
+        <v>114</v>
+      </c>
+      <c r="AK11" t="s">
+        <v>114</v>
+      </c>
+      <c r="AL11">
         <v>1.36</v>
       </c>
-      <c r="V11">
-        <v>6.75</v>
-      </c>
-      <c r="W11">
-        <v>1.06</v>
-      </c>
-      <c r="X11">
-        <v>1.01</v>
-      </c>
-      <c r="Y11">
-        <v>10.5</v>
-      </c>
-      <c r="Z11">
-        <v>1.27</v>
-      </c>
-      <c r="AA11">
-        <v>3.45</v>
-      </c>
-      <c r="AB11">
-        <v>1.94</v>
-      </c>
-      <c r="AC11">
-        <v>1.76</v>
-      </c>
-      <c r="AD11">
-        <v>3.6</v>
-      </c>
-      <c r="AE11">
-        <v>1.24</v>
-      </c>
-      <c r="AF11">
-        <v>1.72</v>
-      </c>
-      <c r="AG11">
-        <v>1.93</v>
-      </c>
-      <c r="AH11">
-        <v>7.5</v>
-      </c>
-      <c r="AI11">
-        <v>1.05</v>
-      </c>
-      <c r="AJ11" t="s">
-        <v>119</v>
-      </c>
-      <c r="AK11" t="s">
-        <v>119</v>
-      </c>
-      <c r="AL11">
-        <v>1.5</v>
-      </c>
       <c r="AM11">
-        <v>1.28</v>
+        <v>1.22</v>
       </c>
       <c r="AN11">
-        <v>1.42</v>
+        <v>1.55</v>
       </c>
       <c r="AO11">
         <v>-1</v>
       </c>
       <c r="AP11">
-        <v>1.19</v>
+        <v>1.2</v>
       </c>
       <c r="AQ11">
-        <v>1.34</v>
+        <v>1.35</v>
       </c>
       <c r="AR11">
-        <v>1.55</v>
+        <v>1.58</v>
       </c>
       <c r="AS11">
-        <v>1.86</v>
+        <v>1.92</v>
       </c>
       <c r="AT11">
-        <v>2.32</v>
+        <v>2.4</v>
       </c>
       <c r="AU11">
-        <v>4.1</v>
+        <v>3.95</v>
       </c>
       <c r="AV11">
         <v>2.9</v>
       </c>
       <c r="AW11">
-        <v>2.28</v>
+        <v>2.2</v>
       </c>
       <c r="AX11">
-        <v>1.82</v>
+        <v>1.77</v>
       </c>
       <c r="AY11">
-        <v>1.53</v>
+        <v>1.49</v>
       </c>
       <c r="AZ11">
         <v>0</v>
@@ -2604,10 +2589,10 @@
         <v>0</v>
       </c>
       <c r="BB11">
+        <v>1.85</v>
+      </c>
+      <c r="BC11">
         <v>2.1</v>
-      </c>
-      <c r="BC11">
-        <v>2</v>
       </c>
       <c r="BD11" s="3">
         <v>45799.58333333334</v>
@@ -2624,13 +2609,13 @@
         <v>71</v>
       </c>
       <c r="D12" t="s">
-        <v>77</v>
+        <v>73</v>
       </c>
       <c r="E12" t="s">
-        <v>88</v>
+        <v>85</v>
       </c>
       <c r="F12" t="s">
-        <v>108</v>
+        <v>104</v>
       </c>
       <c r="G12">
         <v>0</v>
@@ -2645,127 +2630,127 @@
         <v>0</v>
       </c>
       <c r="K12" t="s">
-        <v>118</v>
+        <v>113</v>
       </c>
       <c r="L12">
-        <v>2.15</v>
+        <v>1.41</v>
       </c>
       <c r="M12">
-        <v>3.5</v>
+        <v>4.2</v>
       </c>
       <c r="N12">
-        <v>2.72</v>
+        <v>5.7</v>
       </c>
       <c r="O12">
-        <v>0</v>
+        <v>1.3</v>
       </c>
       <c r="P12">
-        <v>0</v>
+        <v>9.5</v>
       </c>
       <c r="Q12">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="R12">
         <v>1.3</v>
       </c>
       <c r="S12">
-        <v>3.2</v>
+        <v>3.34</v>
       </c>
       <c r="T12">
-        <v>2.45</v>
+        <v>2.43</v>
       </c>
       <c r="U12">
-        <v>1.5</v>
+        <v>1.49</v>
       </c>
       <c r="V12">
-        <v>5.6</v>
+        <v>5.5</v>
       </c>
       <c r="W12">
         <v>1.11</v>
       </c>
       <c r="X12">
-        <v>0</v>
+        <v>1.01</v>
       </c>
       <c r="Y12">
-        <v>0</v>
+        <v>9.5</v>
       </c>
       <c r="Z12">
+        <v>1.19</v>
+      </c>
+      <c r="AA12">
+        <v>4.2</v>
+      </c>
+      <c r="AB12">
+        <v>1.62</v>
+      </c>
+      <c r="AC12">
+        <v>2.15</v>
+      </c>
+      <c r="AD12">
+        <v>2.5</v>
+      </c>
+      <c r="AE12">
+        <v>1.46</v>
+      </c>
+      <c r="AF12">
+        <v>1.8</v>
+      </c>
+      <c r="AG12">
+        <v>1.84</v>
+      </c>
+      <c r="AH12">
+        <v>4.35</v>
+      </c>
+      <c r="AI12">
+        <v>1.17</v>
+      </c>
+      <c r="AJ12" t="s">
+        <v>114</v>
+      </c>
+      <c r="AK12" t="s">
+        <v>114</v>
+      </c>
+      <c r="AL12">
         <v>1.18</v>
       </c>
-      <c r="AA12">
-        <v>4.25</v>
-      </c>
-      <c r="AB12">
-        <v>1.66</v>
-      </c>
-      <c r="AC12">
-        <v>2.08</v>
-      </c>
-      <c r="AD12">
-        <v>2.75</v>
-      </c>
-      <c r="AE12">
-        <v>1.42</v>
-      </c>
-      <c r="AF12">
-        <v>1.53</v>
-      </c>
-      <c r="AG12">
-        <v>2.25</v>
-      </c>
-      <c r="AH12">
-        <v>5.3</v>
-      </c>
-      <c r="AI12">
-        <v>1.12</v>
-      </c>
-      <c r="AJ12" t="s">
-        <v>119</v>
-      </c>
-      <c r="AK12" t="s">
-        <v>119</v>
-      </c>
-      <c r="AL12">
-        <v>1.36</v>
-      </c>
       <c r="AM12">
-        <v>1.22</v>
+        <v>1.17</v>
       </c>
       <c r="AN12">
-        <v>1.55</v>
+        <v>2.7</v>
       </c>
       <c r="AO12">
         <v>-1</v>
       </c>
       <c r="AP12">
-        <v>1.2</v>
+        <v>0</v>
       </c>
       <c r="AQ12">
-        <v>1.35</v>
+        <v>0</v>
       </c>
       <c r="AR12">
-        <v>1.58</v>
+        <v>0</v>
       </c>
       <c r="AS12">
-        <v>1.92</v>
+        <v>0</v>
       </c>
       <c r="AT12">
-        <v>2.4</v>
+        <v>0</v>
       </c>
       <c r="AU12">
-        <v>3.95</v>
+        <v>0</v>
       </c>
       <c r="AV12">
-        <v>2.9</v>
+        <v>0</v>
       </c>
       <c r="AW12">
-        <v>2.2</v>
+        <v>0</v>
       </c>
       <c r="AX12">
-        <v>1.77</v>
+        <v>0</v>
       </c>
       <c r="AY12">
-        <v>1.49</v>
+        <v>0</v>
       </c>
       <c r="AZ12">
         <v>0</v>
@@ -2774,10 +2759,10 @@
         <v>0</v>
       </c>
       <c r="BB12">
-        <v>0</v>
+        <v>1.3</v>
       </c>
       <c r="BC12">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="BD12" s="3">
         <v>45799.58333333334</v>
@@ -2791,16 +2776,16 @@
         <v>61</v>
       </c>
       <c r="C13" t="s">
-        <v>72</v>
+        <v>70</v>
       </c>
       <c r="D13" t="s">
-        <v>77</v>
+        <v>74</v>
       </c>
       <c r="E13" t="s">
-        <v>89</v>
+        <v>86</v>
       </c>
       <c r="F13" t="s">
-        <v>109</v>
+        <v>105</v>
       </c>
       <c r="G13">
         <v>0</v>
@@ -2815,127 +2800,127 @@
         <v>0</v>
       </c>
       <c r="K13" t="s">
-        <v>118</v>
+        <v>113</v>
       </c>
       <c r="L13">
-        <v>1.86</v>
+        <v>1.22</v>
       </c>
       <c r="M13">
-        <v>3.41</v>
+        <v>5.2</v>
       </c>
       <c r="N13">
-        <v>3.45</v>
+        <v>9.199999999999999</v>
       </c>
       <c r="O13">
-        <v>1.67</v>
+        <v>1.25</v>
       </c>
       <c r="P13">
-        <v>10</v>
+        <v>13</v>
       </c>
       <c r="Q13">
-        <v>2.5</v>
+        <v>4.2</v>
       </c>
       <c r="R13">
-        <v>1.36</v>
+        <v>1.25</v>
       </c>
       <c r="S13">
-        <v>2.9</v>
+        <v>3.55</v>
       </c>
       <c r="T13">
-        <v>2.62</v>
+        <v>2.2</v>
       </c>
       <c r="U13">
-        <v>1.42</v>
+        <v>1.6</v>
       </c>
       <c r="V13">
-        <v>6.65</v>
+        <v>5.15</v>
       </c>
       <c r="W13">
-        <v>1.05</v>
+        <v>1.11</v>
       </c>
       <c r="X13">
-        <v>1.05</v>
+        <v>1.03</v>
       </c>
       <c r="Y13">
-        <v>10</v>
+        <v>13</v>
       </c>
       <c r="Z13">
-        <v>1.28</v>
+        <v>1.18</v>
       </c>
       <c r="AA13">
-        <v>3.75</v>
+        <v>5</v>
       </c>
       <c r="AB13">
-        <v>1.83</v>
+        <v>1.55</v>
       </c>
       <c r="AC13">
-        <v>1.87</v>
+        <v>2.2</v>
       </c>
       <c r="AD13">
-        <v>3.1</v>
+        <v>2.4</v>
       </c>
       <c r="AE13">
-        <v>1.38</v>
+        <v>1.5</v>
       </c>
       <c r="AF13">
-        <v>1.67</v>
+        <v>2.05</v>
       </c>
       <c r="AG13">
-        <v>2.05</v>
+        <v>1.65</v>
       </c>
       <c r="AH13">
-        <v>6</v>
+        <v>4.5</v>
       </c>
       <c r="AI13">
-        <v>1.13</v>
+        <v>1.2</v>
       </c>
       <c r="AJ13" t="s">
-        <v>119</v>
+        <v>114</v>
       </c>
       <c r="AK13" t="s">
-        <v>119</v>
+        <v>114</v>
       </c>
       <c r="AL13">
-        <v>1.25</v>
+        <v>1.04</v>
       </c>
       <c r="AM13">
-        <v>1.22</v>
+        <v>1.12</v>
       </c>
       <c r="AN13">
-        <v>1.85</v>
+        <v>3.85</v>
       </c>
       <c r="AO13">
         <v>-1</v>
       </c>
       <c r="AP13">
-        <v>1.18</v>
+        <v>1.22</v>
       </c>
       <c r="AQ13">
-        <v>1.3</v>
+        <v>1.38</v>
       </c>
       <c r="AR13">
-        <v>1.5</v>
+        <v>1.61</v>
       </c>
       <c r="AS13">
-        <v>1.79</v>
+        <v>1.96</v>
       </c>
       <c r="AT13">
-        <v>2.2</v>
+        <v>2.43</v>
       </c>
       <c r="AU13">
-        <v>4.3</v>
+        <v>3.8</v>
       </c>
       <c r="AV13">
-        <v>3.05</v>
+        <v>2.8</v>
       </c>
       <c r="AW13">
-        <v>2.35</v>
+        <v>2.15</v>
       </c>
       <c r="AX13">
-        <v>1.9</v>
+        <v>1.74</v>
       </c>
       <c r="AY13">
-        <v>1.58</v>
+        <v>1.49</v>
       </c>
       <c r="AZ13">
         <v>0</v>
@@ -2944,10 +2929,10 @@
         <v>0</v>
       </c>
       <c r="BB13">
-        <v>1.67</v>
+        <v>1.25</v>
       </c>
       <c r="BC13">
-        <v>2.5</v>
+        <v>4.2</v>
       </c>
       <c r="BD13" s="3">
         <v>45799.58333333334</v>
@@ -2961,16 +2946,16 @@
         <v>61</v>
       </c>
       <c r="C14" t="s">
-        <v>72</v>
+        <v>69</v>
       </c>
       <c r="D14" t="s">
-        <v>77</v>
+        <v>74</v>
       </c>
       <c r="E14" t="s">
-        <v>90</v>
+        <v>87</v>
       </c>
       <c r="F14" t="s">
-        <v>110</v>
+        <v>106</v>
       </c>
       <c r="G14">
         <v>0</v>
@@ -2985,7 +2970,7 @@
         <v>0</v>
       </c>
       <c r="K14" t="s">
-        <v>118</v>
+        <v>113</v>
       </c>
       <c r="L14">
         <v>1.59</v>
@@ -3060,10 +3045,10 @@
         <v>1.08</v>
       </c>
       <c r="AJ14" t="s">
-        <v>119</v>
+        <v>114</v>
       </c>
       <c r="AK14" t="s">
-        <v>119</v>
+        <v>114</v>
       </c>
       <c r="AL14">
         <v>1.2</v>
@@ -3128,19 +3113,19 @@
         <v>45799</v>
       </c>
       <c r="B15" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="C15" t="s">
-        <v>69</v>
+        <v>70</v>
       </c>
       <c r="D15" t="s">
-        <v>76</v>
+        <v>74</v>
       </c>
       <c r="E15" t="s">
-        <v>91</v>
+        <v>88</v>
       </c>
       <c r="F15" t="s">
-        <v>111</v>
+        <v>107</v>
       </c>
       <c r="G15">
         <v>0</v>
@@ -3155,128 +3140,128 @@
         <v>0</v>
       </c>
       <c r="K15" t="s">
-        <v>118</v>
+        <v>113</v>
       </c>
       <c r="L15">
-        <v>1.3</v>
+        <v>2.62</v>
       </c>
       <c r="M15">
-        <v>5.5</v>
+        <v>3.28</v>
       </c>
       <c r="N15">
-        <v>7</v>
+        <v>2.31</v>
       </c>
       <c r="O15">
-        <v>1.22</v>
+        <v>2.1</v>
       </c>
       <c r="P15">
-        <v>21</v>
+        <v>8.5</v>
       </c>
       <c r="Q15">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="R15">
-        <v>1.22</v>
+        <v>1.4</v>
       </c>
       <c r="S15">
-        <v>4</v>
+        <v>2.8</v>
       </c>
       <c r="T15">
-        <v>2.1</v>
+        <v>2.9</v>
       </c>
       <c r="U15">
-        <v>1.67</v>
+        <v>1.36</v>
       </c>
       <c r="V15">
-        <v>4.33</v>
+        <v>6.75</v>
       </c>
       <c r="W15">
-        <v>1.2</v>
+        <v>1.06</v>
       </c>
       <c r="X15">
         <v>1.01</v>
       </c>
       <c r="Y15">
-        <v>17</v>
+        <v>10.5</v>
       </c>
       <c r="Z15">
-        <v>1.12</v>
+        <v>1.27</v>
       </c>
       <c r="AA15">
-        <v>5.75</v>
+        <v>3.45</v>
       </c>
       <c r="AB15">
-        <v>1.44</v>
+        <v>1.94</v>
       </c>
       <c r="AC15">
-        <v>2.63</v>
+        <v>1.76</v>
       </c>
       <c r="AD15">
-        <v>2.1</v>
+        <v>3.6</v>
       </c>
       <c r="AE15">
-        <v>1.65</v>
+        <v>1.24</v>
       </c>
       <c r="AF15">
-        <v>1.8</v>
+        <v>1.72</v>
       </c>
       <c r="AG15">
-        <v>1.91</v>
+        <v>1.93</v>
       </c>
       <c r="AH15">
-        <v>3.6</v>
+        <v>7.5</v>
       </c>
       <c r="AI15">
+        <v>1.05</v>
+      </c>
+      <c r="AJ15" t="s">
+        <v>114</v>
+      </c>
+      <c r="AK15" t="s">
+        <v>114</v>
+      </c>
+      <c r="AL15">
+        <v>1.5</v>
+      </c>
+      <c r="AM15">
         <v>1.28</v>
       </c>
-      <c r="AJ15" t="s">
-        <v>119</v>
-      </c>
-      <c r="AK15" t="s">
-        <v>119</v>
-      </c>
-      <c r="AL15">
-        <v>1.06</v>
-      </c>
-      <c r="AM15">
-        <v>1.1</v>
-      </c>
       <c r="AN15">
-        <v>3.35</v>
+        <v>1.42</v>
       </c>
       <c r="AO15">
         <v>-1</v>
       </c>
       <c r="AP15">
-        <v>1.28</v>
+        <v>1.19</v>
       </c>
       <c r="AQ15">
+        <v>1.34</v>
+      </c>
+      <c r="AR15">
+        <v>1.55</v>
+      </c>
+      <c r="AS15">
+        <v>1.86</v>
+      </c>
+      <c r="AT15">
+        <v>2.32</v>
+      </c>
+      <c r="AU15">
+        <v>4.1</v>
+      </c>
+      <c r="AV15">
+        <v>2.9</v>
+      </c>
+      <c r="AW15">
+        <v>2.28</v>
+      </c>
+      <c r="AX15">
+        <v>1.82</v>
+      </c>
+      <c r="AY15">
         <v>1.53</v>
       </c>
-      <c r="AR15">
-        <v>1.92</v>
-      </c>
-      <c r="AS15">
-        <v>2.49</v>
-      </c>
-      <c r="AT15">
-        <v>3.42</v>
-      </c>
-      <c r="AU15">
-        <v>3.08</v>
-      </c>
-      <c r="AV15">
-        <v>2.21</v>
-      </c>
-      <c r="AW15">
-        <v>1.75</v>
-      </c>
-      <c r="AX15">
-        <v>1.42</v>
-      </c>
-      <c r="AY15">
-        <v>1.23</v>
-      </c>
       <c r="AZ15">
         <v>0</v>
       </c>
@@ -3284,13 +3269,13 @@
         <v>0</v>
       </c>
       <c r="BB15">
-        <v>1.22</v>
+        <v>2.1</v>
       </c>
       <c r="BC15">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="BD15" s="3">
-        <v>45799.625</v>
+        <v>45799.58333333334</v>
       </c>
     </row>
     <row r="16" spans="1:56">
@@ -3298,19 +3283,19 @@
         <v>45799</v>
       </c>
       <c r="B16" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="C16" t="s">
+        <v>67</v>
+      </c>
+      <c r="D16" t="s">
         <v>73</v>
       </c>
-      <c r="D16" t="s">
-        <v>76</v>
-      </c>
       <c r="E16" t="s">
-        <v>92</v>
+        <v>89</v>
       </c>
       <c r="F16" t="s">
-        <v>112</v>
+        <v>108</v>
       </c>
       <c r="G16">
         <v>0</v>
@@ -3325,127 +3310,127 @@
         <v>0</v>
       </c>
       <c r="K16" t="s">
-        <v>118</v>
+        <v>113</v>
       </c>
       <c r="L16">
-        <v>2.41</v>
+        <v>1.3</v>
       </c>
       <c r="M16">
-        <v>3.23</v>
+        <v>5.5</v>
       </c>
       <c r="N16">
-        <v>2.53</v>
+        <v>7</v>
       </c>
       <c r="O16">
+        <v>1.22</v>
+      </c>
+      <c r="P16">
+        <v>21</v>
+      </c>
+      <c r="Q16">
+        <v>4</v>
+      </c>
+      <c r="R16">
+        <v>1.22</v>
+      </c>
+      <c r="S16">
+        <v>4</v>
+      </c>
+      <c r="T16">
+        <v>2.1</v>
+      </c>
+      <c r="U16">
         <v>1.67</v>
       </c>
-      <c r="P16">
-        <v>10</v>
-      </c>
-      <c r="Q16">
-        <v>2.45</v>
-      </c>
-      <c r="R16">
-        <v>1.3</v>
-      </c>
-      <c r="S16">
-        <v>3.25</v>
-      </c>
-      <c r="T16">
-        <v>2.3</v>
-      </c>
-      <c r="U16">
-        <v>1.55</v>
-      </c>
       <c r="V16">
-        <v>5.1</v>
+        <v>4.33</v>
       </c>
       <c r="W16">
+        <v>1.2</v>
+      </c>
+      <c r="X16">
+        <v>1.01</v>
+      </c>
+      <c r="Y16">
+        <v>17</v>
+      </c>
+      <c r="Z16">
+        <v>1.12</v>
+      </c>
+      <c r="AA16">
+        <v>5.75</v>
+      </c>
+      <c r="AB16">
+        <v>1.44</v>
+      </c>
+      <c r="AC16">
+        <v>2.63</v>
+      </c>
+      <c r="AD16">
+        <v>2.1</v>
+      </c>
+      <c r="AE16">
+        <v>1.65</v>
+      </c>
+      <c r="AF16">
+        <v>1.8</v>
+      </c>
+      <c r="AG16">
+        <v>1.91</v>
+      </c>
+      <c r="AH16">
+        <v>3.6</v>
+      </c>
+      <c r="AI16">
+        <v>1.28</v>
+      </c>
+      <c r="AJ16" t="s">
+        <v>114</v>
+      </c>
+      <c r="AK16" t="s">
+        <v>114</v>
+      </c>
+      <c r="AL16">
+        <v>1.06</v>
+      </c>
+      <c r="AM16">
         <v>1.1</v>
       </c>
-      <c r="X16">
-        <v>1.04</v>
-      </c>
-      <c r="Y16">
-        <v>10</v>
-      </c>
-      <c r="Z16">
-        <v>1.2</v>
-      </c>
-      <c r="AA16">
-        <v>4.33</v>
-      </c>
-      <c r="AB16">
-        <v>1.61</v>
-      </c>
-      <c r="AC16">
-        <v>2.05</v>
-      </c>
-      <c r="AD16">
-        <v>2.55</v>
-      </c>
-      <c r="AE16">
-        <v>1.5</v>
-      </c>
-      <c r="AF16">
-        <v>1.53</v>
-      </c>
-      <c r="AG16">
-        <v>2.3</v>
-      </c>
-      <c r="AH16">
-        <v>4.5</v>
-      </c>
-      <c r="AI16">
-        <v>1.2</v>
-      </c>
-      <c r="AJ16" t="s">
-        <v>119</v>
-      </c>
-      <c r="AK16" t="s">
-        <v>119</v>
-      </c>
-      <c r="AL16">
-        <v>1.25</v>
-      </c>
-      <c r="AM16">
-        <v>1.22</v>
-      </c>
       <c r="AN16">
-        <v>1.91</v>
+        <v>3.35</v>
       </c>
       <c r="AO16">
         <v>-1</v>
       </c>
       <c r="AP16">
-        <v>1.3</v>
+        <v>1.28</v>
       </c>
       <c r="AQ16">
         <v>1.53</v>
       </c>
       <c r="AR16">
-        <v>1.87</v>
+        <v>1.92</v>
       </c>
       <c r="AS16">
-        <v>2.38</v>
+        <v>2.49</v>
       </c>
       <c r="AT16">
-        <v>3.05</v>
+        <v>3.42</v>
       </c>
       <c r="AU16">
-        <v>3.05</v>
+        <v>3.08</v>
       </c>
       <c r="AV16">
-        <v>2.28</v>
+        <v>2.21</v>
       </c>
       <c r="AW16">
-        <v>1.79</v>
+        <v>1.75</v>
       </c>
       <c r="AX16">
-        <v>1.49</v>
+        <v>1.42</v>
       </c>
       <c r="AY16">
-        <v>1.3</v>
+        <v>1.23</v>
       </c>
       <c r="AZ16">
         <v>0</v>
@@ -3454,13 +3439,13 @@
         <v>0</v>
       </c>
       <c r="BB16">
-        <v>1.67</v>
+        <v>1.22</v>
       </c>
       <c r="BC16">
-        <v>2.45</v>
+        <v>4</v>
       </c>
       <c r="BD16" s="3">
-        <v>45799.64583333334</v>
+        <v>45799.625</v>
       </c>
     </row>
     <row r="17" spans="1:56">
@@ -3471,31 +3456,31 @@
         <v>63</v>
       </c>
       <c r="C17" t="s">
+        <v>72</v>
+      </c>
+      <c r="D17" t="s">
         <v>73</v>
       </c>
-      <c r="D17" t="s">
-        <v>76</v>
-      </c>
       <c r="E17" t="s">
-        <v>93</v>
+        <v>90</v>
       </c>
       <c r="F17" t="s">
+        <v>109</v>
+      </c>
+      <c r="G17">
+        <v>0</v>
+      </c>
+      <c r="H17">
+        <v>0</v>
+      </c>
+      <c r="I17">
+        <v>0</v>
+      </c>
+      <c r="J17">
+        <v>0</v>
+      </c>
+      <c r="K17" t="s">
         <v>113</v>
-      </c>
-      <c r="G17">
-        <v>0</v>
-      </c>
-      <c r="H17">
-        <v>0</v>
-      </c>
-      <c r="I17">
-        <v>0</v>
-      </c>
-      <c r="J17">
-        <v>0</v>
-      </c>
-      <c r="K17" t="s">
-        <v>118</v>
       </c>
       <c r="L17">
         <v>2.19</v>
@@ -3570,10 +3555,10 @@
         <v>1.2</v>
       </c>
       <c r="AJ17" t="s">
-        <v>119</v>
+        <v>114</v>
       </c>
       <c r="AK17" t="s">
-        <v>119</v>
+        <v>114</v>
       </c>
       <c r="AL17">
         <v>1.22</v>
@@ -3641,16 +3626,16 @@
         <v>63</v>
       </c>
       <c r="C18" t="s">
+        <v>72</v>
+      </c>
+      <c r="D18" t="s">
         <v>73</v>
       </c>
-      <c r="D18" t="s">
-        <v>76</v>
-      </c>
       <c r="E18" t="s">
-        <v>94</v>
+        <v>91</v>
       </c>
       <c r="F18" t="s">
-        <v>114</v>
+        <v>110</v>
       </c>
       <c r="G18">
         <v>0</v>
@@ -3665,40 +3650,40 @@
         <v>0</v>
       </c>
       <c r="K18" t="s">
-        <v>118</v>
+        <v>113</v>
       </c>
       <c r="L18">
-        <v>2.63</v>
+        <v>2.41</v>
       </c>
       <c r="M18">
-        <v>3.21</v>
+        <v>3.23</v>
       </c>
       <c r="N18">
-        <v>2.33</v>
+        <v>2.53</v>
       </c>
       <c r="O18">
-        <v>1.7</v>
+        <v>1.67</v>
       </c>
       <c r="P18">
         <v>10</v>
       </c>
       <c r="Q18">
-        <v>2.4</v>
+        <v>2.45</v>
       </c>
       <c r="R18">
         <v>1.3</v>
       </c>
       <c r="S18">
-        <v>3.2</v>
+        <v>3.25</v>
       </c>
       <c r="T18">
-        <v>2.45</v>
+        <v>2.3</v>
       </c>
       <c r="U18">
-        <v>1.48</v>
+        <v>1.55</v>
       </c>
       <c r="V18">
-        <v>5.6</v>
+        <v>5.1</v>
       </c>
       <c r="W18">
         <v>1.1</v>
@@ -3710,10 +3695,10 @@
         <v>10</v>
       </c>
       <c r="Z18">
-        <v>1.22</v>
+        <v>1.2</v>
       </c>
       <c r="AA18">
-        <v>4.2</v>
+        <v>4.33</v>
       </c>
       <c r="AB18">
         <v>1.61</v>
@@ -3722,70 +3707,70 @@
         <v>2.05</v>
       </c>
       <c r="AD18">
-        <v>2.8</v>
+        <v>2.55</v>
       </c>
       <c r="AE18">
-        <v>1.42</v>
+        <v>1.5</v>
       </c>
       <c r="AF18">
-        <v>1.6</v>
+        <v>1.53</v>
       </c>
       <c r="AG18">
-        <v>2.15</v>
+        <v>2.3</v>
       </c>
       <c r="AH18">
-        <v>5.25</v>
+        <v>4.5</v>
       </c>
       <c r="AI18">
-        <v>1.15</v>
+        <v>1.2</v>
       </c>
       <c r="AJ18" t="s">
-        <v>119</v>
+        <v>114</v>
       </c>
       <c r="AK18" t="s">
-        <v>119</v>
+        <v>114</v>
       </c>
       <c r="AL18">
-        <v>1.28</v>
+        <v>1.25</v>
       </c>
       <c r="AM18">
         <v>1.22</v>
       </c>
       <c r="AN18">
-        <v>1.83</v>
+        <v>1.91</v>
       </c>
       <c r="AO18">
         <v>-1</v>
       </c>
       <c r="AP18">
-        <v>1.25</v>
+        <v>1.3</v>
       </c>
       <c r="AQ18">
-        <v>1.43</v>
+        <v>1.53</v>
       </c>
       <c r="AR18">
-        <v>1.7</v>
+        <v>1.87</v>
       </c>
       <c r="AS18">
-        <v>2.1</v>
+        <v>2.38</v>
       </c>
       <c r="AT18">
-        <v>2.65</v>
+        <v>3.05</v>
       </c>
       <c r="AU18">
-        <v>3.45</v>
+        <v>3.05</v>
       </c>
       <c r="AV18">
-        <v>2.55</v>
+        <v>2.28</v>
       </c>
       <c r="AW18">
-        <v>2</v>
+        <v>1.79</v>
       </c>
       <c r="AX18">
-        <v>1.62</v>
+        <v>1.49</v>
       </c>
       <c r="AY18">
-        <v>1.38</v>
+        <v>1.3</v>
       </c>
       <c r="AZ18">
         <v>0</v>
@@ -3794,10 +3779,10 @@
         <v>0</v>
       </c>
       <c r="BB18">
-        <v>1.7</v>
+        <v>1.67</v>
       </c>
       <c r="BC18">
-        <v>2.4</v>
+        <v>2.45</v>
       </c>
       <c r="BD18" s="3">
         <v>45799.64583333334</v>
@@ -3808,19 +3793,19 @@
         <v>45799</v>
       </c>
       <c r="B19" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="C19" t="s">
-        <v>70</v>
+        <v>72</v>
       </c>
       <c r="D19" t="s">
-        <v>76</v>
+        <v>73</v>
       </c>
       <c r="E19" t="s">
-        <v>95</v>
+        <v>92</v>
       </c>
       <c r="F19" t="s">
-        <v>115</v>
+        <v>111</v>
       </c>
       <c r="G19">
         <v>0</v>
@@ -3835,127 +3820,127 @@
         <v>0</v>
       </c>
       <c r="K19" t="s">
-        <v>118</v>
+        <v>113</v>
       </c>
       <c r="L19">
+        <v>2.63</v>
+      </c>
+      <c r="M19">
+        <v>3.21</v>
+      </c>
+      <c r="N19">
+        <v>2.33</v>
+      </c>
+      <c r="O19">
+        <v>1.7</v>
+      </c>
+      <c r="P19">
+        <v>10</v>
+      </c>
+      <c r="Q19">
+        <v>2.4</v>
+      </c>
+      <c r="R19">
+        <v>1.3</v>
+      </c>
+      <c r="S19">
+        <v>3.2</v>
+      </c>
+      <c r="T19">
+        <v>2.45</v>
+      </c>
+      <c r="U19">
+        <v>1.48</v>
+      </c>
+      <c r="V19">
+        <v>5.6</v>
+      </c>
+      <c r="W19">
+        <v>1.1</v>
+      </c>
+      <c r="X19">
+        <v>1.04</v>
+      </c>
+      <c r="Y19">
+        <v>10</v>
+      </c>
+      <c r="Z19">
+        <v>1.22</v>
+      </c>
+      <c r="AA19">
+        <v>4.2</v>
+      </c>
+      <c r="AB19">
         <v>1.61</v>
       </c>
-      <c r="M19">
-        <v>4.28</v>
-      </c>
-      <c r="N19">
-        <v>4.97</v>
-      </c>
-      <c r="O19">
-        <v>1.48</v>
-      </c>
-      <c r="P19">
-        <v>11</v>
-      </c>
-      <c r="Q19">
-        <v>2.7</v>
-      </c>
-      <c r="R19">
-        <v>1.28</v>
-      </c>
-      <c r="S19">
-        <v>3.4</v>
-      </c>
-      <c r="T19">
-        <v>2.25</v>
-      </c>
-      <c r="U19">
-        <v>1.57</v>
-      </c>
-      <c r="V19">
-        <v>5</v>
-      </c>
-      <c r="W19">
-        <v>1.13</v>
-      </c>
-      <c r="X19">
-        <v>1.03</v>
-      </c>
-      <c r="Y19">
-        <v>11</v>
-      </c>
-      <c r="Z19">
-        <v>1.18</v>
-      </c>
-      <c r="AA19">
-        <v>4.75</v>
-      </c>
-      <c r="AB19">
-        <v>1.55</v>
-      </c>
       <c r="AC19">
-        <v>2.25</v>
+        <v>2.05</v>
       </c>
       <c r="AD19">
-        <v>2.28</v>
+        <v>2.8</v>
       </c>
       <c r="AE19">
-        <v>1.6</v>
+        <v>1.42</v>
       </c>
       <c r="AF19">
         <v>1.6</v>
       </c>
       <c r="AG19">
-        <v>2.2</v>
+        <v>2.15</v>
       </c>
       <c r="AH19">
-        <v>4.2</v>
+        <v>5.25</v>
       </c>
       <c r="AI19">
+        <v>1.15</v>
+      </c>
+      <c r="AJ19" t="s">
+        <v>114</v>
+      </c>
+      <c r="AK19" t="s">
+        <v>114</v>
+      </c>
+      <c r="AL19">
+        <v>1.28</v>
+      </c>
+      <c r="AM19">
         <v>1.22</v>
       </c>
-      <c r="AJ19" t="s">
-        <v>119</v>
-      </c>
-      <c r="AK19" t="s">
-        <v>119</v>
-      </c>
-      <c r="AL19">
-        <v>1.15</v>
-      </c>
-      <c r="AM19">
-        <v>1.17</v>
-      </c>
       <c r="AN19">
-        <v>2.3</v>
+        <v>1.83</v>
       </c>
       <c r="AO19">
         <v>-1</v>
       </c>
       <c r="AP19">
-        <v>1.16</v>
+        <v>1.25</v>
       </c>
       <c r="AQ19">
-        <v>1.3</v>
+        <v>1.43</v>
       </c>
       <c r="AR19">
-        <v>1.5</v>
+        <v>1.7</v>
       </c>
       <c r="AS19">
-        <v>1.82</v>
+        <v>2.1</v>
       </c>
       <c r="AT19">
-        <v>2.23</v>
+        <v>2.65</v>
       </c>
       <c r="AU19">
-        <v>4.3</v>
+        <v>3.45</v>
       </c>
       <c r="AV19">
-        <v>3.1</v>
+        <v>2.55</v>
       </c>
       <c r="AW19">
-        <v>2.35</v>
+        <v>2</v>
       </c>
       <c r="AX19">
-        <v>1.86</v>
+        <v>1.62</v>
       </c>
       <c r="AY19">
-        <v>1.57</v>
+        <v>1.38</v>
       </c>
       <c r="AZ19">
         <v>0</v>
@@ -3964,13 +3949,13 @@
         <v>0</v>
       </c>
       <c r="BB19">
-        <v>1.48</v>
+        <v>1.7</v>
       </c>
       <c r="BC19">
-        <v>2.7</v>
+        <v>2.4</v>
       </c>
       <c r="BD19" s="3">
-        <v>45799.66666666666</v>
+        <v>45799.64583333334</v>
       </c>
     </row>
     <row r="20" spans="1:56">
@@ -3978,19 +3963,19 @@
         <v>45799</v>
       </c>
       <c r="B20" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="C20" t="s">
-        <v>74</v>
+        <v>68</v>
       </c>
       <c r="D20" t="s">
-        <v>77</v>
+        <v>73</v>
       </c>
       <c r="E20" t="s">
-        <v>96</v>
+        <v>93</v>
       </c>
       <c r="F20" t="s">
-        <v>116</v>
+        <v>112</v>
       </c>
       <c r="G20">
         <v>0</v>
@@ -4005,127 +3990,127 @@
         <v>0</v>
       </c>
       <c r="K20" t="s">
-        <v>118</v>
+        <v>113</v>
       </c>
       <c r="L20">
-        <v>3.09</v>
+        <v>1.61</v>
       </c>
       <c r="M20">
-        <v>3.09</v>
+        <v>4.28</v>
       </c>
       <c r="N20">
-        <v>2.12</v>
+        <v>4.97</v>
       </c>
       <c r="O20">
+        <v>1.48</v>
+      </c>
+      <c r="P20">
+        <v>11</v>
+      </c>
+      <c r="Q20">
+        <v>2.7</v>
+      </c>
+      <c r="R20">
+        <v>1.28</v>
+      </c>
+      <c r="S20">
+        <v>3.4</v>
+      </c>
+      <c r="T20">
         <v>2.25</v>
       </c>
-      <c r="P20">
-        <v>7.5</v>
-      </c>
-      <c r="Q20">
-        <v>1.93</v>
-      </c>
-      <c r="R20">
-        <v>1.5</v>
-      </c>
-      <c r="S20">
-        <v>2.5</v>
-      </c>
-      <c r="T20">
-        <v>3.48</v>
-      </c>
       <c r="U20">
-        <v>1.26</v>
+        <v>1.57</v>
       </c>
       <c r="V20">
-        <v>7.5</v>
+        <v>5</v>
       </c>
       <c r="W20">
-        <v>1.04</v>
+        <v>1.13</v>
       </c>
       <c r="X20">
         <v>1.03</v>
       </c>
       <c r="Y20">
-        <v>7.3</v>
+        <v>11</v>
       </c>
       <c r="Z20">
-        <v>1.44</v>
+        <v>1.18</v>
       </c>
       <c r="AA20">
-        <v>2.52</v>
+        <v>4.75</v>
       </c>
       <c r="AB20">
-        <v>2.44</v>
+        <v>1.55</v>
       </c>
       <c r="AC20">
-        <v>1.53</v>
+        <v>2.25</v>
       </c>
       <c r="AD20">
-        <v>4.6</v>
+        <v>2.28</v>
       </c>
       <c r="AE20">
-        <v>1.16</v>
+        <v>1.6</v>
       </c>
       <c r="AF20">
-        <v>1.91</v>
+        <v>1.6</v>
       </c>
       <c r="AG20">
-        <v>1.77</v>
+        <v>2.2</v>
       </c>
       <c r="AH20">
-        <v>9</v>
+        <v>4.2</v>
       </c>
       <c r="AI20">
-        <v>1.03</v>
+        <v>1.22</v>
       </c>
       <c r="AJ20" t="s">
-        <v>119</v>
+        <v>114</v>
       </c>
       <c r="AK20" t="s">
-        <v>119</v>
+        <v>114</v>
       </c>
       <c r="AL20">
-        <v>1.33</v>
+        <v>1.15</v>
       </c>
       <c r="AM20">
-        <v>1.3</v>
+        <v>1.17</v>
       </c>
       <c r="AN20">
-        <v>1.4</v>
+        <v>2.3</v>
       </c>
       <c r="AO20">
         <v>-1</v>
       </c>
       <c r="AP20">
-        <v>1.45</v>
+        <v>1.16</v>
       </c>
       <c r="AQ20">
-        <v>1.76</v>
+        <v>1.3</v>
       </c>
       <c r="AR20">
-        <v>2.2</v>
+        <v>1.5</v>
       </c>
       <c r="AS20">
-        <v>2.9</v>
+        <v>1.82</v>
       </c>
       <c r="AT20">
-        <v>3.9</v>
+        <v>2.23</v>
       </c>
       <c r="AU20">
-        <v>2.48</v>
+        <v>4.3</v>
       </c>
       <c r="AV20">
-        <v>1.92</v>
+        <v>3.1</v>
       </c>
       <c r="AW20">
-        <v>1.56</v>
+        <v>2.35</v>
       </c>
       <c r="AX20">
-        <v>1.34</v>
+        <v>1.86</v>
       </c>
       <c r="AY20">
-        <v>1.19</v>
+        <v>1.57</v>
       </c>
       <c r="AZ20">
         <v>0</v>
@@ -4134,183 +4119,13 @@
         <v>0</v>
       </c>
       <c r="BB20">
-        <v>2.25</v>
+        <v>1.48</v>
       </c>
       <c r="BC20">
-        <v>1.93</v>
+        <v>2.7</v>
       </c>
       <c r="BD20" s="3">
-        <v>45799.75</v>
-      </c>
-    </row>
-    <row r="21" spans="1:56">
-      <c r="A21" s="2">
-        <v>45799</v>
-      </c>
-      <c r="B21" t="s">
-        <v>66</v>
-      </c>
-      <c r="C21" t="s">
-        <v>75</v>
-      </c>
-      <c r="D21" t="s">
-        <v>76</v>
-      </c>
-      <c r="E21" t="s">
-        <v>97</v>
-      </c>
-      <c r="F21" t="s">
-        <v>117</v>
-      </c>
-      <c r="G21">
-        <v>0</v>
-      </c>
-      <c r="H21">
-        <v>0</v>
-      </c>
-      <c r="I21">
-        <v>0</v>
-      </c>
-      <c r="J21">
-        <v>0</v>
-      </c>
-      <c r="K21" t="s">
-        <v>118</v>
-      </c>
-      <c r="L21">
-        <v>0</v>
-      </c>
-      <c r="M21">
-        <v>0</v>
-      </c>
-      <c r="N21">
-        <v>0</v>
-      </c>
-      <c r="O21">
-        <v>0</v>
-      </c>
-      <c r="P21">
-        <v>0</v>
-      </c>
-      <c r="Q21">
-        <v>0</v>
-      </c>
-      <c r="R21">
-        <v>0</v>
-      </c>
-      <c r="S21">
-        <v>0</v>
-      </c>
-      <c r="T21">
-        <v>0</v>
-      </c>
-      <c r="U21">
-        <v>0</v>
-      </c>
-      <c r="V21">
-        <v>0</v>
-      </c>
-      <c r="W21">
-        <v>0</v>
-      </c>
-      <c r="X21">
-        <v>0</v>
-      </c>
-      <c r="Y21">
-        <v>0</v>
-      </c>
-      <c r="Z21">
-        <v>0</v>
-      </c>
-      <c r="AA21">
-        <v>0</v>
-      </c>
-      <c r="AB21">
-        <v>0</v>
-      </c>
-      <c r="AC21">
-        <v>0</v>
-      </c>
-      <c r="AD21">
-        <v>0</v>
-      </c>
-      <c r="AE21">
-        <v>0</v>
-      </c>
-      <c r="AF21">
-        <v>0</v>
-      </c>
-      <c r="AG21">
-        <v>0</v>
-      </c>
-      <c r="AH21">
-        <v>0</v>
-      </c>
-      <c r="AI21">
-        <v>0</v>
-      </c>
-      <c r="AJ21" t="s">
-        <v>119</v>
-      </c>
-      <c r="AK21" t="s">
-        <v>119</v>
-      </c>
-      <c r="AL21">
-        <v>0</v>
-      </c>
-      <c r="AM21">
-        <v>0</v>
-      </c>
-      <c r="AN21">
-        <v>0</v>
-      </c>
-      <c r="AO21">
-        <v>-1</v>
-      </c>
-      <c r="AP21">
-        <v>0</v>
-      </c>
-      <c r="AQ21">
-        <v>0</v>
-      </c>
-      <c r="AR21">
-        <v>0</v>
-      </c>
-      <c r="AS21">
-        <v>0</v>
-      </c>
-      <c r="AT21">
-        <v>0</v>
-      </c>
-      <c r="AU21">
-        <v>0</v>
-      </c>
-      <c r="AV21">
-        <v>0</v>
-      </c>
-      <c r="AW21">
-        <v>0</v>
-      </c>
-      <c r="AX21">
-        <v>0</v>
-      </c>
-      <c r="AY21">
-        <v>0</v>
-      </c>
-      <c r="AZ21">
-        <v>0</v>
-      </c>
-      <c r="BA21">
-        <v>0</v>
-      </c>
-      <c r="BB21">
-        <v>0</v>
-      </c>
-      <c r="BC21">
-        <v>0</v>
-      </c>
-      <c r="BD21" s="3">
-        <v>45799.79166666666</v>
+        <v>45799.66666666666</v>
       </c>
     </row>
   </sheetData>

--- a/jogos_2025-05-22.xlsx
+++ b/jogos_2025-05-22.xlsx
@@ -223,12 +223,12 @@
     <t>Netherlands Eredivisie</t>
   </si>
   <si>
+    <t>Sweden Superettan</t>
+  </si>
+  <si>
     <t>Sweden Allsvenskan</t>
   </si>
   <si>
-    <t>Sweden Superettan</t>
-  </si>
-  <si>
     <t>Algeria Ligue 1</t>
   </si>
   <si>
@@ -241,12 +241,12 @@
     <t>2025</t>
   </si>
   <si>
+    <t>Levadiakos</t>
+  </si>
+  <si>
     <t>Panaitolikos</t>
   </si>
   <si>
-    <t>Levadiakos</t>
-  </si>
-  <si>
     <t>Al Khaleej</t>
   </si>
   <si>
@@ -259,51 +259,51 @@
     <t>AZ</t>
   </si>
   <si>
+    <t>Varberg</t>
+  </si>
+  <si>
+    <t>Malmö FF</t>
+  </si>
+  <si>
     <t>Hammarby</t>
   </si>
   <si>
+    <t>Kalmar</t>
+  </si>
+  <si>
     <t>Kallithea</t>
   </si>
   <si>
     <t>Helsingborg</t>
   </si>
   <si>
-    <t>Varberg</t>
-  </si>
-  <si>
     <t>CS Constantine</t>
   </si>
   <si>
-    <t>Kalmar</t>
-  </si>
-  <si>
-    <t>Malmö FF</t>
-  </si>
-  <si>
     <t>GIF Sundsvall</t>
   </si>
   <si>
     <t>Al Ahli</t>
   </si>
   <si>
+    <t>Winterthur</t>
+  </si>
+  <si>
     <t>Grasshopper</t>
   </si>
   <si>
-    <t>Winterthur</t>
-  </si>
-  <si>
     <t>Yverdon Sport</t>
   </si>
   <si>
     <t>Twente</t>
   </si>
   <si>
+    <t>Volos NFC</t>
+  </si>
+  <si>
     <t>Panserraikos</t>
   </si>
   <si>
-    <t>Volos NFC</t>
-  </si>
-  <si>
     <t>Al Sharjah</t>
   </si>
   <si>
@@ -316,37 +316,37 @@
     <t>Heerenveen</t>
   </si>
   <si>
+    <t>Landskrona</t>
+  </si>
+  <si>
+    <t>AIK</t>
+  </si>
+  <si>
     <t>Mjällby</t>
   </si>
   <si>
+    <t>Umeå</t>
+  </si>
+  <si>
     <t>Lamia</t>
   </si>
   <si>
     <t>Oddevold</t>
   </si>
   <si>
-    <t>Landskrona</t>
-  </si>
-  <si>
     <t>MC Oran</t>
   </si>
   <si>
-    <t>Umeå</t>
-  </si>
-  <si>
-    <t>AIK</t>
-  </si>
-  <si>
     <t>Brage</t>
   </si>
   <si>
     <t>Al Ittifaq</t>
   </si>
   <si>
+    <t>Sion</t>
+  </si>
+  <si>
     <t>St. Gallen</t>
-  </si>
-  <si>
-    <t>Sion</t>
   </si>
   <si>
     <t>Zürich</t>
@@ -933,76 +933,76 @@
         <v>113</v>
       </c>
       <c r="L2">
-        <v>2.4</v>
+        <v>2.19</v>
       </c>
       <c r="M2">
-        <v>3.16</v>
+        <v>3.4</v>
       </c>
       <c r="N2">
-        <v>2.91</v>
+        <v>3.05</v>
       </c>
       <c r="O2">
         <v>1.67</v>
       </c>
       <c r="P2">
-        <v>8</v>
+        <v>8.5</v>
       </c>
       <c r="Q2">
-        <v>2.38</v>
+        <v>2.3</v>
       </c>
       <c r="R2">
-        <v>1.4</v>
+        <v>1.38</v>
       </c>
       <c r="S2">
-        <v>2.7</v>
+        <v>2.8</v>
       </c>
       <c r="T2">
-        <v>2.88</v>
+        <v>2.8</v>
       </c>
       <c r="U2">
-        <v>1.36</v>
+        <v>1.38</v>
       </c>
       <c r="V2">
-        <v>7</v>
+        <v>6.4</v>
       </c>
       <c r="W2">
-        <v>1.07</v>
+        <v>1.08</v>
       </c>
       <c r="X2">
-        <v>1.06</v>
+        <v>1.05</v>
       </c>
       <c r="Y2">
-        <v>8</v>
+        <v>8.5</v>
       </c>
       <c r="Z2">
-        <v>1.33</v>
+        <v>1.29</v>
       </c>
       <c r="AA2">
-        <v>3.1</v>
+        <v>3.3</v>
       </c>
       <c r="AB2">
-        <v>2</v>
+        <v>1.85</v>
       </c>
       <c r="AC2">
-        <v>1.8</v>
+        <v>1.75</v>
       </c>
       <c r="AD2">
-        <v>3.6</v>
+        <v>3.35</v>
       </c>
       <c r="AE2">
-        <v>1.25</v>
+        <v>1.3</v>
       </c>
       <c r="AF2">
-        <v>1.77</v>
+        <v>1.7</v>
       </c>
       <c r="AG2">
-        <v>1.85</v>
+        <v>1.95</v>
       </c>
       <c r="AH2">
         <v>7.5</v>
       </c>
       <c r="AI2">
-        <v>1.06</v>
+        <v>1.05</v>
       </c>
       <c r="AJ2" t="s">
         <v>114</v>
@@ -1011,46 +1011,46 @@
         <v>114</v>
       </c>
       <c r="AL2">
-        <v>1.33</v>
+        <v>1.35</v>
       </c>
       <c r="AM2">
         <v>1.25</v>
       </c>
       <c r="AN2">
-        <v>1.67</v>
+        <v>1.62</v>
       </c>
       <c r="AO2">
         <v>-1</v>
       </c>
       <c r="AP2">
-        <v>1.46</v>
+        <v>1.54</v>
       </c>
       <c r="AQ2">
-        <v>1.77</v>
+        <v>1.85</v>
       </c>
       <c r="AR2">
-        <v>2.27</v>
+        <v>2.46</v>
       </c>
       <c r="AS2">
-        <v>3.05</v>
+        <v>2.85</v>
       </c>
       <c r="AT2">
-        <v>0</v>
+        <v>3.8</v>
       </c>
       <c r="AU2">
-        <v>2.61</v>
+        <v>2.41</v>
       </c>
       <c r="AV2">
-        <v>1.95</v>
+        <v>1.85</v>
       </c>
       <c r="AW2">
-        <v>1.6</v>
+        <v>1.52</v>
       </c>
       <c r="AX2">
-        <v>1.28</v>
+        <v>1.32</v>
       </c>
       <c r="AY2">
-        <v>0</v>
+        <v>1.18</v>
       </c>
       <c r="AZ2">
         <v>0</v>
@@ -1062,7 +1062,7 @@
         <v>1.67</v>
       </c>
       <c r="BC2">
-        <v>2.38</v>
+        <v>2.3</v>
       </c>
       <c r="BD2" s="3">
         <v>45799.5</v>
@@ -1103,76 +1103,76 @@
         <v>113</v>
       </c>
       <c r="L3">
-        <v>2.19</v>
+        <v>2.4</v>
       </c>
       <c r="M3">
-        <v>3.4</v>
+        <v>3.16</v>
       </c>
       <c r="N3">
-        <v>3.05</v>
+        <v>2.91</v>
       </c>
       <c r="O3">
         <v>1.67</v>
       </c>
       <c r="P3">
-        <v>8.5</v>
+        <v>8</v>
       </c>
       <c r="Q3">
-        <v>2.3</v>
+        <v>2.38</v>
       </c>
       <c r="R3">
-        <v>1.38</v>
+        <v>1.4</v>
       </c>
       <c r="S3">
-        <v>2.8</v>
+        <v>2.7</v>
       </c>
       <c r="T3">
-        <v>2.8</v>
+        <v>2.88</v>
       </c>
       <c r="U3">
-        <v>1.38</v>
+        <v>1.36</v>
       </c>
       <c r="V3">
-        <v>6.4</v>
+        <v>7</v>
       </c>
       <c r="W3">
-        <v>1.08</v>
+        <v>1.07</v>
       </c>
       <c r="X3">
-        <v>1.05</v>
+        <v>1.06</v>
       </c>
       <c r="Y3">
-        <v>8.5</v>
+        <v>8</v>
       </c>
       <c r="Z3">
-        <v>1.29</v>
+        <v>1.33</v>
       </c>
       <c r="AA3">
-        <v>3.3</v>
+        <v>3.1</v>
       </c>
       <c r="AB3">
-        <v>2.02</v>
+        <v>2</v>
       </c>
       <c r="AC3">
-        <v>1.79</v>
+        <v>1.8</v>
       </c>
       <c r="AD3">
-        <v>3.35</v>
+        <v>3.6</v>
       </c>
       <c r="AE3">
-        <v>1.3</v>
+        <v>1.25</v>
       </c>
       <c r="AF3">
-        <v>1.7</v>
+        <v>1.77</v>
       </c>
       <c r="AG3">
-        <v>1.95</v>
+        <v>1.85</v>
       </c>
       <c r="AH3">
         <v>7.5</v>
       </c>
       <c r="AI3">
-        <v>1.05</v>
+        <v>1.06</v>
       </c>
       <c r="AJ3" t="s">
         <v>114</v>
@@ -1181,46 +1181,46 @@
         <v>114</v>
       </c>
       <c r="AL3">
-        <v>1.35</v>
+        <v>1.33</v>
       </c>
       <c r="AM3">
         <v>1.25</v>
       </c>
       <c r="AN3">
-        <v>1.62</v>
+        <v>1.67</v>
       </c>
       <c r="AO3">
         <v>-1</v>
       </c>
       <c r="AP3">
-        <v>1.54</v>
+        <v>1.46</v>
       </c>
       <c r="AQ3">
-        <v>1.85</v>
+        <v>1.77</v>
       </c>
       <c r="AR3">
-        <v>2.46</v>
+        <v>2.27</v>
       </c>
       <c r="AS3">
-        <v>2.85</v>
+        <v>3.05</v>
       </c>
       <c r="AT3">
-        <v>3.8</v>
+        <v>3.6</v>
       </c>
       <c r="AU3">
-        <v>2.41</v>
+        <v>2.61</v>
       </c>
       <c r="AV3">
-        <v>1.85</v>
+        <v>1.95</v>
       </c>
       <c r="AW3">
-        <v>1.52</v>
+        <v>1.6</v>
       </c>
       <c r="AX3">
-        <v>1.32</v>
+        <v>1.28</v>
       </c>
       <c r="AY3">
-        <v>1.18</v>
+        <v>1.25</v>
       </c>
       <c r="AZ3">
         <v>0</v>
@@ -1232,7 +1232,7 @@
         <v>1.67</v>
       </c>
       <c r="BC3">
-        <v>2.3</v>
+        <v>2.38</v>
       </c>
       <c r="BD3" s="3">
         <v>45799.5</v>
@@ -1834,7 +1834,7 @@
         <v>1.52</v>
       </c>
       <c r="AC7">
-        <v>2.45</v>
+        <v>2.43</v>
       </c>
       <c r="AD7">
         <v>2.25</v>
@@ -1953,40 +1953,40 @@
         <v>113</v>
       </c>
       <c r="L8">
-        <v>1.86</v>
+        <v>2.15</v>
       </c>
       <c r="M8">
-        <v>3.41</v>
+        <v>3.5</v>
       </c>
       <c r="N8">
-        <v>3.45</v>
+        <v>2.72</v>
       </c>
       <c r="O8">
-        <v>1.67</v>
+        <v>1.85</v>
       </c>
       <c r="P8">
-        <v>10</v>
+        <v>9.5</v>
       </c>
       <c r="Q8">
-        <v>2.5</v>
+        <v>2.1</v>
       </c>
       <c r="R8">
-        <v>1.36</v>
+        <v>1.3</v>
       </c>
       <c r="S8">
-        <v>2.9</v>
+        <v>3.2</v>
       </c>
       <c r="T8">
-        <v>2.62</v>
+        <v>2.45</v>
       </c>
       <c r="U8">
-        <v>1.42</v>
+        <v>1.5</v>
       </c>
       <c r="V8">
-        <v>6.65</v>
+        <v>5.6</v>
       </c>
       <c r="W8">
-        <v>1.05</v>
+        <v>1.11</v>
       </c>
       <c r="X8">
         <v>1.05</v>
@@ -1995,10 +1995,10 @@
         <v>10</v>
       </c>
       <c r="Z8">
-        <v>1.28</v>
+        <v>1.18</v>
       </c>
       <c r="AA8">
-        <v>3.75</v>
+        <v>4.25</v>
       </c>
       <c r="AB8">
         <v>1.83</v>
@@ -2007,22 +2007,22 @@
         <v>1.87</v>
       </c>
       <c r="AD8">
-        <v>3.1</v>
+        <v>2.75</v>
       </c>
       <c r="AE8">
-        <v>1.38</v>
+        <v>1.42</v>
       </c>
       <c r="AF8">
-        <v>1.67</v>
+        <v>1.53</v>
       </c>
       <c r="AG8">
-        <v>2.05</v>
+        <v>2.25</v>
       </c>
       <c r="AH8">
-        <v>6</v>
+        <v>5.3</v>
       </c>
       <c r="AI8">
-        <v>1.13</v>
+        <v>1.12</v>
       </c>
       <c r="AJ8" t="s">
         <v>114</v>
@@ -2031,46 +2031,46 @@
         <v>114</v>
       </c>
       <c r="AL8">
-        <v>1.25</v>
+        <v>1.36</v>
       </c>
       <c r="AM8">
         <v>1.22</v>
       </c>
       <c r="AN8">
-        <v>1.85</v>
+        <v>1.55</v>
       </c>
       <c r="AO8">
         <v>-1</v>
       </c>
       <c r="AP8">
-        <v>1.18</v>
+        <v>1.2</v>
       </c>
       <c r="AQ8">
-        <v>1.3</v>
+        <v>1.35</v>
       </c>
       <c r="AR8">
-        <v>1.5</v>
+        <v>1.58</v>
       </c>
       <c r="AS8">
-        <v>1.79</v>
+        <v>1.92</v>
       </c>
       <c r="AT8">
+        <v>2.4</v>
+      </c>
+      <c r="AU8">
+        <v>3.95</v>
+      </c>
+      <c r="AV8">
+        <v>2.9</v>
+      </c>
+      <c r="AW8">
         <v>2.2</v>
       </c>
-      <c r="AU8">
-        <v>4.3</v>
-      </c>
-      <c r="AV8">
-        <v>3.05</v>
-      </c>
-      <c r="AW8">
-        <v>2.35</v>
-      </c>
       <c r="AX8">
-        <v>1.9</v>
+        <v>1.77</v>
       </c>
       <c r="AY8">
-        <v>1.58</v>
+        <v>1.49</v>
       </c>
       <c r="AZ8">
         <v>0</v>
@@ -2079,10 +2079,10 @@
         <v>0</v>
       </c>
       <c r="BB8">
-        <v>1.67</v>
+        <v>1.85</v>
       </c>
       <c r="BC8">
-        <v>2.5</v>
+        <v>2.1</v>
       </c>
       <c r="BD8" s="3">
         <v>45799.58333333334</v>
@@ -2096,10 +2096,10 @@
         <v>61</v>
       </c>
       <c r="C9" t="s">
-        <v>65</v>
+        <v>70</v>
       </c>
       <c r="D9" t="s">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="E9" t="s">
         <v>82</v>
@@ -2123,73 +2123,73 @@
         <v>113</v>
       </c>
       <c r="L9">
-        <v>1.51</v>
+        <v>1.59</v>
       </c>
       <c r="M9">
-        <v>4</v>
+        <v>3.56</v>
       </c>
       <c r="N9">
-        <v>6</v>
+        <v>4.75</v>
       </c>
       <c r="O9">
-        <v>1.29</v>
+        <v>1.62</v>
       </c>
       <c r="P9">
-        <v>9</v>
+        <v>8.5</v>
       </c>
       <c r="Q9">
-        <v>4</v>
+        <v>2.8</v>
       </c>
       <c r="R9">
+        <v>1.42</v>
+      </c>
+      <c r="S9">
+        <v>2.62</v>
+      </c>
+      <c r="T9">
+        <v>3</v>
+      </c>
+      <c r="U9">
         <v>1.33</v>
       </c>
-      <c r="S9">
-        <v>2.93</v>
-      </c>
-      <c r="T9">
-        <v>2.67</v>
-      </c>
-      <c r="U9">
-        <v>1.39</v>
-      </c>
       <c r="V9">
-        <v>7.1</v>
+        <v>8.4</v>
       </c>
       <c r="W9">
-        <v>1.04</v>
+        <v>1.01</v>
       </c>
       <c r="X9">
-        <v>1.01</v>
+        <v>1.07</v>
       </c>
       <c r="Y9">
-        <v>11</v>
+        <v>8.5</v>
       </c>
       <c r="Z9">
-        <v>1.2</v>
+        <v>1.38</v>
       </c>
       <c r="AA9">
-        <v>4</v>
+        <v>3.1</v>
       </c>
       <c r="AB9">
-        <v>1.9</v>
+        <v>2.02</v>
       </c>
       <c r="AC9">
-        <v>1.9</v>
+        <v>1.7</v>
       </c>
       <c r="AD9">
-        <v>3</v>
+        <v>3.95</v>
       </c>
       <c r="AE9">
-        <v>1.33</v>
+        <v>1.25</v>
       </c>
       <c r="AF9">
-        <v>2.02</v>
+        <v>1.93</v>
       </c>
       <c r="AG9">
         <v>1.75</v>
       </c>
       <c r="AH9">
-        <v>6.5</v>
+        <v>8</v>
       </c>
       <c r="AI9">
         <v>1.08</v>
@@ -2201,46 +2201,46 @@
         <v>114</v>
       </c>
       <c r="AL9">
-        <v>1.08</v>
+        <v>1.2</v>
       </c>
       <c r="AM9">
-        <v>1.21</v>
+        <v>1.25</v>
       </c>
       <c r="AN9">
-        <v>2.86</v>
+        <v>1.95</v>
       </c>
       <c r="AO9">
         <v>-1</v>
       </c>
       <c r="AP9">
-        <v>1.36</v>
+        <v>1.23</v>
       </c>
       <c r="AQ9">
-        <v>1.69</v>
+        <v>1.38</v>
       </c>
       <c r="AR9">
-        <v>2.14</v>
+        <v>1.63</v>
       </c>
       <c r="AS9">
-        <v>2.83</v>
+        <v>1.98</v>
       </c>
       <c r="AT9">
-        <v>0</v>
+        <v>2.48</v>
       </c>
       <c r="AU9">
-        <v>2.78</v>
+        <v>3.7</v>
       </c>
       <c r="AV9">
-        <v>2.04</v>
+        <v>2.7</v>
       </c>
       <c r="AW9">
-        <v>1.6</v>
+        <v>2.12</v>
       </c>
       <c r="AX9">
-        <v>1.33</v>
+        <v>1.73</v>
       </c>
       <c r="AY9">
-        <v>0</v>
+        <v>1.47</v>
       </c>
       <c r="AZ9">
         <v>0</v>
@@ -2249,10 +2249,10 @@
         <v>0</v>
       </c>
       <c r="BB9">
-        <v>1.29</v>
+        <v>1.62</v>
       </c>
       <c r="BC9">
-        <v>4</v>
+        <v>2.8</v>
       </c>
       <c r="BD9" s="3">
         <v>45799.58333333334</v>
@@ -2293,76 +2293,76 @@
         <v>113</v>
       </c>
       <c r="L10">
-        <v>1.68</v>
+        <v>1.86</v>
       </c>
       <c r="M10">
-        <v>3.47</v>
+        <v>3.41</v>
       </c>
       <c r="N10">
-        <v>4.2</v>
+        <v>3.45</v>
       </c>
       <c r="O10">
-        <v>1.7</v>
+        <v>1.67</v>
       </c>
       <c r="P10">
-        <v>8.5</v>
+        <v>10</v>
       </c>
       <c r="Q10">
-        <v>2.45</v>
+        <v>2.5</v>
       </c>
       <c r="R10">
-        <v>1.41</v>
+        <v>1.36</v>
       </c>
       <c r="S10">
-        <v>2.8</v>
+        <v>2.9</v>
       </c>
       <c r="T10">
-        <v>2.9</v>
+        <v>2.62</v>
       </c>
       <c r="U10">
-        <v>1.38</v>
+        <v>1.42</v>
       </c>
       <c r="V10">
-        <v>6.75</v>
+        <v>6.65</v>
       </c>
       <c r="W10">
-        <v>1.07</v>
+        <v>1.05</v>
       </c>
       <c r="X10">
-        <v>1.01</v>
+        <v>1.05</v>
       </c>
       <c r="Y10">
-        <v>10.5</v>
+        <v>10</v>
       </c>
       <c r="Z10">
         <v>1.28</v>
       </c>
       <c r="AA10">
-        <v>3.35</v>
+        <v>3.75</v>
       </c>
       <c r="AB10">
-        <v>1.95</v>
+        <v>1.83</v>
       </c>
       <c r="AC10">
-        <v>1.75</v>
+        <v>1.87</v>
       </c>
       <c r="AD10">
-        <v>3.7</v>
+        <v>3.1</v>
       </c>
       <c r="AE10">
-        <v>1.24</v>
+        <v>1.38</v>
       </c>
       <c r="AF10">
-        <v>1.83</v>
+        <v>1.67</v>
       </c>
       <c r="AG10">
-        <v>1.81</v>
+        <v>2.05</v>
       </c>
       <c r="AH10">
-        <v>7.5</v>
+        <v>6</v>
       </c>
       <c r="AI10">
-        <v>1.05</v>
+        <v>1.13</v>
       </c>
       <c r="AJ10" t="s">
         <v>114</v>
@@ -2371,46 +2371,46 @@
         <v>114</v>
       </c>
       <c r="AL10">
-        <v>1.15</v>
+        <v>1.25</v>
       </c>
       <c r="AM10">
         <v>1.22</v>
       </c>
       <c r="AN10">
-        <v>1.93</v>
+        <v>1.85</v>
       </c>
       <c r="AO10">
         <v>-1</v>
       </c>
       <c r="AP10">
-        <v>1.25</v>
+        <v>1.18</v>
       </c>
       <c r="AQ10">
-        <v>1.45</v>
+        <v>1.3</v>
       </c>
       <c r="AR10">
-        <v>1.73</v>
+        <v>1.5</v>
       </c>
       <c r="AS10">
-        <v>2.15</v>
+        <v>1.79</v>
       </c>
       <c r="AT10">
-        <v>2.7</v>
+        <v>2.2</v>
       </c>
       <c r="AU10">
-        <v>3.45</v>
+        <v>4.3</v>
       </c>
       <c r="AV10">
-        <v>2.55</v>
+        <v>3.05</v>
       </c>
       <c r="AW10">
-        <v>1.98</v>
+        <v>2.35</v>
       </c>
       <c r="AX10">
-        <v>1.61</v>
+        <v>1.9</v>
       </c>
       <c r="AY10">
-        <v>1.4</v>
+        <v>1.58</v>
       </c>
       <c r="AZ10">
         <v>0</v>
@@ -2419,10 +2419,10 @@
         <v>0</v>
       </c>
       <c r="BB10">
-        <v>1.7</v>
+        <v>1.67</v>
       </c>
       <c r="BC10">
-        <v>2.45</v>
+        <v>2.5</v>
       </c>
       <c r="BD10" s="3">
         <v>45799.58333333334</v>
@@ -2436,7 +2436,7 @@
         <v>61</v>
       </c>
       <c r="C11" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="D11" t="s">
         <v>74</v>
@@ -2463,76 +2463,76 @@
         <v>113</v>
       </c>
       <c r="L11">
-        <v>2.15</v>
+        <v>1.22</v>
       </c>
       <c r="M11">
-        <v>3.5</v>
+        <v>5.2</v>
       </c>
       <c r="N11">
-        <v>2.72</v>
+        <v>9.199999999999999</v>
       </c>
       <c r="O11">
-        <v>1.85</v>
+        <v>1.25</v>
       </c>
       <c r="P11">
-        <v>9.5</v>
+        <v>13</v>
       </c>
       <c r="Q11">
-        <v>2.1</v>
+        <v>4.2</v>
       </c>
       <c r="R11">
-        <v>1.3</v>
+        <v>1.25</v>
       </c>
       <c r="S11">
-        <v>3.2</v>
+        <v>3.55</v>
       </c>
       <c r="T11">
-        <v>2.45</v>
+        <v>2.2</v>
       </c>
       <c r="U11">
-        <v>1.5</v>
+        <v>1.6</v>
       </c>
       <c r="V11">
-        <v>5.6</v>
+        <v>5.15</v>
       </c>
       <c r="W11">
         <v>1.11</v>
       </c>
       <c r="X11">
-        <v>1.05</v>
+        <v>1.03</v>
       </c>
       <c r="Y11">
-        <v>10</v>
+        <v>13</v>
       </c>
       <c r="Z11">
         <v>1.18</v>
       </c>
       <c r="AA11">
-        <v>4.25</v>
+        <v>5</v>
       </c>
       <c r="AB11">
-        <v>1.83</v>
+        <v>1.55</v>
       </c>
       <c r="AC11">
-        <v>1.87</v>
+        <v>2.2</v>
       </c>
       <c r="AD11">
-        <v>2.75</v>
+        <v>2.4</v>
       </c>
       <c r="AE11">
-        <v>1.42</v>
+        <v>1.5</v>
       </c>
       <c r="AF11">
-        <v>1.53</v>
+        <v>2.05</v>
       </c>
       <c r="AG11">
-        <v>2.25</v>
+        <v>1.65</v>
       </c>
       <c r="AH11">
-        <v>5.3</v>
+        <v>4.5</v>
       </c>
       <c r="AI11">
-        <v>1.12</v>
+        <v>1.2</v>
       </c>
       <c r="AJ11" t="s">
         <v>114</v>
@@ -2541,43 +2541,43 @@
         <v>114</v>
       </c>
       <c r="AL11">
-        <v>1.36</v>
+        <v>1.04</v>
       </c>
       <c r="AM11">
-        <v>1.22</v>
+        <v>1.12</v>
       </c>
       <c r="AN11">
-        <v>1.55</v>
+        <v>3.85</v>
       </c>
       <c r="AO11">
         <v>-1</v>
       </c>
       <c r="AP11">
-        <v>1.2</v>
+        <v>1.22</v>
       </c>
       <c r="AQ11">
-        <v>1.35</v>
+        <v>1.38</v>
       </c>
       <c r="AR11">
-        <v>1.58</v>
+        <v>1.61</v>
       </c>
       <c r="AS11">
-        <v>1.92</v>
+        <v>1.96</v>
       </c>
       <c r="AT11">
-        <v>2.4</v>
+        <v>2.43</v>
       </c>
       <c r="AU11">
-        <v>3.95</v>
+        <v>3.8</v>
       </c>
       <c r="AV11">
-        <v>2.9</v>
+        <v>2.8</v>
       </c>
       <c r="AW11">
-        <v>2.2</v>
+        <v>2.15</v>
       </c>
       <c r="AX11">
-        <v>1.77</v>
+        <v>1.74</v>
       </c>
       <c r="AY11">
         <v>1.49</v>
@@ -2589,10 +2589,10 @@
         <v>0</v>
       </c>
       <c r="BB11">
-        <v>1.85</v>
+        <v>1.25</v>
       </c>
       <c r="BC11">
-        <v>2.1</v>
+        <v>4.2</v>
       </c>
       <c r="BD11" s="3">
         <v>45799.58333333334</v>
@@ -2606,7 +2606,7 @@
         <v>61</v>
       </c>
       <c r="C12" t="s">
-        <v>71</v>
+        <v>65</v>
       </c>
       <c r="D12" t="s">
         <v>73</v>
@@ -2633,76 +2633,76 @@
         <v>113</v>
       </c>
       <c r="L12">
-        <v>1.41</v>
+        <v>1.51</v>
       </c>
       <c r="M12">
-        <v>4.2</v>
+        <v>4</v>
       </c>
       <c r="N12">
-        <v>5.7</v>
+        <v>6</v>
       </c>
       <c r="O12">
-        <v>1.3</v>
+        <v>1.29</v>
       </c>
       <c r="P12">
-        <v>9.5</v>
+        <v>9</v>
       </c>
       <c r="Q12">
         <v>4</v>
       </c>
       <c r="R12">
-        <v>1.3</v>
+        <v>1.33</v>
       </c>
       <c r="S12">
-        <v>3.34</v>
+        <v>2.93</v>
       </c>
       <c r="T12">
-        <v>2.43</v>
+        <v>2.67</v>
       </c>
       <c r="U12">
-        <v>1.49</v>
+        <v>1.39</v>
       </c>
       <c r="V12">
-        <v>5.5</v>
+        <v>7.1</v>
       </c>
       <c r="W12">
-        <v>1.11</v>
+        <v>1.04</v>
       </c>
       <c r="X12">
         <v>1.01</v>
       </c>
       <c r="Y12">
-        <v>9.5</v>
+        <v>11</v>
       </c>
       <c r="Z12">
-        <v>1.19</v>
+        <v>1.2</v>
       </c>
       <c r="AA12">
-        <v>4.2</v>
+        <v>4</v>
       </c>
       <c r="AB12">
-        <v>1.62</v>
+        <v>1.8</v>
       </c>
       <c r="AC12">
-        <v>2.15</v>
+        <v>1.85</v>
       </c>
       <c r="AD12">
-        <v>2.5</v>
+        <v>3</v>
       </c>
       <c r="AE12">
-        <v>1.46</v>
+        <v>1.33</v>
       </c>
       <c r="AF12">
-        <v>1.8</v>
+        <v>2.02</v>
       </c>
       <c r="AG12">
-        <v>1.84</v>
+        <v>1.75</v>
       </c>
       <c r="AH12">
-        <v>4.35</v>
+        <v>6.5</v>
       </c>
       <c r="AI12">
-        <v>1.17</v>
+        <v>1.08</v>
       </c>
       <c r="AJ12" t="s">
         <v>114</v>
@@ -2711,46 +2711,46 @@
         <v>114</v>
       </c>
       <c r="AL12">
-        <v>1.18</v>
+        <v>1.08</v>
       </c>
       <c r="AM12">
-        <v>1.17</v>
+        <v>1.21</v>
       </c>
       <c r="AN12">
-        <v>2.7</v>
+        <v>2.86</v>
       </c>
       <c r="AO12">
         <v>-1</v>
       </c>
       <c r="AP12">
-        <v>0</v>
+        <v>1.36</v>
       </c>
       <c r="AQ12">
-        <v>0</v>
+        <v>1.69</v>
       </c>
       <c r="AR12">
-        <v>0</v>
+        <v>2.14</v>
       </c>
       <c r="AS12">
-        <v>0</v>
+        <v>2.83</v>
       </c>
       <c r="AT12">
-        <v>0</v>
+        <v>3.8</v>
       </c>
       <c r="AU12">
-        <v>0</v>
+        <v>2.78</v>
       </c>
       <c r="AV12">
-        <v>0</v>
+        <v>2.04</v>
       </c>
       <c r="AW12">
-        <v>0</v>
+        <v>1.6</v>
       </c>
       <c r="AX12">
-        <v>0</v>
+        <v>1.33</v>
       </c>
       <c r="AY12">
-        <v>0</v>
+        <v>1.21</v>
       </c>
       <c r="AZ12">
         <v>0</v>
@@ -2759,7 +2759,7 @@
         <v>0</v>
       </c>
       <c r="BB12">
-        <v>1.3</v>
+        <v>1.29</v>
       </c>
       <c r="BC12">
         <v>4</v>
@@ -2776,7 +2776,7 @@
         <v>61</v>
       </c>
       <c r="C13" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="D13" t="s">
         <v>74</v>
@@ -2803,76 +2803,76 @@
         <v>113</v>
       </c>
       <c r="L13">
-        <v>1.22</v>
+        <v>1.68</v>
       </c>
       <c r="M13">
-        <v>5.2</v>
+        <v>3.47</v>
       </c>
       <c r="N13">
-        <v>9.199999999999999</v>
+        <v>4.2</v>
       </c>
       <c r="O13">
-        <v>1.25</v>
+        <v>1.7</v>
       </c>
       <c r="P13">
-        <v>13</v>
+        <v>8.5</v>
       </c>
       <c r="Q13">
-        <v>4.2</v>
+        <v>2.45</v>
       </c>
       <c r="R13">
-        <v>1.25</v>
+        <v>1.41</v>
       </c>
       <c r="S13">
-        <v>3.55</v>
+        <v>2.8</v>
       </c>
       <c r="T13">
-        <v>2.2</v>
+        <v>2.9</v>
       </c>
       <c r="U13">
-        <v>1.6</v>
+        <v>1.38</v>
       </c>
       <c r="V13">
-        <v>5.15</v>
+        <v>6.75</v>
       </c>
       <c r="W13">
-        <v>1.11</v>
+        <v>1.07</v>
       </c>
       <c r="X13">
-        <v>1.03</v>
+        <v>1.01</v>
       </c>
       <c r="Y13">
-        <v>13</v>
+        <v>10.5</v>
       </c>
       <c r="Z13">
-        <v>1.18</v>
+        <v>1.28</v>
       </c>
       <c r="AA13">
-        <v>5</v>
+        <v>3.35</v>
       </c>
       <c r="AB13">
-        <v>1.55</v>
+        <v>1.95</v>
       </c>
       <c r="AC13">
-        <v>2.2</v>
+        <v>1.75</v>
       </c>
       <c r="AD13">
-        <v>2.4</v>
+        <v>3.7</v>
       </c>
       <c r="AE13">
-        <v>1.5</v>
+        <v>1.24</v>
       </c>
       <c r="AF13">
-        <v>2.05</v>
+        <v>1.83</v>
       </c>
       <c r="AG13">
-        <v>1.65</v>
+        <v>1.81</v>
       </c>
       <c r="AH13">
-        <v>4.5</v>
+        <v>7.5</v>
       </c>
       <c r="AI13">
-        <v>1.2</v>
+        <v>1.05</v>
       </c>
       <c r="AJ13" t="s">
         <v>114</v>
@@ -2881,46 +2881,46 @@
         <v>114</v>
       </c>
       <c r="AL13">
-        <v>1.04</v>
+        <v>1.15</v>
       </c>
       <c r="AM13">
-        <v>1.12</v>
+        <v>1.22</v>
       </c>
       <c r="AN13">
-        <v>3.85</v>
+        <v>1.93</v>
       </c>
       <c r="AO13">
         <v>-1</v>
       </c>
       <c r="AP13">
-        <v>1.22</v>
+        <v>1.25</v>
       </c>
       <c r="AQ13">
-        <v>1.38</v>
+        <v>1.45</v>
       </c>
       <c r="AR13">
+        <v>1.73</v>
+      </c>
+      <c r="AS13">
+        <v>2.15</v>
+      </c>
+      <c r="AT13">
+        <v>2.7</v>
+      </c>
+      <c r="AU13">
+        <v>3.45</v>
+      </c>
+      <c r="AV13">
+        <v>2.55</v>
+      </c>
+      <c r="AW13">
+        <v>1.98</v>
+      </c>
+      <c r="AX13">
         <v>1.61</v>
       </c>
-      <c r="AS13">
-        <v>1.96</v>
-      </c>
-      <c r="AT13">
-        <v>2.43</v>
-      </c>
-      <c r="AU13">
-        <v>3.8</v>
-      </c>
-      <c r="AV13">
-        <v>2.8</v>
-      </c>
-      <c r="AW13">
-        <v>2.15</v>
-      </c>
-      <c r="AX13">
-        <v>1.74</v>
-      </c>
       <c r="AY13">
-        <v>1.49</v>
+        <v>1.4</v>
       </c>
       <c r="AZ13">
         <v>0</v>
@@ -2929,10 +2929,10 @@
         <v>0</v>
       </c>
       <c r="BB13">
-        <v>1.25</v>
+        <v>1.7</v>
       </c>
       <c r="BC13">
-        <v>4.2</v>
+        <v>2.45</v>
       </c>
       <c r="BD13" s="3">
         <v>45799.58333333334</v>
@@ -2946,10 +2946,10 @@
         <v>61</v>
       </c>
       <c r="C14" t="s">
-        <v>69</v>
+        <v>71</v>
       </c>
       <c r="D14" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="E14" t="s">
         <v>87</v>
@@ -2973,76 +2973,76 @@
         <v>113</v>
       </c>
       <c r="L14">
-        <v>1.59</v>
+        <v>1.41</v>
       </c>
       <c r="M14">
-        <v>3.56</v>
+        <v>4.2</v>
       </c>
       <c r="N14">
-        <v>4.75</v>
+        <v>5.7</v>
       </c>
       <c r="O14">
+        <v>1.3</v>
+      </c>
+      <c r="P14">
+        <v>9.5</v>
+      </c>
+      <c r="Q14">
+        <v>4</v>
+      </c>
+      <c r="R14">
+        <v>1.3</v>
+      </c>
+      <c r="S14">
+        <v>3.05</v>
+      </c>
+      <c r="T14">
+        <v>2.55</v>
+      </c>
+      <c r="U14">
+        <v>1.44</v>
+      </c>
+      <c r="V14">
+        <v>5.3</v>
+      </c>
+      <c r="W14">
+        <v>1.12</v>
+      </c>
+      <c r="X14">
+        <v>1.01</v>
+      </c>
+      <c r="Y14">
+        <v>9.5</v>
+      </c>
+      <c r="Z14">
+        <v>1.16</v>
+      </c>
+      <c r="AA14">
+        <v>4.4</v>
+      </c>
+      <c r="AB14">
         <v>1.62</v>
       </c>
-      <c r="P14">
-        <v>8.5</v>
-      </c>
-      <c r="Q14">
-        <v>2.8</v>
-      </c>
-      <c r="R14">
+      <c r="AC14">
+        <v>2.15</v>
+      </c>
+      <c r="AD14">
+        <v>2.6</v>
+      </c>
+      <c r="AE14">
         <v>1.42</v>
       </c>
-      <c r="S14">
-        <v>2.62</v>
-      </c>
-      <c r="T14">
-        <v>3</v>
-      </c>
-      <c r="U14">
-        <v>1.33</v>
-      </c>
-      <c r="V14">
-        <v>8.4</v>
-      </c>
-      <c r="W14">
-        <v>1.01</v>
-      </c>
-      <c r="X14">
-        <v>1.07</v>
-      </c>
-      <c r="Y14">
-        <v>8.5</v>
-      </c>
-      <c r="Z14">
-        <v>1.38</v>
-      </c>
-      <c r="AA14">
-        <v>3.1</v>
-      </c>
-      <c r="AB14">
-        <v>2.02</v>
-      </c>
-      <c r="AC14">
-        <v>1.7</v>
-      </c>
-      <c r="AD14">
-        <v>3.95</v>
-      </c>
-      <c r="AE14">
-        <v>1.25</v>
-      </c>
       <c r="AF14">
+        <v>1.87</v>
+      </c>
+      <c r="AG14">
         <v>1.93</v>
       </c>
-      <c r="AG14">
-        <v>1.75</v>
-      </c>
       <c r="AH14">
-        <v>8</v>
+        <v>4.6</v>
       </c>
       <c r="AI14">
-        <v>1.08</v>
+        <v>1.15</v>
       </c>
       <c r="AJ14" t="s">
         <v>114</v>
@@ -3051,46 +3051,46 @@
         <v>114</v>
       </c>
       <c r="AL14">
-        <v>1.2</v>
+        <v>1.08</v>
       </c>
       <c r="AM14">
-        <v>1.25</v>
+        <v>1.17</v>
       </c>
       <c r="AN14">
-        <v>1.95</v>
+        <v>2.65</v>
       </c>
       <c r="AO14">
         <v>-1</v>
       </c>
       <c r="AP14">
-        <v>1.23</v>
+        <v>0</v>
       </c>
       <c r="AQ14">
-        <v>1.38</v>
+        <v>0</v>
       </c>
       <c r="AR14">
-        <v>1.63</v>
+        <v>0</v>
       </c>
       <c r="AS14">
-        <v>1.98</v>
+        <v>0</v>
       </c>
       <c r="AT14">
-        <v>2.48</v>
+        <v>0</v>
       </c>
       <c r="AU14">
-        <v>3.7</v>
+        <v>0</v>
       </c>
       <c r="AV14">
-        <v>2.7</v>
+        <v>0</v>
       </c>
       <c r="AW14">
-        <v>2.12</v>
+        <v>0</v>
       </c>
       <c r="AX14">
-        <v>1.73</v>
+        <v>0</v>
       </c>
       <c r="AY14">
-        <v>1.47</v>
+        <v>0</v>
       </c>
       <c r="AZ14">
         <v>0</v>
@@ -3099,10 +3099,10 @@
         <v>0</v>
       </c>
       <c r="BB14">
-        <v>1.62</v>
+        <v>1.3</v>
       </c>
       <c r="BC14">
-        <v>2.8</v>
+        <v>4</v>
       </c>
       <c r="BD14" s="3">
         <v>45799.58333333334</v>
@@ -3116,7 +3116,7 @@
         <v>61</v>
       </c>
       <c r="C15" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="D15" t="s">
         <v>74</v>
@@ -3483,28 +3483,28 @@
         <v>113</v>
       </c>
       <c r="L17">
-        <v>2.19</v>
+        <v>2.41</v>
       </c>
       <c r="M17">
-        <v>3.34</v>
+        <v>3.23</v>
       </c>
       <c r="N17">
-        <v>2.75</v>
+        <v>2.53</v>
       </c>
       <c r="O17">
-        <v>1.62</v>
+        <v>1.67</v>
       </c>
       <c r="P17">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="Q17">
-        <v>2.5</v>
+        <v>2.45</v>
       </c>
       <c r="R17">
-        <v>1.28</v>
+        <v>1.3</v>
       </c>
       <c r="S17">
-        <v>3.35</v>
+        <v>3.25</v>
       </c>
       <c r="T17">
         <v>2.3</v>
@@ -3513,28 +3513,28 @@
         <v>1.55</v>
       </c>
       <c r="V17">
-        <v>5.15</v>
+        <v>5.1</v>
       </c>
       <c r="W17">
         <v>1.1</v>
       </c>
       <c r="X17">
-        <v>1.03</v>
+        <v>1.04</v>
       </c>
       <c r="Y17">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="Z17">
         <v>1.2</v>
       </c>
       <c r="AA17">
-        <v>4.5</v>
+        <v>4.33</v>
       </c>
       <c r="AB17">
-        <v>1.6</v>
+        <v>1.61</v>
       </c>
       <c r="AC17">
-        <v>2.15</v>
+        <v>2.05</v>
       </c>
       <c r="AD17">
         <v>2.55</v>
@@ -3543,13 +3543,13 @@
         <v>1.5</v>
       </c>
       <c r="AF17">
-        <v>1.55</v>
+        <v>1.53</v>
       </c>
       <c r="AG17">
-        <v>2.25</v>
+        <v>2.3</v>
       </c>
       <c r="AH17">
-        <v>4.33</v>
+        <v>4.5</v>
       </c>
       <c r="AI17">
         <v>1.2</v>
@@ -3561,46 +3561,46 @@
         <v>114</v>
       </c>
       <c r="AL17">
+        <v>1.25</v>
+      </c>
+      <c r="AM17">
         <v>1.22</v>
       </c>
-      <c r="AM17">
-        <v>1.2</v>
-      </c>
       <c r="AN17">
-        <v>2</v>
+        <v>1.91</v>
       </c>
       <c r="AO17">
         <v>-1</v>
       </c>
       <c r="AP17">
-        <v>1.2</v>
+        <v>1.3</v>
       </c>
       <c r="AQ17">
-        <v>1.37</v>
+        <v>1.53</v>
       </c>
       <c r="AR17">
-        <v>1.62</v>
+        <v>1.87</v>
       </c>
       <c r="AS17">
-        <v>1.96</v>
+        <v>2.38</v>
       </c>
       <c r="AT17">
-        <v>2.48</v>
+        <v>3.05</v>
       </c>
       <c r="AU17">
-        <v>3.8</v>
+        <v>3.05</v>
       </c>
       <c r="AV17">
-        <v>2.75</v>
+        <v>2.28</v>
       </c>
       <c r="AW17">
-        <v>2.12</v>
+        <v>1.79</v>
       </c>
       <c r="AX17">
-        <v>1.71</v>
+        <v>1.49</v>
       </c>
       <c r="AY17">
-        <v>1.45</v>
+        <v>1.3</v>
       </c>
       <c r="AZ17">
         <v>0</v>
@@ -3609,10 +3609,10 @@
         <v>0</v>
       </c>
       <c r="BB17">
-        <v>1.62</v>
+        <v>1.67</v>
       </c>
       <c r="BC17">
-        <v>2.5</v>
+        <v>2.45</v>
       </c>
       <c r="BD17" s="3">
         <v>45799.64583333334</v>
@@ -3653,28 +3653,28 @@
         <v>113</v>
       </c>
       <c r="L18">
-        <v>2.41</v>
+        <v>2.19</v>
       </c>
       <c r="M18">
-        <v>3.23</v>
+        <v>3.34</v>
       </c>
       <c r="N18">
-        <v>2.53</v>
+        <v>2.75</v>
       </c>
       <c r="O18">
-        <v>1.67</v>
+        <v>1.62</v>
       </c>
       <c r="P18">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="Q18">
-        <v>2.45</v>
+        <v>2.5</v>
       </c>
       <c r="R18">
-        <v>1.3</v>
+        <v>1.28</v>
       </c>
       <c r="S18">
-        <v>3.25</v>
+        <v>3.35</v>
       </c>
       <c r="T18">
         <v>2.3</v>
@@ -3683,28 +3683,28 @@
         <v>1.55</v>
       </c>
       <c r="V18">
-        <v>5.1</v>
+        <v>5.15</v>
       </c>
       <c r="W18">
         <v>1.1</v>
       </c>
       <c r="X18">
-        <v>1.04</v>
+        <v>1.03</v>
       </c>
       <c r="Y18">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="Z18">
         <v>1.2</v>
       </c>
       <c r="AA18">
-        <v>4.33</v>
+        <v>4.5</v>
       </c>
       <c r="AB18">
-        <v>1.61</v>
+        <v>1.6</v>
       </c>
       <c r="AC18">
-        <v>2.05</v>
+        <v>2.15</v>
       </c>
       <c r="AD18">
         <v>2.55</v>
@@ -3713,13 +3713,13 @@
         <v>1.5</v>
       </c>
       <c r="AF18">
-        <v>1.53</v>
+        <v>1.55</v>
       </c>
       <c r="AG18">
-        <v>2.3</v>
+        <v>2.25</v>
       </c>
       <c r="AH18">
-        <v>4.5</v>
+        <v>4.33</v>
       </c>
       <c r="AI18">
         <v>1.2</v>
@@ -3731,46 +3731,46 @@
         <v>114</v>
       </c>
       <c r="AL18">
-        <v>1.25</v>
+        <v>1.22</v>
       </c>
       <c r="AM18">
-        <v>1.22</v>
+        <v>1.2</v>
       </c>
       <c r="AN18">
-        <v>1.91</v>
+        <v>2</v>
       </c>
       <c r="AO18">
         <v>-1</v>
       </c>
       <c r="AP18">
-        <v>1.3</v>
+        <v>1.2</v>
       </c>
       <c r="AQ18">
-        <v>1.53</v>
+        <v>1.37</v>
       </c>
       <c r="AR18">
-        <v>1.87</v>
+        <v>1.62</v>
       </c>
       <c r="AS18">
-        <v>2.38</v>
+        <v>1.96</v>
       </c>
       <c r="AT18">
-        <v>3.05</v>
+        <v>2.48</v>
       </c>
       <c r="AU18">
-        <v>3.05</v>
+        <v>3.8</v>
       </c>
       <c r="AV18">
-        <v>2.28</v>
+        <v>2.75</v>
       </c>
       <c r="AW18">
-        <v>1.79</v>
+        <v>2.12</v>
       </c>
       <c r="AX18">
-        <v>1.49</v>
+        <v>1.71</v>
       </c>
       <c r="AY18">
-        <v>1.3</v>
+        <v>1.45</v>
       </c>
       <c r="AZ18">
         <v>0</v>
@@ -3779,10 +3779,10 @@
         <v>0</v>
       </c>
       <c r="BB18">
-        <v>1.67</v>
+        <v>1.62</v>
       </c>
       <c r="BC18">
-        <v>2.45</v>
+        <v>2.5</v>
       </c>
       <c r="BD18" s="3">
         <v>45799.64583333334</v>
@@ -3993,13 +3993,13 @@
         <v>113</v>
       </c>
       <c r="L20">
-        <v>1.61</v>
+        <v>1.59</v>
       </c>
       <c r="M20">
-        <v>4.28</v>
+        <v>4.2</v>
       </c>
       <c r="N20">
-        <v>4.97</v>
+        <v>4.8</v>
       </c>
       <c r="O20">
         <v>1.48</v>
@@ -4041,16 +4041,16 @@
         <v>4.75</v>
       </c>
       <c r="AB20">
-        <v>1.55</v>
+        <v>1.57</v>
       </c>
       <c r="AC20">
-        <v>2.25</v>
+        <v>2.3</v>
       </c>
       <c r="AD20">
-        <v>2.28</v>
+        <v>2.39</v>
       </c>
       <c r="AE20">
-        <v>1.6</v>
+        <v>1.58</v>
       </c>
       <c r="AF20">
         <v>1.6</v>

--- a/jogos_2025-05-22.xlsx
+++ b/jogos_2025-05-22.xlsx
@@ -223,12 +223,12 @@
     <t>Netherlands Eredivisie</t>
   </si>
   <si>
+    <t>Sweden Allsvenskan</t>
+  </si>
+  <si>
     <t>Sweden Superettan</t>
   </si>
   <si>
-    <t>Sweden Allsvenskan</t>
-  </si>
-  <si>
     <t>Algeria Ligue 1</t>
   </si>
   <si>
@@ -259,42 +259,42 @@
     <t>AZ</t>
   </si>
   <si>
+    <t>Kallithea</t>
+  </si>
+  <si>
+    <t>Hammarby</t>
+  </si>
+  <si>
+    <t>GIF Sundsvall</t>
+  </si>
+  <si>
+    <t>CS Constantine</t>
+  </si>
+  <si>
+    <t>Kalmar</t>
+  </si>
+  <si>
+    <t>Helsingborg</t>
+  </si>
+  <si>
+    <t>Malmö FF</t>
+  </si>
+  <si>
     <t>Varberg</t>
   </si>
   <si>
-    <t>Malmö FF</t>
-  </si>
-  <si>
-    <t>Hammarby</t>
-  </si>
-  <si>
-    <t>Kalmar</t>
-  </si>
-  <si>
-    <t>Kallithea</t>
-  </si>
-  <si>
-    <t>Helsingborg</t>
-  </si>
-  <si>
-    <t>CS Constantine</t>
-  </si>
-  <si>
-    <t>GIF Sundsvall</t>
-  </si>
-  <si>
     <t>Al Ahli</t>
   </si>
   <si>
+    <t>Yverdon Sport</t>
+  </si>
+  <si>
+    <t>Grasshopper</t>
+  </si>
+  <si>
     <t>Winterthur</t>
   </si>
   <si>
-    <t>Grasshopper</t>
-  </si>
-  <si>
-    <t>Yverdon Sport</t>
-  </si>
-  <si>
     <t>Twente</t>
   </si>
   <si>
@@ -316,40 +316,40 @@
     <t>Heerenveen</t>
   </si>
   <si>
+    <t>Lamia</t>
+  </si>
+  <si>
+    <t>Mjällby</t>
+  </si>
+  <si>
+    <t>Brage</t>
+  </si>
+  <si>
+    <t>MC Oran</t>
+  </si>
+  <si>
+    <t>Umeå</t>
+  </si>
+  <si>
+    <t>Oddevold</t>
+  </si>
+  <si>
+    <t>AIK</t>
+  </si>
+  <si>
     <t>Landskrona</t>
   </si>
   <si>
-    <t>AIK</t>
-  </si>
-  <si>
-    <t>Mjällby</t>
-  </si>
-  <si>
-    <t>Umeå</t>
-  </si>
-  <si>
-    <t>Lamia</t>
-  </si>
-  <si>
-    <t>Oddevold</t>
-  </si>
-  <si>
-    <t>MC Oran</t>
-  </si>
-  <si>
-    <t>Brage</t>
-  </si>
-  <si>
     <t>Al Ittifaq</t>
   </si>
   <si>
+    <t>Zürich</t>
+  </si>
+  <si>
+    <t>St. Gallen</t>
+  </si>
+  <si>
     <t>Sion</t>
-  </si>
-  <si>
-    <t>St. Gallen</t>
-  </si>
-  <si>
-    <t>Zürich</t>
   </si>
   <si>
     <t>NEC</t>
@@ -1103,13 +1103,13 @@
         <v>113</v>
       </c>
       <c r="L3">
-        <v>2.4</v>
+        <v>2.18</v>
       </c>
       <c r="M3">
-        <v>3.16</v>
+        <v>3.35</v>
       </c>
       <c r="N3">
-        <v>2.91</v>
+        <v>3.05</v>
       </c>
       <c r="O3">
         <v>1.67</v>
@@ -1151,10 +1151,10 @@
         <v>3.1</v>
       </c>
       <c r="AB3">
-        <v>2</v>
+        <v>1.85</v>
       </c>
       <c r="AC3">
-        <v>1.8</v>
+        <v>1.75</v>
       </c>
       <c r="AD3">
         <v>3.6</v>
@@ -1926,10 +1926,10 @@
         <v>61</v>
       </c>
       <c r="C8" t="s">
-        <v>69</v>
+        <v>65</v>
       </c>
       <c r="D8" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="E8" t="s">
         <v>81</v>
@@ -1953,76 +1953,76 @@
         <v>113</v>
       </c>
       <c r="L8">
-        <v>2.15</v>
+        <v>1.51</v>
       </c>
       <c r="M8">
-        <v>3.5</v>
+        <v>4</v>
       </c>
       <c r="N8">
-        <v>2.72</v>
+        <v>6</v>
       </c>
       <c r="O8">
+        <v>1.29</v>
+      </c>
+      <c r="P8">
+        <v>9</v>
+      </c>
+      <c r="Q8">
+        <v>4</v>
+      </c>
+      <c r="R8">
+        <v>1.33</v>
+      </c>
+      <c r="S8">
+        <v>2.93</v>
+      </c>
+      <c r="T8">
+        <v>2.67</v>
+      </c>
+      <c r="U8">
+        <v>1.39</v>
+      </c>
+      <c r="V8">
+        <v>7.1</v>
+      </c>
+      <c r="W8">
+        <v>1.04</v>
+      </c>
+      <c r="X8">
+        <v>1.01</v>
+      </c>
+      <c r="Y8">
+        <v>11</v>
+      </c>
+      <c r="Z8">
+        <v>1.2</v>
+      </c>
+      <c r="AA8">
+        <v>4</v>
+      </c>
+      <c r="AB8">
+        <v>1.8</v>
+      </c>
+      <c r="AC8">
         <v>1.85</v>
       </c>
-      <c r="P8">
-        <v>9.5</v>
-      </c>
-      <c r="Q8">
-        <v>2.1</v>
-      </c>
-      <c r="R8">
-        <v>1.3</v>
-      </c>
-      <c r="S8">
-        <v>3.2</v>
-      </c>
-      <c r="T8">
-        <v>2.45</v>
-      </c>
-      <c r="U8">
-        <v>1.5</v>
-      </c>
-      <c r="V8">
-        <v>5.6</v>
-      </c>
-      <c r="W8">
-        <v>1.11</v>
-      </c>
-      <c r="X8">
-        <v>1.05</v>
-      </c>
-      <c r="Y8">
-        <v>10</v>
-      </c>
-      <c r="Z8">
-        <v>1.18</v>
-      </c>
-      <c r="AA8">
-        <v>4.25</v>
-      </c>
-      <c r="AB8">
-        <v>1.83</v>
-      </c>
-      <c r="AC8">
-        <v>1.87</v>
-      </c>
       <c r="AD8">
-        <v>2.75</v>
+        <v>3</v>
       </c>
       <c r="AE8">
-        <v>1.42</v>
+        <v>1.33</v>
       </c>
       <c r="AF8">
-        <v>1.53</v>
+        <v>2.02</v>
       </c>
       <c r="AG8">
-        <v>2.25</v>
+        <v>1.75</v>
       </c>
       <c r="AH8">
-        <v>5.3</v>
+        <v>6.5</v>
       </c>
       <c r="AI8">
-        <v>1.12</v>
+        <v>1.08</v>
       </c>
       <c r="AJ8" t="s">
         <v>114</v>
@@ -2031,46 +2031,46 @@
         <v>114</v>
       </c>
       <c r="AL8">
-        <v>1.36</v>
+        <v>1.08</v>
       </c>
       <c r="AM8">
-        <v>1.22</v>
+        <v>1.21</v>
       </c>
       <c r="AN8">
-        <v>1.55</v>
+        <v>2.86</v>
       </c>
       <c r="AO8">
         <v>-1</v>
       </c>
       <c r="AP8">
-        <v>1.2</v>
+        <v>1.36</v>
       </c>
       <c r="AQ8">
-        <v>1.35</v>
+        <v>1.69</v>
       </c>
       <c r="AR8">
-        <v>1.58</v>
+        <v>2.14</v>
       </c>
       <c r="AS8">
-        <v>1.92</v>
+        <v>2.83</v>
       </c>
       <c r="AT8">
-        <v>2.4</v>
+        <v>3.8</v>
       </c>
       <c r="AU8">
-        <v>3.95</v>
+        <v>2.78</v>
       </c>
       <c r="AV8">
-        <v>2.9</v>
+        <v>2.04</v>
       </c>
       <c r="AW8">
-        <v>2.2</v>
+        <v>1.6</v>
       </c>
       <c r="AX8">
-        <v>1.77</v>
+        <v>1.33</v>
       </c>
       <c r="AY8">
-        <v>1.49</v>
+        <v>1.21</v>
       </c>
       <c r="AZ8">
         <v>0</v>
@@ -2079,10 +2079,10 @@
         <v>0</v>
       </c>
       <c r="BB8">
-        <v>1.85</v>
+        <v>1.29</v>
       </c>
       <c r="BC8">
-        <v>2.1</v>
+        <v>4</v>
       </c>
       <c r="BD8" s="3">
         <v>45799.58333333334</v>
@@ -2096,7 +2096,7 @@
         <v>61</v>
       </c>
       <c r="C9" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="D9" t="s">
         <v>74</v>
@@ -2123,76 +2123,76 @@
         <v>113</v>
       </c>
       <c r="L9">
-        <v>1.59</v>
+        <v>1.86</v>
       </c>
       <c r="M9">
-        <v>3.56</v>
+        <v>3.41</v>
       </c>
       <c r="N9">
-        <v>4.75</v>
+        <v>3.45</v>
       </c>
       <c r="O9">
-        <v>1.62</v>
+        <v>1.67</v>
       </c>
       <c r="P9">
-        <v>8.5</v>
+        <v>10</v>
       </c>
       <c r="Q9">
-        <v>2.8</v>
+        <v>2.5</v>
       </c>
       <c r="R9">
+        <v>1.36</v>
+      </c>
+      <c r="S9">
+        <v>2.9</v>
+      </c>
+      <c r="T9">
+        <v>2.62</v>
+      </c>
+      <c r="U9">
         <v>1.42</v>
       </c>
-      <c r="S9">
-        <v>2.62</v>
-      </c>
-      <c r="T9">
-        <v>3</v>
-      </c>
-      <c r="U9">
-        <v>1.33</v>
-      </c>
       <c r="V9">
-        <v>8.4</v>
+        <v>6.65</v>
       </c>
       <c r="W9">
-        <v>1.01</v>
+        <v>1.05</v>
       </c>
       <c r="X9">
-        <v>1.07</v>
+        <v>1.05</v>
       </c>
       <c r="Y9">
-        <v>8.5</v>
+        <v>10</v>
       </c>
       <c r="Z9">
+        <v>1.28</v>
+      </c>
+      <c r="AA9">
+        <v>3.75</v>
+      </c>
+      <c r="AB9">
+        <v>1.83</v>
+      </c>
+      <c r="AC9">
+        <v>1.87</v>
+      </c>
+      <c r="AD9">
+        <v>3.1</v>
+      </c>
+      <c r="AE9">
         <v>1.38</v>
       </c>
-      <c r="AA9">
-        <v>3.1</v>
-      </c>
-      <c r="AB9">
-        <v>2.02</v>
-      </c>
-      <c r="AC9">
-        <v>1.7</v>
-      </c>
-      <c r="AD9">
-        <v>3.95</v>
-      </c>
-      <c r="AE9">
-        <v>1.25</v>
-      </c>
       <c r="AF9">
-        <v>1.93</v>
+        <v>1.67</v>
       </c>
       <c r="AG9">
-        <v>1.75</v>
+        <v>2.05</v>
       </c>
       <c r="AH9">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="AI9">
-        <v>1.08</v>
+        <v>1.13</v>
       </c>
       <c r="AJ9" t="s">
         <v>114</v>
@@ -2201,46 +2201,46 @@
         <v>114</v>
       </c>
       <c r="AL9">
-        <v>1.2</v>
+        <v>1.25</v>
       </c>
       <c r="AM9">
-        <v>1.25</v>
+        <v>1.22</v>
       </c>
       <c r="AN9">
-        <v>1.95</v>
+        <v>1.85</v>
       </c>
       <c r="AO9">
         <v>-1</v>
       </c>
       <c r="AP9">
-        <v>1.23</v>
+        <v>1.18</v>
       </c>
       <c r="AQ9">
-        <v>1.38</v>
+        <v>1.3</v>
       </c>
       <c r="AR9">
-        <v>1.63</v>
+        <v>1.5</v>
       </c>
       <c r="AS9">
-        <v>1.98</v>
+        <v>1.79</v>
       </c>
       <c r="AT9">
-        <v>2.48</v>
+        <v>2.2</v>
       </c>
       <c r="AU9">
-        <v>3.7</v>
+        <v>4.3</v>
       </c>
       <c r="AV9">
-        <v>2.7</v>
+        <v>3.05</v>
       </c>
       <c r="AW9">
-        <v>2.12</v>
+        <v>2.35</v>
       </c>
       <c r="AX9">
-        <v>1.73</v>
+        <v>1.9</v>
       </c>
       <c r="AY9">
-        <v>1.47</v>
+        <v>1.58</v>
       </c>
       <c r="AZ9">
         <v>0</v>
@@ -2249,10 +2249,10 @@
         <v>0</v>
       </c>
       <c r="BB9">
-        <v>1.62</v>
+        <v>1.67</v>
       </c>
       <c r="BC9">
-        <v>2.8</v>
+        <v>2.5</v>
       </c>
       <c r="BD9" s="3">
         <v>45799.58333333334</v>
@@ -2293,76 +2293,76 @@
         <v>113</v>
       </c>
       <c r="L10">
-        <v>1.86</v>
+        <v>2.62</v>
       </c>
       <c r="M10">
-        <v>3.41</v>
+        <v>3.28</v>
       </c>
       <c r="N10">
+        <v>2.31</v>
+      </c>
+      <c r="O10">
+        <v>2.1</v>
+      </c>
+      <c r="P10">
+        <v>8.5</v>
+      </c>
+      <c r="Q10">
+        <v>2</v>
+      </c>
+      <c r="R10">
+        <v>1.4</v>
+      </c>
+      <c r="S10">
+        <v>2.8</v>
+      </c>
+      <c r="T10">
+        <v>2.9</v>
+      </c>
+      <c r="U10">
+        <v>1.36</v>
+      </c>
+      <c r="V10">
+        <v>6.75</v>
+      </c>
+      <c r="W10">
+        <v>1.06</v>
+      </c>
+      <c r="X10">
+        <v>1.01</v>
+      </c>
+      <c r="Y10">
+        <v>10.5</v>
+      </c>
+      <c r="Z10">
+        <v>1.27</v>
+      </c>
+      <c r="AA10">
         <v>3.45</v>
       </c>
-      <c r="O10">
-        <v>1.67</v>
-      </c>
-      <c r="P10">
-        <v>10</v>
-      </c>
-      <c r="Q10">
-        <v>2.5</v>
-      </c>
-      <c r="R10">
-        <v>1.36</v>
-      </c>
-      <c r="S10">
-        <v>2.9</v>
-      </c>
-      <c r="T10">
-        <v>2.62</v>
-      </c>
-      <c r="U10">
-        <v>1.42</v>
-      </c>
-      <c r="V10">
-        <v>6.65</v>
-      </c>
-      <c r="W10">
+      <c r="AB10">
+        <v>1.94</v>
+      </c>
+      <c r="AC10">
+        <v>1.76</v>
+      </c>
+      <c r="AD10">
+        <v>3.6</v>
+      </c>
+      <c r="AE10">
+        <v>1.24</v>
+      </c>
+      <c r="AF10">
+        <v>1.72</v>
+      </c>
+      <c r="AG10">
+        <v>1.93</v>
+      </c>
+      <c r="AH10">
+        <v>7.5</v>
+      </c>
+      <c r="AI10">
         <v>1.05</v>
-      </c>
-      <c r="X10">
-        <v>1.05</v>
-      </c>
-      <c r="Y10">
-        <v>10</v>
-      </c>
-      <c r="Z10">
-        <v>1.28</v>
-      </c>
-      <c r="AA10">
-        <v>3.75</v>
-      </c>
-      <c r="AB10">
-        <v>1.83</v>
-      </c>
-      <c r="AC10">
-        <v>1.87</v>
-      </c>
-      <c r="AD10">
-        <v>3.1</v>
-      </c>
-      <c r="AE10">
-        <v>1.38</v>
-      </c>
-      <c r="AF10">
-        <v>1.67</v>
-      </c>
-      <c r="AG10">
-        <v>2.05</v>
-      </c>
-      <c r="AH10">
-        <v>6</v>
-      </c>
-      <c r="AI10">
-        <v>1.13</v>
       </c>
       <c r="AJ10" t="s">
         <v>114</v>
@@ -2371,46 +2371,46 @@
         <v>114</v>
       </c>
       <c r="AL10">
-        <v>1.25</v>
+        <v>1.5</v>
       </c>
       <c r="AM10">
-        <v>1.22</v>
+        <v>1.28</v>
       </c>
       <c r="AN10">
-        <v>1.85</v>
+        <v>1.42</v>
       </c>
       <c r="AO10">
         <v>-1</v>
       </c>
       <c r="AP10">
-        <v>1.18</v>
+        <v>1.19</v>
       </c>
       <c r="AQ10">
-        <v>1.3</v>
+        <v>1.34</v>
       </c>
       <c r="AR10">
-        <v>1.5</v>
+        <v>1.55</v>
       </c>
       <c r="AS10">
-        <v>1.79</v>
+        <v>1.86</v>
       </c>
       <c r="AT10">
-        <v>2.2</v>
+        <v>2.32</v>
       </c>
       <c r="AU10">
-        <v>4.3</v>
+        <v>4.1</v>
       </c>
       <c r="AV10">
-        <v>3.05</v>
+        <v>2.9</v>
       </c>
       <c r="AW10">
-        <v>2.35</v>
+        <v>2.28</v>
       </c>
       <c r="AX10">
-        <v>1.9</v>
+        <v>1.82</v>
       </c>
       <c r="AY10">
-        <v>1.58</v>
+        <v>1.53</v>
       </c>
       <c r="AZ10">
         <v>0</v>
@@ -2419,10 +2419,10 @@
         <v>0</v>
       </c>
       <c r="BB10">
-        <v>1.67</v>
+        <v>2.1</v>
       </c>
       <c r="BC10">
-        <v>2.5</v>
+        <v>2</v>
       </c>
       <c r="BD10" s="3">
         <v>45799.58333333334</v>
@@ -2436,10 +2436,10 @@
         <v>61</v>
       </c>
       <c r="C11" t="s">
-        <v>69</v>
+        <v>71</v>
       </c>
       <c r="D11" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="E11" t="s">
         <v>84</v>
@@ -2463,76 +2463,76 @@
         <v>113</v>
       </c>
       <c r="L11">
-        <v>1.22</v>
+        <v>1.41</v>
       </c>
       <c r="M11">
-        <v>5.2</v>
+        <v>4.2</v>
       </c>
       <c r="N11">
-        <v>9.199999999999999</v>
+        <v>5.7</v>
       </c>
       <c r="O11">
+        <v>1.3</v>
+      </c>
+      <c r="P11">
+        <v>9.5</v>
+      </c>
+      <c r="Q11">
+        <v>4</v>
+      </c>
+      <c r="R11">
+        <v>1.33</v>
+      </c>
+      <c r="S11">
+        <v>2.9</v>
+      </c>
+      <c r="T11">
+        <v>2.91</v>
+      </c>
+      <c r="U11">
+        <v>1.32</v>
+      </c>
+      <c r="V11">
+        <v>6.4</v>
+      </c>
+      <c r="W11">
+        <v>1.08</v>
+      </c>
+      <c r="X11">
+        <v>1.01</v>
+      </c>
+      <c r="Y11">
+        <v>9</v>
+      </c>
+      <c r="Z11">
+        <v>1.33</v>
+      </c>
+      <c r="AA11">
+        <v>3.2</v>
+      </c>
+      <c r="AB11">
+        <v>1.62</v>
+      </c>
+      <c r="AC11">
+        <v>2.15</v>
+      </c>
+      <c r="AD11">
+        <v>3.5</v>
+      </c>
+      <c r="AE11">
         <v>1.25</v>
       </c>
-      <c r="P11">
-        <v>13</v>
-      </c>
-      <c r="Q11">
-        <v>4.2</v>
-      </c>
-      <c r="R11">
-        <v>1.25</v>
-      </c>
-      <c r="S11">
-        <v>3.55</v>
-      </c>
-      <c r="T11">
-        <v>2.2</v>
-      </c>
-      <c r="U11">
-        <v>1.6</v>
-      </c>
-      <c r="V11">
-        <v>5.15</v>
-      </c>
-      <c r="W11">
-        <v>1.11</v>
-      </c>
-      <c r="X11">
-        <v>1.03</v>
-      </c>
-      <c r="Y11">
-        <v>13</v>
-      </c>
-      <c r="Z11">
-        <v>1.18</v>
-      </c>
-      <c r="AA11">
-        <v>5</v>
-      </c>
-      <c r="AB11">
-        <v>1.55</v>
-      </c>
-      <c r="AC11">
-        <v>2.2</v>
-      </c>
-      <c r="AD11">
-        <v>2.4</v>
-      </c>
-      <c r="AE11">
-        <v>1.5</v>
-      </c>
       <c r="AF11">
-        <v>2.05</v>
+        <v>1.93</v>
       </c>
       <c r="AG11">
-        <v>1.65</v>
+        <v>1.75</v>
       </c>
       <c r="AH11">
-        <v>4.5</v>
+        <v>7</v>
       </c>
       <c r="AI11">
-        <v>1.2</v>
+        <v>1.08</v>
       </c>
       <c r="AJ11" t="s">
         <v>114</v>
@@ -2541,46 +2541,46 @@
         <v>114</v>
       </c>
       <c r="AL11">
-        <v>1.04</v>
+        <v>1.25</v>
       </c>
       <c r="AM11">
-        <v>1.12</v>
+        <v>1.17</v>
       </c>
       <c r="AN11">
-        <v>3.85</v>
+        <v>2.45</v>
       </c>
       <c r="AO11">
         <v>-1</v>
       </c>
       <c r="AP11">
-        <v>1.22</v>
+        <v>1.62</v>
       </c>
       <c r="AQ11">
-        <v>1.38</v>
+        <v>2.04</v>
       </c>
       <c r="AR11">
-        <v>1.61</v>
+        <v>2.6</v>
       </c>
       <c r="AS11">
-        <v>1.96</v>
+        <v>3.52</v>
       </c>
       <c r="AT11">
-        <v>2.43</v>
+        <v>4.9</v>
       </c>
       <c r="AU11">
-        <v>3.8</v>
+        <v>2.21</v>
       </c>
       <c r="AV11">
-        <v>2.8</v>
+        <v>1.73</v>
       </c>
       <c r="AW11">
-        <v>2.15</v>
+        <v>1.31</v>
       </c>
       <c r="AX11">
-        <v>1.74</v>
+        <v>1.15</v>
       </c>
       <c r="AY11">
-        <v>1.49</v>
+        <v>1.13</v>
       </c>
       <c r="AZ11">
         <v>0</v>
@@ -2589,10 +2589,10 @@
         <v>0</v>
       </c>
       <c r="BB11">
-        <v>1.25</v>
+        <v>1.3</v>
       </c>
       <c r="BC11">
-        <v>4.2</v>
+        <v>4</v>
       </c>
       <c r="BD11" s="3">
         <v>45799.58333333334</v>
@@ -2606,10 +2606,10 @@
         <v>61</v>
       </c>
       <c r="C12" t="s">
-        <v>65</v>
+        <v>70</v>
       </c>
       <c r="D12" t="s">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="E12" t="s">
         <v>85</v>
@@ -2633,76 +2633,76 @@
         <v>113</v>
       </c>
       <c r="L12">
-        <v>1.51</v>
+        <v>1.22</v>
       </c>
       <c r="M12">
-        <v>4</v>
+        <v>5.2</v>
       </c>
       <c r="N12">
-        <v>6</v>
+        <v>9.199999999999999</v>
       </c>
       <c r="O12">
-        <v>1.29</v>
+        <v>1.25</v>
       </c>
       <c r="P12">
-        <v>9</v>
+        <v>13</v>
       </c>
       <c r="Q12">
-        <v>4</v>
+        <v>4.2</v>
       </c>
       <c r="R12">
-        <v>1.33</v>
+        <v>1.25</v>
       </c>
       <c r="S12">
-        <v>2.93</v>
+        <v>3.55</v>
       </c>
       <c r="T12">
-        <v>2.67</v>
+        <v>2.2</v>
       </c>
       <c r="U12">
-        <v>1.39</v>
+        <v>1.6</v>
       </c>
       <c r="V12">
-        <v>7.1</v>
+        <v>5.15</v>
       </c>
       <c r="W12">
-        <v>1.04</v>
+        <v>1.11</v>
       </c>
       <c r="X12">
-        <v>1.01</v>
+        <v>1.03</v>
       </c>
       <c r="Y12">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="Z12">
+        <v>1.18</v>
+      </c>
+      <c r="AA12">
+        <v>5</v>
+      </c>
+      <c r="AB12">
+        <v>1.55</v>
+      </c>
+      <c r="AC12">
+        <v>2.2</v>
+      </c>
+      <c r="AD12">
+        <v>2.4</v>
+      </c>
+      <c r="AE12">
+        <v>1.5</v>
+      </c>
+      <c r="AF12">
+        <v>2.05</v>
+      </c>
+      <c r="AG12">
+        <v>1.65</v>
+      </c>
+      <c r="AH12">
+        <v>4.5</v>
+      </c>
+      <c r="AI12">
         <v>1.2</v>
-      </c>
-      <c r="AA12">
-        <v>4</v>
-      </c>
-      <c r="AB12">
-        <v>1.8</v>
-      </c>
-      <c r="AC12">
-        <v>1.85</v>
-      </c>
-      <c r="AD12">
-        <v>3</v>
-      </c>
-      <c r="AE12">
-        <v>1.33</v>
-      </c>
-      <c r="AF12">
-        <v>2.02</v>
-      </c>
-      <c r="AG12">
-        <v>1.75</v>
-      </c>
-      <c r="AH12">
-        <v>6.5</v>
-      </c>
-      <c r="AI12">
-        <v>1.08</v>
       </c>
       <c r="AJ12" t="s">
         <v>114</v>
@@ -2711,46 +2711,46 @@
         <v>114</v>
       </c>
       <c r="AL12">
-        <v>1.08</v>
+        <v>1.04</v>
       </c>
       <c r="AM12">
-        <v>1.21</v>
+        <v>1.12</v>
       </c>
       <c r="AN12">
-        <v>2.86</v>
+        <v>3.85</v>
       </c>
       <c r="AO12">
         <v>-1</v>
       </c>
       <c r="AP12">
-        <v>1.36</v>
+        <v>1.22</v>
       </c>
       <c r="AQ12">
-        <v>1.69</v>
+        <v>1.38</v>
       </c>
       <c r="AR12">
-        <v>2.14</v>
+        <v>1.61</v>
       </c>
       <c r="AS12">
-        <v>2.83</v>
+        <v>1.96</v>
       </c>
       <c r="AT12">
+        <v>2.43</v>
+      </c>
+      <c r="AU12">
         <v>3.8</v>
       </c>
-      <c r="AU12">
-        <v>2.78</v>
-      </c>
       <c r="AV12">
-        <v>2.04</v>
+        <v>2.8</v>
       </c>
       <c r="AW12">
-        <v>1.6</v>
+        <v>2.15</v>
       </c>
       <c r="AX12">
-        <v>1.33</v>
+        <v>1.74</v>
       </c>
       <c r="AY12">
-        <v>1.21</v>
+        <v>1.49</v>
       </c>
       <c r="AZ12">
         <v>0</v>
@@ -2759,10 +2759,10 @@
         <v>0</v>
       </c>
       <c r="BB12">
-        <v>1.29</v>
+        <v>1.25</v>
       </c>
       <c r="BC12">
-        <v>4</v>
+        <v>4.2</v>
       </c>
       <c r="BD12" s="3">
         <v>45799.58333333334</v>
@@ -2776,7 +2776,7 @@
         <v>61</v>
       </c>
       <c r="C13" t="s">
-        <v>69</v>
+        <v>70</v>
       </c>
       <c r="D13" t="s">
         <v>74</v>
@@ -2946,10 +2946,10 @@
         <v>61</v>
       </c>
       <c r="C14" t="s">
-        <v>71</v>
+        <v>69</v>
       </c>
       <c r="D14" t="s">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="E14" t="s">
         <v>87</v>
@@ -2973,76 +2973,76 @@
         <v>113</v>
       </c>
       <c r="L14">
-        <v>1.41</v>
+        <v>1.59</v>
       </c>
       <c r="M14">
-        <v>4.2</v>
+        <v>3.56</v>
       </c>
       <c r="N14">
-        <v>5.7</v>
+        <v>4.75</v>
       </c>
       <c r="O14">
-        <v>1.3</v>
+        <v>1.62</v>
       </c>
       <c r="P14">
-        <v>9.5</v>
+        <v>8.5</v>
       </c>
       <c r="Q14">
-        <v>4</v>
+        <v>2.8</v>
       </c>
       <c r="R14">
-        <v>1.3</v>
+        <v>1.42</v>
       </c>
       <c r="S14">
-        <v>3.05</v>
+        <v>2.62</v>
       </c>
       <c r="T14">
-        <v>2.55</v>
+        <v>3</v>
       </c>
       <c r="U14">
-        <v>1.44</v>
+        <v>1.33</v>
       </c>
       <c r="V14">
-        <v>5.3</v>
+        <v>8.4</v>
       </c>
       <c r="W14">
-        <v>1.12</v>
+        <v>1.01</v>
       </c>
       <c r="X14">
-        <v>1.01</v>
+        <v>1.07</v>
       </c>
       <c r="Y14">
-        <v>9.5</v>
+        <v>8.5</v>
       </c>
       <c r="Z14">
-        <v>1.16</v>
+        <v>1.38</v>
       </c>
       <c r="AA14">
-        <v>4.4</v>
+        <v>3.1</v>
       </c>
       <c r="AB14">
-        <v>1.62</v>
+        <v>2.02</v>
       </c>
       <c r="AC14">
-        <v>2.15</v>
+        <v>1.7</v>
       </c>
       <c r="AD14">
-        <v>2.6</v>
+        <v>3.95</v>
       </c>
       <c r="AE14">
-        <v>1.42</v>
+        <v>1.25</v>
       </c>
       <c r="AF14">
-        <v>1.87</v>
+        <v>1.93</v>
       </c>
       <c r="AG14">
-        <v>1.93</v>
+        <v>1.75</v>
       </c>
       <c r="AH14">
-        <v>4.6</v>
+        <v>8</v>
       </c>
       <c r="AI14">
-        <v>1.15</v>
+        <v>1.08</v>
       </c>
       <c r="AJ14" t="s">
         <v>114</v>
@@ -3051,46 +3051,46 @@
         <v>114</v>
       </c>
       <c r="AL14">
-        <v>1.08</v>
+        <v>1.2</v>
       </c>
       <c r="AM14">
-        <v>1.17</v>
+        <v>1.25</v>
       </c>
       <c r="AN14">
-        <v>2.65</v>
+        <v>1.95</v>
       </c>
       <c r="AO14">
         <v>-1</v>
       </c>
       <c r="AP14">
-        <v>0</v>
+        <v>1.23</v>
       </c>
       <c r="AQ14">
-        <v>0</v>
+        <v>1.38</v>
       </c>
       <c r="AR14">
-        <v>0</v>
+        <v>1.63</v>
       </c>
       <c r="AS14">
-        <v>0</v>
+        <v>1.98</v>
       </c>
       <c r="AT14">
-        <v>0</v>
+        <v>2.48</v>
       </c>
       <c r="AU14">
-        <v>0</v>
+        <v>3.7</v>
       </c>
       <c r="AV14">
-        <v>0</v>
+        <v>2.7</v>
       </c>
       <c r="AW14">
-        <v>0</v>
+        <v>2.12</v>
       </c>
       <c r="AX14">
-        <v>0</v>
+        <v>1.73</v>
       </c>
       <c r="AY14">
-        <v>0</v>
+        <v>1.47</v>
       </c>
       <c r="AZ14">
         <v>0</v>
@@ -3099,10 +3099,10 @@
         <v>0</v>
       </c>
       <c r="BB14">
-        <v>1.3</v>
+        <v>1.62</v>
       </c>
       <c r="BC14">
-        <v>4</v>
+        <v>2.8</v>
       </c>
       <c r="BD14" s="3">
         <v>45799.58333333334</v>
@@ -3116,7 +3116,7 @@
         <v>61</v>
       </c>
       <c r="C15" t="s">
-        <v>69</v>
+        <v>70</v>
       </c>
       <c r="D15" t="s">
         <v>74</v>
@@ -3143,76 +3143,76 @@
         <v>113</v>
       </c>
       <c r="L15">
-        <v>2.62</v>
+        <v>2.15</v>
       </c>
       <c r="M15">
-        <v>3.28</v>
+        <v>3.5</v>
       </c>
       <c r="N15">
-        <v>2.31</v>
+        <v>2.72</v>
       </c>
       <c r="O15">
+        <v>1.85</v>
+      </c>
+      <c r="P15">
+        <v>9.5</v>
+      </c>
+      <c r="Q15">
         <v>2.1</v>
       </c>
-      <c r="P15">
-        <v>8.5</v>
-      </c>
-      <c r="Q15">
-        <v>2</v>
-      </c>
       <c r="R15">
-        <v>1.4</v>
+        <v>1.3</v>
       </c>
       <c r="S15">
-        <v>2.8</v>
+        <v>3.2</v>
       </c>
       <c r="T15">
-        <v>2.9</v>
+        <v>2.45</v>
       </c>
       <c r="U15">
-        <v>1.36</v>
+        <v>1.5</v>
       </c>
       <c r="V15">
-        <v>6.75</v>
+        <v>5.6</v>
       </c>
       <c r="W15">
-        <v>1.06</v>
+        <v>1.11</v>
       </c>
       <c r="X15">
-        <v>1.01</v>
+        <v>1.05</v>
       </c>
       <c r="Y15">
-        <v>10.5</v>
+        <v>10</v>
       </c>
       <c r="Z15">
-        <v>1.27</v>
+        <v>1.18</v>
       </c>
       <c r="AA15">
-        <v>3.45</v>
+        <v>4.25</v>
       </c>
       <c r="AB15">
-        <v>1.94</v>
+        <v>1.83</v>
       </c>
       <c r="AC15">
-        <v>1.76</v>
+        <v>1.87</v>
       </c>
       <c r="AD15">
-        <v>3.6</v>
+        <v>2.75</v>
       </c>
       <c r="AE15">
-        <v>1.24</v>
+        <v>1.42</v>
       </c>
       <c r="AF15">
-        <v>1.72</v>
+        <v>1.53</v>
       </c>
       <c r="AG15">
-        <v>1.93</v>
+        <v>2.25</v>
       </c>
       <c r="AH15">
-        <v>7.5</v>
+        <v>5.3</v>
       </c>
       <c r="AI15">
-        <v>1.05</v>
+        <v>1.12</v>
       </c>
       <c r="AJ15" t="s">
         <v>114</v>
@@ -3221,46 +3221,46 @@
         <v>114</v>
       </c>
       <c r="AL15">
-        <v>1.5</v>
+        <v>1.36</v>
       </c>
       <c r="AM15">
-        <v>1.28</v>
+        <v>1.22</v>
       </c>
       <c r="AN15">
-        <v>1.42</v>
+        <v>1.55</v>
       </c>
       <c r="AO15">
         <v>-1</v>
       </c>
       <c r="AP15">
-        <v>1.19</v>
+        <v>1.2</v>
       </c>
       <c r="AQ15">
-        <v>1.34</v>
+        <v>1.35</v>
       </c>
       <c r="AR15">
-        <v>1.55</v>
+        <v>1.58</v>
       </c>
       <c r="AS15">
-        <v>1.86</v>
+        <v>1.92</v>
       </c>
       <c r="AT15">
-        <v>2.32</v>
+        <v>2.4</v>
       </c>
       <c r="AU15">
-        <v>4.1</v>
+        <v>3.95</v>
       </c>
       <c r="AV15">
         <v>2.9</v>
       </c>
       <c r="AW15">
-        <v>2.28</v>
+        <v>2.2</v>
       </c>
       <c r="AX15">
-        <v>1.82</v>
+        <v>1.77</v>
       </c>
       <c r="AY15">
-        <v>1.53</v>
+        <v>1.49</v>
       </c>
       <c r="AZ15">
         <v>0</v>
@@ -3269,10 +3269,10 @@
         <v>0</v>
       </c>
       <c r="BB15">
+        <v>1.85</v>
+      </c>
+      <c r="BC15">
         <v>2.1</v>
-      </c>
-      <c r="BC15">
-        <v>2</v>
       </c>
       <c r="BD15" s="3">
         <v>45799.58333333334</v>
@@ -3483,37 +3483,37 @@
         <v>113</v>
       </c>
       <c r="L17">
-        <v>2.41</v>
+        <v>2.63</v>
       </c>
       <c r="M17">
-        <v>3.23</v>
+        <v>3.21</v>
       </c>
       <c r="N17">
-        <v>2.53</v>
+        <v>2.33</v>
       </c>
       <c r="O17">
-        <v>1.67</v>
+        <v>1.7</v>
       </c>
       <c r="P17">
         <v>10</v>
       </c>
       <c r="Q17">
-        <v>2.45</v>
+        <v>2.4</v>
       </c>
       <c r="R17">
         <v>1.3</v>
       </c>
       <c r="S17">
-        <v>3.25</v>
+        <v>3.2</v>
       </c>
       <c r="T17">
-        <v>2.3</v>
+        <v>2.45</v>
       </c>
       <c r="U17">
-        <v>1.55</v>
+        <v>1.48</v>
       </c>
       <c r="V17">
-        <v>5.1</v>
+        <v>5.6</v>
       </c>
       <c r="W17">
         <v>1.1</v>
@@ -3525,10 +3525,10 @@
         <v>10</v>
       </c>
       <c r="Z17">
-        <v>1.2</v>
+        <v>1.22</v>
       </c>
       <c r="AA17">
-        <v>4.33</v>
+        <v>4.2</v>
       </c>
       <c r="AB17">
         <v>1.61</v>
@@ -3537,22 +3537,22 @@
         <v>2.05</v>
       </c>
       <c r="AD17">
-        <v>2.55</v>
+        <v>2.8</v>
       </c>
       <c r="AE17">
-        <v>1.5</v>
+        <v>1.42</v>
       </c>
       <c r="AF17">
-        <v>1.53</v>
+        <v>1.6</v>
       </c>
       <c r="AG17">
-        <v>2.3</v>
+        <v>2.15</v>
       </c>
       <c r="AH17">
-        <v>4.5</v>
+        <v>5.25</v>
       </c>
       <c r="AI17">
-        <v>1.2</v>
+        <v>1.15</v>
       </c>
       <c r="AJ17" t="s">
         <v>114</v>
@@ -3561,46 +3561,46 @@
         <v>114</v>
       </c>
       <c r="AL17">
-        <v>1.25</v>
+        <v>1.28</v>
       </c>
       <c r="AM17">
         <v>1.22</v>
       </c>
       <c r="AN17">
-        <v>1.91</v>
+        <v>1.83</v>
       </c>
       <c r="AO17">
         <v>-1</v>
       </c>
       <c r="AP17">
-        <v>1.3</v>
+        <v>1.25</v>
       </c>
       <c r="AQ17">
-        <v>1.53</v>
+        <v>1.43</v>
       </c>
       <c r="AR17">
-        <v>1.87</v>
+        <v>1.7</v>
       </c>
       <c r="AS17">
-        <v>2.38</v>
+        <v>2.1</v>
       </c>
       <c r="AT17">
-        <v>3.05</v>
+        <v>2.65</v>
       </c>
       <c r="AU17">
-        <v>3.05</v>
+        <v>3.45</v>
       </c>
       <c r="AV17">
-        <v>2.28</v>
+        <v>2.55</v>
       </c>
       <c r="AW17">
-        <v>1.79</v>
+        <v>2</v>
       </c>
       <c r="AX17">
-        <v>1.49</v>
+        <v>1.62</v>
       </c>
       <c r="AY17">
-        <v>1.3</v>
+        <v>1.38</v>
       </c>
       <c r="AZ17">
         <v>0</v>
@@ -3609,10 +3609,10 @@
         <v>0</v>
       </c>
       <c r="BB17">
-        <v>1.67</v>
+        <v>1.7</v>
       </c>
       <c r="BC17">
-        <v>2.45</v>
+        <v>2.4</v>
       </c>
       <c r="BD17" s="3">
         <v>45799.64583333334</v>
@@ -3707,10 +3707,10 @@
         <v>2.15</v>
       </c>
       <c r="AD18">
-        <v>2.55</v>
+        <v>2.25</v>
       </c>
       <c r="AE18">
-        <v>1.5</v>
+        <v>1.57</v>
       </c>
       <c r="AF18">
         <v>1.55</v>
@@ -3823,37 +3823,37 @@
         <v>113</v>
       </c>
       <c r="L19">
-        <v>2.63</v>
+        <v>2.41</v>
       </c>
       <c r="M19">
-        <v>3.21</v>
+        <v>3.23</v>
       </c>
       <c r="N19">
-        <v>2.33</v>
+        <v>2.53</v>
       </c>
       <c r="O19">
-        <v>1.7</v>
+        <v>1.67</v>
       </c>
       <c r="P19">
         <v>10</v>
       </c>
       <c r="Q19">
-        <v>2.4</v>
+        <v>2.45</v>
       </c>
       <c r="R19">
         <v>1.3</v>
       </c>
       <c r="S19">
-        <v>3.2</v>
+        <v>3.25</v>
       </c>
       <c r="T19">
-        <v>2.45</v>
+        <v>2.3</v>
       </c>
       <c r="U19">
-        <v>1.48</v>
+        <v>1.55</v>
       </c>
       <c r="V19">
-        <v>5.6</v>
+        <v>5.1</v>
       </c>
       <c r="W19">
         <v>1.1</v>
@@ -3865,10 +3865,10 @@
         <v>10</v>
       </c>
       <c r="Z19">
-        <v>1.22</v>
+        <v>1.2</v>
       </c>
       <c r="AA19">
-        <v>4.2</v>
+        <v>4.33</v>
       </c>
       <c r="AB19">
         <v>1.61</v>
@@ -3877,22 +3877,22 @@
         <v>2.05</v>
       </c>
       <c r="AD19">
-        <v>2.8</v>
+        <v>2.55</v>
       </c>
       <c r="AE19">
-        <v>1.42</v>
+        <v>1.5</v>
       </c>
       <c r="AF19">
-        <v>1.6</v>
+        <v>1.53</v>
       </c>
       <c r="AG19">
-        <v>2.15</v>
+        <v>2.3</v>
       </c>
       <c r="AH19">
-        <v>5.25</v>
+        <v>4.5</v>
       </c>
       <c r="AI19">
-        <v>1.15</v>
+        <v>1.2</v>
       </c>
       <c r="AJ19" t="s">
         <v>114</v>
@@ -3901,46 +3901,46 @@
         <v>114</v>
       </c>
       <c r="AL19">
-        <v>1.28</v>
+        <v>1.25</v>
       </c>
       <c r="AM19">
         <v>1.22</v>
       </c>
       <c r="AN19">
-        <v>1.83</v>
+        <v>1.91</v>
       </c>
       <c r="AO19">
         <v>-1</v>
       </c>
       <c r="AP19">
-        <v>1.25</v>
+        <v>1.3</v>
       </c>
       <c r="AQ19">
-        <v>1.43</v>
+        <v>1.53</v>
       </c>
       <c r="AR19">
-        <v>1.7</v>
+        <v>1.87</v>
       </c>
       <c r="AS19">
-        <v>2.1</v>
+        <v>2.38</v>
       </c>
       <c r="AT19">
-        <v>2.65</v>
+        <v>3.05</v>
       </c>
       <c r="AU19">
-        <v>3.45</v>
+        <v>3.05</v>
       </c>
       <c r="AV19">
-        <v>2.55</v>
+        <v>2.28</v>
       </c>
       <c r="AW19">
-        <v>2</v>
+        <v>1.79</v>
       </c>
       <c r="AX19">
-        <v>1.62</v>
+        <v>1.49</v>
       </c>
       <c r="AY19">
-        <v>1.38</v>
+        <v>1.3</v>
       </c>
       <c r="AZ19">
         <v>0</v>
@@ -3949,10 +3949,10 @@
         <v>0</v>
       </c>
       <c r="BB19">
-        <v>1.7</v>
+        <v>1.67</v>
       </c>
       <c r="BC19">
-        <v>2.4</v>
+        <v>2.45</v>
       </c>
       <c r="BD19" s="3">
         <v>45799.64583333334</v>

--- a/jogos_2025-05-22.xlsx
+++ b/jogos_2025-05-22.xlsx
@@ -259,42 +259,42 @@
     <t>AZ</t>
   </si>
   <si>
+    <t>Hammarby</t>
+  </si>
+  <si>
+    <t>Kalmar</t>
+  </si>
+  <si>
+    <t>Helsingborg</t>
+  </si>
+  <si>
+    <t>Malmö FF</t>
+  </si>
+  <si>
+    <t>Varberg</t>
+  </si>
+  <si>
+    <t>GIF Sundsvall</t>
+  </si>
+  <si>
+    <t>CS Constantine</t>
+  </si>
+  <si>
     <t>Kallithea</t>
   </si>
   <si>
-    <t>Hammarby</t>
-  </si>
-  <si>
-    <t>GIF Sundsvall</t>
-  </si>
-  <si>
-    <t>CS Constantine</t>
-  </si>
-  <si>
-    <t>Kalmar</t>
-  </si>
-  <si>
-    <t>Helsingborg</t>
-  </si>
-  <si>
-    <t>Malmö FF</t>
-  </si>
-  <si>
-    <t>Varberg</t>
-  </si>
-  <si>
     <t>Al Ahli</t>
   </si>
   <si>
+    <t>Winterthur</t>
+  </si>
+  <si>
     <t>Yverdon Sport</t>
   </si>
   <si>
     <t>Grasshopper</t>
   </si>
   <si>
-    <t>Winterthur</t>
-  </si>
-  <si>
     <t>Twente</t>
   </si>
   <si>
@@ -316,40 +316,40 @@
     <t>Heerenveen</t>
   </si>
   <si>
+    <t>Mjällby</t>
+  </si>
+  <si>
+    <t>Umeå</t>
+  </si>
+  <si>
+    <t>Oddevold</t>
+  </si>
+  <si>
+    <t>AIK</t>
+  </si>
+  <si>
+    <t>Landskrona</t>
+  </si>
+  <si>
+    <t>Brage</t>
+  </si>
+  <si>
+    <t>MC Oran</t>
+  </si>
+  <si>
     <t>Lamia</t>
   </si>
   <si>
-    <t>Mjällby</t>
-  </si>
-  <si>
-    <t>Brage</t>
-  </si>
-  <si>
-    <t>MC Oran</t>
-  </si>
-  <si>
-    <t>Umeå</t>
-  </si>
-  <si>
-    <t>Oddevold</t>
-  </si>
-  <si>
-    <t>AIK</t>
-  </si>
-  <si>
-    <t>Landskrona</t>
-  </si>
-  <si>
     <t>Al Ittifaq</t>
   </si>
   <si>
+    <t>Sion</t>
+  </si>
+  <si>
     <t>Zürich</t>
   </si>
   <si>
     <t>St. Gallen</t>
-  </si>
-  <si>
-    <t>Sion</t>
   </si>
   <si>
     <t>NEC</t>
@@ -1926,10 +1926,10 @@
         <v>61</v>
       </c>
       <c r="C8" t="s">
-        <v>65</v>
+        <v>69</v>
       </c>
       <c r="D8" t="s">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="E8" t="s">
         <v>81</v>
@@ -1953,76 +1953,76 @@
         <v>113</v>
       </c>
       <c r="L8">
-        <v>1.51</v>
+        <v>1.86</v>
       </c>
       <c r="M8">
-        <v>4</v>
+        <v>3.41</v>
       </c>
       <c r="N8">
+        <v>3.45</v>
+      </c>
+      <c r="O8">
+        <v>1.67</v>
+      </c>
+      <c r="P8">
+        <v>10</v>
+      </c>
+      <c r="Q8">
+        <v>2.5</v>
+      </c>
+      <c r="R8">
+        <v>1.36</v>
+      </c>
+      <c r="S8">
+        <v>2.9</v>
+      </c>
+      <c r="T8">
+        <v>2.62</v>
+      </c>
+      <c r="U8">
+        <v>1.42</v>
+      </c>
+      <c r="V8">
+        <v>6.65</v>
+      </c>
+      <c r="W8">
+        <v>1.05</v>
+      </c>
+      <c r="X8">
+        <v>1.05</v>
+      </c>
+      <c r="Y8">
+        <v>10</v>
+      </c>
+      <c r="Z8">
+        <v>1.28</v>
+      </c>
+      <c r="AA8">
+        <v>3.75</v>
+      </c>
+      <c r="AB8">
+        <v>1.83</v>
+      </c>
+      <c r="AC8">
+        <v>1.87</v>
+      </c>
+      <c r="AD8">
+        <v>3.1</v>
+      </c>
+      <c r="AE8">
+        <v>1.38</v>
+      </c>
+      <c r="AF8">
+        <v>1.67</v>
+      </c>
+      <c r="AG8">
+        <v>2.05</v>
+      </c>
+      <c r="AH8">
         <v>6</v>
       </c>
-      <c r="O8">
-        <v>1.29</v>
-      </c>
-      <c r="P8">
-        <v>9</v>
-      </c>
-      <c r="Q8">
-        <v>4</v>
-      </c>
-      <c r="R8">
-        <v>1.33</v>
-      </c>
-      <c r="S8">
-        <v>2.93</v>
-      </c>
-      <c r="T8">
-        <v>2.67</v>
-      </c>
-      <c r="U8">
-        <v>1.39</v>
-      </c>
-      <c r="V8">
-        <v>7.1</v>
-      </c>
-      <c r="W8">
-        <v>1.04</v>
-      </c>
-      <c r="X8">
-        <v>1.01</v>
-      </c>
-      <c r="Y8">
-        <v>11</v>
-      </c>
-      <c r="Z8">
-        <v>1.2</v>
-      </c>
-      <c r="AA8">
-        <v>4</v>
-      </c>
-      <c r="AB8">
-        <v>1.8</v>
-      </c>
-      <c r="AC8">
-        <v>1.85</v>
-      </c>
-      <c r="AD8">
-        <v>3</v>
-      </c>
-      <c r="AE8">
-        <v>1.33</v>
-      </c>
-      <c r="AF8">
-        <v>2.02</v>
-      </c>
-      <c r="AG8">
-        <v>1.75</v>
-      </c>
-      <c r="AH8">
-        <v>6.5</v>
-      </c>
       <c r="AI8">
-        <v>1.08</v>
+        <v>1.13</v>
       </c>
       <c r="AJ8" t="s">
         <v>114</v>
@@ -2031,46 +2031,46 @@
         <v>114</v>
       </c>
       <c r="AL8">
-        <v>1.08</v>
+        <v>1.25</v>
       </c>
       <c r="AM8">
-        <v>1.21</v>
+        <v>1.22</v>
       </c>
       <c r="AN8">
-        <v>2.86</v>
+        <v>1.85</v>
       </c>
       <c r="AO8">
         <v>-1</v>
       </c>
       <c r="AP8">
-        <v>1.36</v>
+        <v>1.18</v>
       </c>
       <c r="AQ8">
-        <v>1.69</v>
+        <v>1.3</v>
       </c>
       <c r="AR8">
-        <v>2.14</v>
+        <v>1.5</v>
       </c>
       <c r="AS8">
-        <v>2.83</v>
+        <v>1.79</v>
       </c>
       <c r="AT8">
-        <v>3.8</v>
+        <v>2.2</v>
       </c>
       <c r="AU8">
-        <v>2.78</v>
+        <v>4.3</v>
       </c>
       <c r="AV8">
-        <v>2.04</v>
+        <v>3.05</v>
       </c>
       <c r="AW8">
-        <v>1.6</v>
+        <v>2.35</v>
       </c>
       <c r="AX8">
-        <v>1.33</v>
+        <v>1.9</v>
       </c>
       <c r="AY8">
-        <v>1.21</v>
+        <v>1.58</v>
       </c>
       <c r="AZ8">
         <v>0</v>
@@ -2079,10 +2079,10 @@
         <v>0</v>
       </c>
       <c r="BB8">
-        <v>1.29</v>
+        <v>1.67</v>
       </c>
       <c r="BC8">
-        <v>4</v>
+        <v>2.5</v>
       </c>
       <c r="BD8" s="3">
         <v>45799.58333333334</v>
@@ -2096,7 +2096,7 @@
         <v>61</v>
       </c>
       <c r="C9" t="s">
-        <v>69</v>
+        <v>70</v>
       </c>
       <c r="D9" t="s">
         <v>74</v>
@@ -2123,76 +2123,76 @@
         <v>113</v>
       </c>
       <c r="L9">
-        <v>1.86</v>
+        <v>1.22</v>
       </c>
       <c r="M9">
-        <v>3.41</v>
+        <v>5.2</v>
       </c>
       <c r="N9">
-        <v>3.45</v>
+        <v>9.199999999999999</v>
       </c>
       <c r="O9">
-        <v>1.67</v>
+        <v>1.25</v>
       </c>
       <c r="P9">
-        <v>10</v>
+        <v>13</v>
       </c>
       <c r="Q9">
-        <v>2.5</v>
+        <v>4.2</v>
       </c>
       <c r="R9">
-        <v>1.36</v>
+        <v>1.25</v>
       </c>
       <c r="S9">
-        <v>2.9</v>
+        <v>3.55</v>
       </c>
       <c r="T9">
-        <v>2.62</v>
+        <v>2.2</v>
       </c>
       <c r="U9">
-        <v>1.42</v>
+        <v>1.6</v>
       </c>
       <c r="V9">
-        <v>6.65</v>
+        <v>5.15</v>
       </c>
       <c r="W9">
-        <v>1.05</v>
+        <v>1.11</v>
       </c>
       <c r="X9">
-        <v>1.05</v>
+        <v>1.03</v>
       </c>
       <c r="Y9">
-        <v>10</v>
+        <v>13</v>
       </c>
       <c r="Z9">
-        <v>1.28</v>
+        <v>1.18</v>
       </c>
       <c r="AA9">
-        <v>3.75</v>
+        <v>5</v>
       </c>
       <c r="AB9">
-        <v>1.83</v>
+        <v>1.55</v>
       </c>
       <c r="AC9">
-        <v>1.87</v>
+        <v>2.2</v>
       </c>
       <c r="AD9">
-        <v>3.1</v>
+        <v>2.4</v>
       </c>
       <c r="AE9">
-        <v>1.38</v>
+        <v>1.5</v>
       </c>
       <c r="AF9">
-        <v>1.67</v>
+        <v>2.05</v>
       </c>
       <c r="AG9">
-        <v>2.05</v>
+        <v>1.65</v>
       </c>
       <c r="AH9">
-        <v>6</v>
+        <v>4.5</v>
       </c>
       <c r="AI9">
-        <v>1.13</v>
+        <v>1.2</v>
       </c>
       <c r="AJ9" t="s">
         <v>114</v>
@@ -2201,46 +2201,46 @@
         <v>114</v>
       </c>
       <c r="AL9">
-        <v>1.25</v>
+        <v>1.04</v>
       </c>
       <c r="AM9">
-        <v>1.22</v>
+        <v>1.12</v>
       </c>
       <c r="AN9">
-        <v>1.85</v>
+        <v>3.85</v>
       </c>
       <c r="AO9">
         <v>-1</v>
       </c>
       <c r="AP9">
-        <v>1.18</v>
+        <v>1.22</v>
       </c>
       <c r="AQ9">
-        <v>1.3</v>
+        <v>1.38</v>
       </c>
       <c r="AR9">
-        <v>1.5</v>
+        <v>1.61</v>
       </c>
       <c r="AS9">
-        <v>1.79</v>
+        <v>1.96</v>
       </c>
       <c r="AT9">
-        <v>2.2</v>
+        <v>2.43</v>
       </c>
       <c r="AU9">
-        <v>4.3</v>
+        <v>3.8</v>
       </c>
       <c r="AV9">
-        <v>3.05</v>
+        <v>2.8</v>
       </c>
       <c r="AW9">
-        <v>2.35</v>
+        <v>2.15</v>
       </c>
       <c r="AX9">
-        <v>1.9</v>
+        <v>1.74</v>
       </c>
       <c r="AY9">
-        <v>1.58</v>
+        <v>1.49</v>
       </c>
       <c r="AZ9">
         <v>0</v>
@@ -2249,10 +2249,10 @@
         <v>0</v>
       </c>
       <c r="BB9">
-        <v>1.67</v>
+        <v>1.25</v>
       </c>
       <c r="BC9">
-        <v>2.5</v>
+        <v>4.2</v>
       </c>
       <c r="BD9" s="3">
         <v>45799.58333333334</v>
@@ -2293,25 +2293,25 @@
         <v>113</v>
       </c>
       <c r="L10">
-        <v>2.62</v>
+        <v>1.68</v>
       </c>
       <c r="M10">
-        <v>3.28</v>
+        <v>3.47</v>
       </c>
       <c r="N10">
-        <v>2.31</v>
+        <v>4.2</v>
       </c>
       <c r="O10">
-        <v>2.1</v>
+        <v>1.7</v>
       </c>
       <c r="P10">
         <v>8.5</v>
       </c>
       <c r="Q10">
-        <v>2</v>
+        <v>2.45</v>
       </c>
       <c r="R10">
-        <v>1.4</v>
+        <v>1.41</v>
       </c>
       <c r="S10">
         <v>2.8</v>
@@ -2320,13 +2320,13 @@
         <v>2.9</v>
       </c>
       <c r="U10">
-        <v>1.36</v>
+        <v>1.38</v>
       </c>
       <c r="V10">
         <v>6.75</v>
       </c>
       <c r="W10">
-        <v>1.06</v>
+        <v>1.07</v>
       </c>
       <c r="X10">
         <v>1.01</v>
@@ -2335,28 +2335,28 @@
         <v>10.5</v>
       </c>
       <c r="Z10">
-        <v>1.27</v>
+        <v>1.28</v>
       </c>
       <c r="AA10">
-        <v>3.45</v>
+        <v>3.35</v>
       </c>
       <c r="AB10">
-        <v>1.94</v>
+        <v>1.95</v>
       </c>
       <c r="AC10">
-        <v>1.76</v>
+        <v>1.75</v>
       </c>
       <c r="AD10">
-        <v>3.6</v>
+        <v>3.7</v>
       </c>
       <c r="AE10">
         <v>1.24</v>
       </c>
       <c r="AF10">
-        <v>1.72</v>
+        <v>1.83</v>
       </c>
       <c r="AG10">
-        <v>1.93</v>
+        <v>1.81</v>
       </c>
       <c r="AH10">
         <v>7.5</v>
@@ -2371,46 +2371,46 @@
         <v>114</v>
       </c>
       <c r="AL10">
-        <v>1.5</v>
+        <v>1.15</v>
       </c>
       <c r="AM10">
-        <v>1.28</v>
+        <v>1.22</v>
       </c>
       <c r="AN10">
-        <v>1.42</v>
+        <v>1.93</v>
       </c>
       <c r="AO10">
         <v>-1</v>
       </c>
       <c r="AP10">
-        <v>1.19</v>
+        <v>1.25</v>
       </c>
       <c r="AQ10">
-        <v>1.34</v>
+        <v>1.45</v>
       </c>
       <c r="AR10">
-        <v>1.55</v>
+        <v>1.73</v>
       </c>
       <c r="AS10">
-        <v>1.86</v>
+        <v>2.15</v>
       </c>
       <c r="AT10">
-        <v>2.32</v>
+        <v>2.7</v>
       </c>
       <c r="AU10">
-        <v>4.1</v>
+        <v>3.45</v>
       </c>
       <c r="AV10">
-        <v>2.9</v>
+        <v>2.55</v>
       </c>
       <c r="AW10">
-        <v>2.28</v>
+        <v>1.98</v>
       </c>
       <c r="AX10">
-        <v>1.82</v>
+        <v>1.61</v>
       </c>
       <c r="AY10">
-        <v>1.53</v>
+        <v>1.4</v>
       </c>
       <c r="AZ10">
         <v>0</v>
@@ -2419,10 +2419,10 @@
         <v>0</v>
       </c>
       <c r="BB10">
-        <v>2.1</v>
+        <v>1.7</v>
       </c>
       <c r="BC10">
-        <v>2</v>
+        <v>2.45</v>
       </c>
       <c r="BD10" s="3">
         <v>45799.58333333334</v>
@@ -2436,10 +2436,10 @@
         <v>61</v>
       </c>
       <c r="C11" t="s">
-        <v>71</v>
+        <v>69</v>
       </c>
       <c r="D11" t="s">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="E11" t="s">
         <v>84</v>
@@ -2463,61 +2463,61 @@
         <v>113</v>
       </c>
       <c r="L11">
-        <v>1.41</v>
+        <v>1.59</v>
       </c>
       <c r="M11">
-        <v>4.2</v>
+        <v>3.56</v>
       </c>
       <c r="N11">
-        <v>5.7</v>
+        <v>4.75</v>
       </c>
       <c r="O11">
-        <v>1.3</v>
+        <v>1.62</v>
       </c>
       <c r="P11">
-        <v>9.5</v>
+        <v>8.5</v>
       </c>
       <c r="Q11">
-        <v>4</v>
+        <v>2.8</v>
       </c>
       <c r="R11">
+        <v>1.42</v>
+      </c>
+      <c r="S11">
+        <v>2.62</v>
+      </c>
+      <c r="T11">
+        <v>3</v>
+      </c>
+      <c r="U11">
         <v>1.33</v>
       </c>
-      <c r="S11">
-        <v>2.9</v>
-      </c>
-      <c r="T11">
-        <v>2.91</v>
-      </c>
-      <c r="U11">
-        <v>1.32</v>
-      </c>
       <c r="V11">
-        <v>6.4</v>
+        <v>8.4</v>
       </c>
       <c r="W11">
-        <v>1.08</v>
+        <v>1.01</v>
       </c>
       <c r="X11">
-        <v>1.01</v>
+        <v>1.07</v>
       </c>
       <c r="Y11">
-        <v>9</v>
+        <v>8.5</v>
       </c>
       <c r="Z11">
-        <v>1.33</v>
+        <v>1.38</v>
       </c>
       <c r="AA11">
-        <v>3.2</v>
+        <v>3.1</v>
       </c>
       <c r="AB11">
-        <v>1.62</v>
+        <v>2.02</v>
       </c>
       <c r="AC11">
-        <v>2.15</v>
+        <v>1.7</v>
       </c>
       <c r="AD11">
-        <v>3.5</v>
+        <v>3.95</v>
       </c>
       <c r="AE11">
         <v>1.25</v>
@@ -2529,7 +2529,7 @@
         <v>1.75</v>
       </c>
       <c r="AH11">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="AI11">
         <v>1.08</v>
@@ -2541,58 +2541,58 @@
         <v>114</v>
       </c>
       <c r="AL11">
+        <v>1.2</v>
+      </c>
+      <c r="AM11">
         <v>1.25</v>
       </c>
-      <c r="AM11">
-        <v>1.17</v>
-      </c>
       <c r="AN11">
-        <v>2.45</v>
+        <v>1.95</v>
       </c>
       <c r="AO11">
         <v>-1</v>
       </c>
       <c r="AP11">
+        <v>1.23</v>
+      </c>
+      <c r="AQ11">
+        <v>1.38</v>
+      </c>
+      <c r="AR11">
+        <v>1.63</v>
+      </c>
+      <c r="AS11">
+        <v>1.98</v>
+      </c>
+      <c r="AT11">
+        <v>2.48</v>
+      </c>
+      <c r="AU11">
+        <v>3.7</v>
+      </c>
+      <c r="AV11">
+        <v>2.7</v>
+      </c>
+      <c r="AW11">
+        <v>2.12</v>
+      </c>
+      <c r="AX11">
+        <v>1.73</v>
+      </c>
+      <c r="AY11">
+        <v>1.47</v>
+      </c>
+      <c r="AZ11">
+        <v>0</v>
+      </c>
+      <c r="BA11">
+        <v>0</v>
+      </c>
+      <c r="BB11">
         <v>1.62</v>
       </c>
-      <c r="AQ11">
-        <v>2.04</v>
-      </c>
-      <c r="AR11">
-        <v>2.6</v>
-      </c>
-      <c r="AS11">
-        <v>3.52</v>
-      </c>
-      <c r="AT11">
-        <v>4.9</v>
-      </c>
-      <c r="AU11">
-        <v>2.21</v>
-      </c>
-      <c r="AV11">
-        <v>1.73</v>
-      </c>
-      <c r="AW11">
-        <v>1.31</v>
-      </c>
-      <c r="AX11">
-        <v>1.15</v>
-      </c>
-      <c r="AY11">
-        <v>1.13</v>
-      </c>
-      <c r="AZ11">
-        <v>0</v>
-      </c>
-      <c r="BA11">
-        <v>0</v>
-      </c>
-      <c r="BB11">
-        <v>1.3</v>
-      </c>
       <c r="BC11">
-        <v>4</v>
+        <v>2.8</v>
       </c>
       <c r="BD11" s="3">
         <v>45799.58333333334</v>
@@ -2633,76 +2633,76 @@
         <v>113</v>
       </c>
       <c r="L12">
-        <v>1.22</v>
+        <v>2.15</v>
       </c>
       <c r="M12">
-        <v>5.2</v>
+        <v>3.5</v>
       </c>
       <c r="N12">
-        <v>9.199999999999999</v>
+        <v>2.72</v>
       </c>
       <c r="O12">
-        <v>1.25</v>
+        <v>1.85</v>
       </c>
       <c r="P12">
-        <v>13</v>
+        <v>9.5</v>
       </c>
       <c r="Q12">
-        <v>4.2</v>
+        <v>2.1</v>
       </c>
       <c r="R12">
-        <v>1.25</v>
+        <v>1.3</v>
       </c>
       <c r="S12">
-        <v>3.55</v>
+        <v>3.2</v>
       </c>
       <c r="T12">
-        <v>2.2</v>
+        <v>2.45</v>
       </c>
       <c r="U12">
-        <v>1.6</v>
+        <v>1.5</v>
       </c>
       <c r="V12">
-        <v>5.15</v>
+        <v>5.6</v>
       </c>
       <c r="W12">
         <v>1.11</v>
       </c>
       <c r="X12">
-        <v>1.03</v>
+        <v>1.05</v>
       </c>
       <c r="Y12">
-        <v>13</v>
+        <v>10</v>
       </c>
       <c r="Z12">
         <v>1.18</v>
       </c>
       <c r="AA12">
-        <v>5</v>
+        <v>4.25</v>
       </c>
       <c r="AB12">
-        <v>1.55</v>
+        <v>1.83</v>
       </c>
       <c r="AC12">
-        <v>2.2</v>
+        <v>1.87</v>
       </c>
       <c r="AD12">
-        <v>2.4</v>
+        <v>2.75</v>
       </c>
       <c r="AE12">
-        <v>1.5</v>
+        <v>1.42</v>
       </c>
       <c r="AF12">
-        <v>2.05</v>
+        <v>1.53</v>
       </c>
       <c r="AG12">
-        <v>1.65</v>
+        <v>2.25</v>
       </c>
       <c r="AH12">
-        <v>4.5</v>
+        <v>5.3</v>
       </c>
       <c r="AI12">
-        <v>1.2</v>
+        <v>1.12</v>
       </c>
       <c r="AJ12" t="s">
         <v>114</v>
@@ -2711,43 +2711,43 @@
         <v>114</v>
       </c>
       <c r="AL12">
-        <v>1.04</v>
+        <v>1.36</v>
       </c>
       <c r="AM12">
-        <v>1.12</v>
+        <v>1.22</v>
       </c>
       <c r="AN12">
-        <v>3.85</v>
+        <v>1.55</v>
       </c>
       <c r="AO12">
         <v>-1</v>
       </c>
       <c r="AP12">
-        <v>1.22</v>
+        <v>1.2</v>
       </c>
       <c r="AQ12">
-        <v>1.38</v>
+        <v>1.35</v>
       </c>
       <c r="AR12">
-        <v>1.61</v>
+        <v>1.58</v>
       </c>
       <c r="AS12">
-        <v>1.96</v>
+        <v>1.92</v>
       </c>
       <c r="AT12">
-        <v>2.43</v>
+        <v>2.4</v>
       </c>
       <c r="AU12">
-        <v>3.8</v>
+        <v>3.95</v>
       </c>
       <c r="AV12">
-        <v>2.8</v>
+        <v>2.9</v>
       </c>
       <c r="AW12">
-        <v>2.15</v>
+        <v>2.2</v>
       </c>
       <c r="AX12">
-        <v>1.74</v>
+        <v>1.77</v>
       </c>
       <c r="AY12">
         <v>1.49</v>
@@ -2759,10 +2759,10 @@
         <v>0</v>
       </c>
       <c r="BB12">
-        <v>1.25</v>
+        <v>1.85</v>
       </c>
       <c r="BC12">
-        <v>4.2</v>
+        <v>2.1</v>
       </c>
       <c r="BD12" s="3">
         <v>45799.58333333334</v>
@@ -2803,25 +2803,25 @@
         <v>113</v>
       </c>
       <c r="L13">
-        <v>1.68</v>
+        <v>2.62</v>
       </c>
       <c r="M13">
-        <v>3.47</v>
+        <v>3.28</v>
       </c>
       <c r="N13">
-        <v>4.2</v>
+        <v>2.31</v>
       </c>
       <c r="O13">
-        <v>1.7</v>
+        <v>2.1</v>
       </c>
       <c r="P13">
         <v>8.5</v>
       </c>
       <c r="Q13">
-        <v>2.45</v>
+        <v>2</v>
       </c>
       <c r="R13">
-        <v>1.41</v>
+        <v>1.4</v>
       </c>
       <c r="S13">
         <v>2.8</v>
@@ -2830,13 +2830,13 @@
         <v>2.9</v>
       </c>
       <c r="U13">
-        <v>1.38</v>
+        <v>1.36</v>
       </c>
       <c r="V13">
         <v>6.75</v>
       </c>
       <c r="W13">
-        <v>1.07</v>
+        <v>1.06</v>
       </c>
       <c r="X13">
         <v>1.01</v>
@@ -2845,28 +2845,28 @@
         <v>10.5</v>
       </c>
       <c r="Z13">
-        <v>1.28</v>
+        <v>1.27</v>
       </c>
       <c r="AA13">
-        <v>3.35</v>
+        <v>3.45</v>
       </c>
       <c r="AB13">
-        <v>1.95</v>
+        <v>1.94</v>
       </c>
       <c r="AC13">
-        <v>1.75</v>
+        <v>1.76</v>
       </c>
       <c r="AD13">
-        <v>3.7</v>
+        <v>3.6</v>
       </c>
       <c r="AE13">
         <v>1.24</v>
       </c>
       <c r="AF13">
-        <v>1.83</v>
+        <v>1.72</v>
       </c>
       <c r="AG13">
-        <v>1.81</v>
+        <v>1.93</v>
       </c>
       <c r="AH13">
         <v>7.5</v>
@@ -2881,46 +2881,46 @@
         <v>114</v>
       </c>
       <c r="AL13">
-        <v>1.15</v>
+        <v>1.5</v>
       </c>
       <c r="AM13">
-        <v>1.22</v>
+        <v>1.28</v>
       </c>
       <c r="AN13">
-        <v>1.93</v>
+        <v>1.42</v>
       </c>
       <c r="AO13">
         <v>-1</v>
       </c>
       <c r="AP13">
-        <v>1.25</v>
+        <v>1.19</v>
       </c>
       <c r="AQ13">
-        <v>1.45</v>
+        <v>1.34</v>
       </c>
       <c r="AR13">
-        <v>1.73</v>
+        <v>1.55</v>
       </c>
       <c r="AS13">
-        <v>2.15</v>
+        <v>1.86</v>
       </c>
       <c r="AT13">
-        <v>2.7</v>
+        <v>2.32</v>
       </c>
       <c r="AU13">
-        <v>3.45</v>
+        <v>4.1</v>
       </c>
       <c r="AV13">
-        <v>2.55</v>
+        <v>2.9</v>
       </c>
       <c r="AW13">
-        <v>1.98</v>
+        <v>2.28</v>
       </c>
       <c r="AX13">
-        <v>1.61</v>
+        <v>1.82</v>
       </c>
       <c r="AY13">
-        <v>1.4</v>
+        <v>1.53</v>
       </c>
       <c r="AZ13">
         <v>0</v>
@@ -2929,10 +2929,10 @@
         <v>0</v>
       </c>
       <c r="BB13">
-        <v>1.7</v>
+        <v>2.1</v>
       </c>
       <c r="BC13">
-        <v>2.45</v>
+        <v>2</v>
       </c>
       <c r="BD13" s="3">
         <v>45799.58333333334</v>
@@ -2946,10 +2946,10 @@
         <v>61</v>
       </c>
       <c r="C14" t="s">
-        <v>69</v>
+        <v>71</v>
       </c>
       <c r="D14" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="E14" t="s">
         <v>87</v>
@@ -2973,61 +2973,61 @@
         <v>113</v>
       </c>
       <c r="L14">
-        <v>1.59</v>
+        <v>1.41</v>
       </c>
       <c r="M14">
-        <v>3.56</v>
+        <v>4.2</v>
       </c>
       <c r="N14">
-        <v>4.75</v>
+        <v>5.7</v>
       </c>
       <c r="O14">
+        <v>1.3</v>
+      </c>
+      <c r="P14">
+        <v>9.5</v>
+      </c>
+      <c r="Q14">
+        <v>4</v>
+      </c>
+      <c r="R14">
+        <v>1.33</v>
+      </c>
+      <c r="S14">
+        <v>2.9</v>
+      </c>
+      <c r="T14">
+        <v>2.91</v>
+      </c>
+      <c r="U14">
+        <v>1.32</v>
+      </c>
+      <c r="V14">
+        <v>6.4</v>
+      </c>
+      <c r="W14">
+        <v>1.08</v>
+      </c>
+      <c r="X14">
+        <v>1.01</v>
+      </c>
+      <c r="Y14">
+        <v>9</v>
+      </c>
+      <c r="Z14">
+        <v>1.33</v>
+      </c>
+      <c r="AA14">
+        <v>3.2</v>
+      </c>
+      <c r="AB14">
         <v>1.62</v>
       </c>
-      <c r="P14">
-        <v>8.5</v>
-      </c>
-      <c r="Q14">
-        <v>2.8</v>
-      </c>
-      <c r="R14">
-        <v>1.42</v>
-      </c>
-      <c r="S14">
-        <v>2.62</v>
-      </c>
-      <c r="T14">
-        <v>3</v>
-      </c>
-      <c r="U14">
-        <v>1.33</v>
-      </c>
-      <c r="V14">
-        <v>8.4</v>
-      </c>
-      <c r="W14">
-        <v>1.01</v>
-      </c>
-      <c r="X14">
-        <v>1.07</v>
-      </c>
-      <c r="Y14">
-        <v>8.5</v>
-      </c>
-      <c r="Z14">
-        <v>1.38</v>
-      </c>
-      <c r="AA14">
-        <v>3.1</v>
-      </c>
-      <c r="AB14">
-        <v>2.02</v>
-      </c>
       <c r="AC14">
-        <v>1.7</v>
+        <v>2.15</v>
       </c>
       <c r="AD14">
-        <v>3.95</v>
+        <v>3.5</v>
       </c>
       <c r="AE14">
         <v>1.25</v>
@@ -3039,7 +3039,7 @@
         <v>1.75</v>
       </c>
       <c r="AH14">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="AI14">
         <v>1.08</v>
@@ -3051,46 +3051,46 @@
         <v>114</v>
       </c>
       <c r="AL14">
-        <v>1.2</v>
+        <v>1.25</v>
       </c>
       <c r="AM14">
-        <v>1.25</v>
+        <v>1.17</v>
       </c>
       <c r="AN14">
-        <v>1.95</v>
+        <v>2.45</v>
       </c>
       <c r="AO14">
         <v>-1</v>
       </c>
       <c r="AP14">
-        <v>1.23</v>
+        <v>1.62</v>
       </c>
       <c r="AQ14">
-        <v>1.38</v>
+        <v>2.04</v>
       </c>
       <c r="AR14">
-        <v>1.63</v>
+        <v>2.6</v>
       </c>
       <c r="AS14">
-        <v>1.98</v>
+        <v>3.52</v>
       </c>
       <c r="AT14">
-        <v>2.48</v>
+        <v>4.9</v>
       </c>
       <c r="AU14">
-        <v>3.7</v>
+        <v>2.21</v>
       </c>
       <c r="AV14">
-        <v>2.7</v>
+        <v>1.73</v>
       </c>
       <c r="AW14">
-        <v>2.12</v>
+        <v>1.31</v>
       </c>
       <c r="AX14">
-        <v>1.73</v>
+        <v>1.15</v>
       </c>
       <c r="AY14">
-        <v>1.47</v>
+        <v>1.13</v>
       </c>
       <c r="AZ14">
         <v>0</v>
@@ -3099,10 +3099,10 @@
         <v>0</v>
       </c>
       <c r="BB14">
-        <v>1.62</v>
+        <v>1.3</v>
       </c>
       <c r="BC14">
-        <v>2.8</v>
+        <v>4</v>
       </c>
       <c r="BD14" s="3">
         <v>45799.58333333334</v>
@@ -3116,10 +3116,10 @@
         <v>61</v>
       </c>
       <c r="C15" t="s">
-        <v>70</v>
+        <v>65</v>
       </c>
       <c r="D15" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="E15" t="s">
         <v>88</v>
@@ -3143,76 +3143,76 @@
         <v>113</v>
       </c>
       <c r="L15">
-        <v>2.15</v>
+        <v>1.51</v>
       </c>
       <c r="M15">
-        <v>3.5</v>
+        <v>4</v>
       </c>
       <c r="N15">
-        <v>2.72</v>
+        <v>6</v>
       </c>
       <c r="O15">
+        <v>1.29</v>
+      </c>
+      <c r="P15">
+        <v>9</v>
+      </c>
+      <c r="Q15">
+        <v>4</v>
+      </c>
+      <c r="R15">
+        <v>1.33</v>
+      </c>
+      <c r="S15">
+        <v>2.93</v>
+      </c>
+      <c r="T15">
+        <v>2.67</v>
+      </c>
+      <c r="U15">
+        <v>1.39</v>
+      </c>
+      <c r="V15">
+        <v>7.1</v>
+      </c>
+      <c r="W15">
+        <v>1.04</v>
+      </c>
+      <c r="X15">
+        <v>1.01</v>
+      </c>
+      <c r="Y15">
+        <v>11</v>
+      </c>
+      <c r="Z15">
+        <v>1.2</v>
+      </c>
+      <c r="AA15">
+        <v>4</v>
+      </c>
+      <c r="AB15">
+        <v>1.8</v>
+      </c>
+      <c r="AC15">
         <v>1.85</v>
       </c>
-      <c r="P15">
-        <v>9.5</v>
-      </c>
-      <c r="Q15">
-        <v>2.1</v>
-      </c>
-      <c r="R15">
-        <v>1.3</v>
-      </c>
-      <c r="S15">
-        <v>3.2</v>
-      </c>
-      <c r="T15">
-        <v>2.45</v>
-      </c>
-      <c r="U15">
-        <v>1.5</v>
-      </c>
-      <c r="V15">
-        <v>5.6</v>
-      </c>
-      <c r="W15">
-        <v>1.11</v>
-      </c>
-      <c r="X15">
-        <v>1.05</v>
-      </c>
-      <c r="Y15">
-        <v>10</v>
-      </c>
-      <c r="Z15">
-        <v>1.18</v>
-      </c>
-      <c r="AA15">
-        <v>4.25</v>
-      </c>
-      <c r="AB15">
-        <v>1.83</v>
-      </c>
-      <c r="AC15">
-        <v>1.87</v>
-      </c>
       <c r="AD15">
-        <v>2.75</v>
+        <v>3</v>
       </c>
       <c r="AE15">
-        <v>1.42</v>
+        <v>1.33</v>
       </c>
       <c r="AF15">
-        <v>1.53</v>
+        <v>2.02</v>
       </c>
       <c r="AG15">
-        <v>2.25</v>
+        <v>1.75</v>
       </c>
       <c r="AH15">
-        <v>5.3</v>
+        <v>6.5</v>
       </c>
       <c r="AI15">
-        <v>1.12</v>
+        <v>1.08</v>
       </c>
       <c r="AJ15" t="s">
         <v>114</v>
@@ -3221,46 +3221,46 @@
         <v>114</v>
       </c>
       <c r="AL15">
-        <v>1.36</v>
+        <v>1.08</v>
       </c>
       <c r="AM15">
-        <v>1.22</v>
+        <v>1.21</v>
       </c>
       <c r="AN15">
-        <v>1.55</v>
+        <v>2.86</v>
       </c>
       <c r="AO15">
         <v>-1</v>
       </c>
       <c r="AP15">
-        <v>1.2</v>
+        <v>1.36</v>
       </c>
       <c r="AQ15">
-        <v>1.35</v>
+        <v>1.69</v>
       </c>
       <c r="AR15">
-        <v>1.58</v>
+        <v>2.14</v>
       </c>
       <c r="AS15">
-        <v>1.92</v>
+        <v>2.83</v>
       </c>
       <c r="AT15">
-        <v>2.4</v>
+        <v>3.8</v>
       </c>
       <c r="AU15">
-        <v>3.95</v>
+        <v>2.78</v>
       </c>
       <c r="AV15">
-        <v>2.9</v>
+        <v>2.04</v>
       </c>
       <c r="AW15">
-        <v>2.2</v>
+        <v>1.6</v>
       </c>
       <c r="AX15">
-        <v>1.77</v>
+        <v>1.33</v>
       </c>
       <c r="AY15">
-        <v>1.49</v>
+        <v>1.21</v>
       </c>
       <c r="AZ15">
         <v>0</v>
@@ -3269,10 +3269,10 @@
         <v>0</v>
       </c>
       <c r="BB15">
-        <v>1.85</v>
+        <v>1.29</v>
       </c>
       <c r="BC15">
-        <v>2.1</v>
+        <v>4</v>
       </c>
       <c r="BD15" s="3">
         <v>45799.58333333334</v>
@@ -3483,37 +3483,37 @@
         <v>113</v>
       </c>
       <c r="L17">
-        <v>2.63</v>
+        <v>2.41</v>
       </c>
       <c r="M17">
-        <v>3.21</v>
+        <v>3.23</v>
       </c>
       <c r="N17">
-        <v>2.33</v>
+        <v>2.53</v>
       </c>
       <c r="O17">
-        <v>1.7</v>
+        <v>1.67</v>
       </c>
       <c r="P17">
         <v>10</v>
       </c>
       <c r="Q17">
-        <v>2.4</v>
+        <v>2.45</v>
       </c>
       <c r="R17">
         <v>1.3</v>
       </c>
       <c r="S17">
-        <v>3.2</v>
+        <v>3.25</v>
       </c>
       <c r="T17">
-        <v>2.45</v>
+        <v>2.3</v>
       </c>
       <c r="U17">
-        <v>1.48</v>
+        <v>1.55</v>
       </c>
       <c r="V17">
-        <v>5.6</v>
+        <v>5.1</v>
       </c>
       <c r="W17">
         <v>1.1</v>
@@ -3525,10 +3525,10 @@
         <v>10</v>
       </c>
       <c r="Z17">
-        <v>1.22</v>
+        <v>1.2</v>
       </c>
       <c r="AA17">
-        <v>4.2</v>
+        <v>4.33</v>
       </c>
       <c r="AB17">
         <v>1.61</v>
@@ -3537,22 +3537,22 @@
         <v>2.05</v>
       </c>
       <c r="AD17">
-        <v>2.8</v>
+        <v>2.55</v>
       </c>
       <c r="AE17">
-        <v>1.42</v>
+        <v>1.5</v>
       </c>
       <c r="AF17">
-        <v>1.6</v>
+        <v>1.53</v>
       </c>
       <c r="AG17">
-        <v>2.15</v>
+        <v>2.3</v>
       </c>
       <c r="AH17">
-        <v>5.25</v>
+        <v>4.5</v>
       </c>
       <c r="AI17">
-        <v>1.15</v>
+        <v>1.2</v>
       </c>
       <c r="AJ17" t="s">
         <v>114</v>
@@ -3561,46 +3561,46 @@
         <v>114</v>
       </c>
       <c r="AL17">
-        <v>1.28</v>
+        <v>1.25</v>
       </c>
       <c r="AM17">
         <v>1.22</v>
       </c>
       <c r="AN17">
-        <v>1.83</v>
+        <v>1.91</v>
       </c>
       <c r="AO17">
         <v>-1</v>
       </c>
       <c r="AP17">
-        <v>1.25</v>
+        <v>1.3</v>
       </c>
       <c r="AQ17">
-        <v>1.43</v>
+        <v>1.53</v>
       </c>
       <c r="AR17">
-        <v>1.7</v>
+        <v>1.87</v>
       </c>
       <c r="AS17">
-        <v>2.1</v>
+        <v>2.38</v>
       </c>
       <c r="AT17">
-        <v>2.65</v>
+        <v>3.05</v>
       </c>
       <c r="AU17">
-        <v>3.45</v>
+        <v>3.05</v>
       </c>
       <c r="AV17">
-        <v>2.55</v>
+        <v>2.28</v>
       </c>
       <c r="AW17">
-        <v>2</v>
+        <v>1.79</v>
       </c>
       <c r="AX17">
-        <v>1.62</v>
+        <v>1.49</v>
       </c>
       <c r="AY17">
-        <v>1.38</v>
+        <v>1.3</v>
       </c>
       <c r="AZ17">
         <v>0</v>
@@ -3609,10 +3609,10 @@
         <v>0</v>
       </c>
       <c r="BB17">
-        <v>1.7</v>
+        <v>1.67</v>
       </c>
       <c r="BC17">
-        <v>2.4</v>
+        <v>2.45</v>
       </c>
       <c r="BD17" s="3">
         <v>45799.64583333334</v>
@@ -3653,76 +3653,76 @@
         <v>113</v>
       </c>
       <c r="L18">
-        <v>2.19</v>
+        <v>2.63</v>
       </c>
       <c r="M18">
-        <v>3.34</v>
+        <v>3.21</v>
       </c>
       <c r="N18">
-        <v>2.75</v>
+        <v>2.33</v>
       </c>
       <c r="O18">
-        <v>1.62</v>
+        <v>1.7</v>
       </c>
       <c r="P18">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="Q18">
-        <v>2.5</v>
+        <v>2.4</v>
       </c>
       <c r="R18">
-        <v>1.28</v>
+        <v>1.3</v>
       </c>
       <c r="S18">
-        <v>3.35</v>
+        <v>3.2</v>
       </c>
       <c r="T18">
-        <v>2.3</v>
+        <v>2.45</v>
       </c>
       <c r="U18">
-        <v>1.55</v>
+        <v>1.48</v>
       </c>
       <c r="V18">
-        <v>5.15</v>
+        <v>5.6</v>
       </c>
       <c r="W18">
         <v>1.1</v>
       </c>
       <c r="X18">
-        <v>1.03</v>
+        <v>1.04</v>
       </c>
       <c r="Y18">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="Z18">
-        <v>1.2</v>
+        <v>1.22</v>
       </c>
       <c r="AA18">
-        <v>4.5</v>
+        <v>4.2</v>
       </c>
       <c r="AB18">
+        <v>1.61</v>
+      </c>
+      <c r="AC18">
+        <v>2.05</v>
+      </c>
+      <c r="AD18">
+        <v>2.8</v>
+      </c>
+      <c r="AE18">
+        <v>1.42</v>
+      </c>
+      <c r="AF18">
         <v>1.6</v>
       </c>
-      <c r="AC18">
+      <c r="AG18">
         <v>2.15</v>
       </c>
-      <c r="AD18">
-        <v>2.25</v>
-      </c>
-      <c r="AE18">
-        <v>1.57</v>
-      </c>
-      <c r="AF18">
-        <v>1.55</v>
-      </c>
-      <c r="AG18">
-        <v>2.25</v>
-      </c>
       <c r="AH18">
-        <v>4.33</v>
+        <v>5.25</v>
       </c>
       <c r="AI18">
-        <v>1.2</v>
+        <v>1.15</v>
       </c>
       <c r="AJ18" t="s">
         <v>114</v>
@@ -3731,46 +3731,46 @@
         <v>114</v>
       </c>
       <c r="AL18">
+        <v>1.28</v>
+      </c>
+      <c r="AM18">
         <v>1.22</v>
       </c>
-      <c r="AM18">
-        <v>1.2</v>
-      </c>
       <c r="AN18">
-        <v>2</v>
+        <v>1.83</v>
       </c>
       <c r="AO18">
         <v>-1</v>
       </c>
       <c r="AP18">
-        <v>1.2</v>
+        <v>1.25</v>
       </c>
       <c r="AQ18">
-        <v>1.37</v>
+        <v>1.43</v>
       </c>
       <c r="AR18">
+        <v>1.7</v>
+      </c>
+      <c r="AS18">
+        <v>2.1</v>
+      </c>
+      <c r="AT18">
+        <v>2.65</v>
+      </c>
+      <c r="AU18">
+        <v>3.45</v>
+      </c>
+      <c r="AV18">
+        <v>2.55</v>
+      </c>
+      <c r="AW18">
+        <v>2</v>
+      </c>
+      <c r="AX18">
         <v>1.62</v>
       </c>
-      <c r="AS18">
-        <v>1.96</v>
-      </c>
-      <c r="AT18">
-        <v>2.48</v>
-      </c>
-      <c r="AU18">
-        <v>3.8</v>
-      </c>
-      <c r="AV18">
-        <v>2.75</v>
-      </c>
-      <c r="AW18">
-        <v>2.12</v>
-      </c>
-      <c r="AX18">
-        <v>1.71</v>
-      </c>
       <c r="AY18">
-        <v>1.45</v>
+        <v>1.38</v>
       </c>
       <c r="AZ18">
         <v>0</v>
@@ -3779,10 +3779,10 @@
         <v>0</v>
       </c>
       <c r="BB18">
-        <v>1.62</v>
+        <v>1.7</v>
       </c>
       <c r="BC18">
-        <v>2.5</v>
+        <v>2.4</v>
       </c>
       <c r="BD18" s="3">
         <v>45799.64583333334</v>
@@ -3823,28 +3823,28 @@
         <v>113</v>
       </c>
       <c r="L19">
-        <v>2.41</v>
+        <v>2.19</v>
       </c>
       <c r="M19">
-        <v>3.23</v>
+        <v>3.34</v>
       </c>
       <c r="N19">
-        <v>2.53</v>
+        <v>2.75</v>
       </c>
       <c r="O19">
-        <v>1.67</v>
+        <v>1.62</v>
       </c>
       <c r="P19">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="Q19">
-        <v>2.45</v>
+        <v>2.5</v>
       </c>
       <c r="R19">
-        <v>1.3</v>
+        <v>1.28</v>
       </c>
       <c r="S19">
-        <v>3.25</v>
+        <v>3.35</v>
       </c>
       <c r="T19">
         <v>2.3</v>
@@ -3853,43 +3853,43 @@
         <v>1.55</v>
       </c>
       <c r="V19">
-        <v>5.1</v>
+        <v>5.15</v>
       </c>
       <c r="W19">
         <v>1.1</v>
       </c>
       <c r="X19">
-        <v>1.04</v>
+        <v>1.03</v>
       </c>
       <c r="Y19">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="Z19">
         <v>1.2</v>
       </c>
       <c r="AA19">
+        <v>4.5</v>
+      </c>
+      <c r="AB19">
+        <v>1.6</v>
+      </c>
+      <c r="AC19">
+        <v>2.15</v>
+      </c>
+      <c r="AD19">
+        <v>2.25</v>
+      </c>
+      <c r="AE19">
+        <v>1.57</v>
+      </c>
+      <c r="AF19">
+        <v>1.55</v>
+      </c>
+      <c r="AG19">
+        <v>2.25</v>
+      </c>
+      <c r="AH19">
         <v>4.33</v>
-      </c>
-      <c r="AB19">
-        <v>1.61</v>
-      </c>
-      <c r="AC19">
-        <v>2.05</v>
-      </c>
-      <c r="AD19">
-        <v>2.55</v>
-      </c>
-      <c r="AE19">
-        <v>1.5</v>
-      </c>
-      <c r="AF19">
-        <v>1.53</v>
-      </c>
-      <c r="AG19">
-        <v>2.3</v>
-      </c>
-      <c r="AH19">
-        <v>4.5</v>
       </c>
       <c r="AI19">
         <v>1.2</v>
@@ -3901,46 +3901,46 @@
         <v>114</v>
       </c>
       <c r="AL19">
-        <v>1.25</v>
+        <v>1.22</v>
       </c>
       <c r="AM19">
-        <v>1.22</v>
+        <v>1.2</v>
       </c>
       <c r="AN19">
-        <v>1.91</v>
+        <v>2</v>
       </c>
       <c r="AO19">
         <v>-1</v>
       </c>
       <c r="AP19">
-        <v>1.3</v>
+        <v>1.2</v>
       </c>
       <c r="AQ19">
-        <v>1.53</v>
+        <v>1.37</v>
       </c>
       <c r="AR19">
-        <v>1.87</v>
+        <v>1.62</v>
       </c>
       <c r="AS19">
-        <v>2.38</v>
+        <v>1.96</v>
       </c>
       <c r="AT19">
-        <v>3.05</v>
+        <v>2.48</v>
       </c>
       <c r="AU19">
-        <v>3.05</v>
+        <v>3.8</v>
       </c>
       <c r="AV19">
-        <v>2.28</v>
+        <v>2.75</v>
       </c>
       <c r="AW19">
-        <v>1.79</v>
+        <v>2.12</v>
       </c>
       <c r="AX19">
-        <v>1.49</v>
+        <v>1.71</v>
       </c>
       <c r="AY19">
-        <v>1.3</v>
+        <v>1.45</v>
       </c>
       <c r="AZ19">
         <v>0</v>
@@ -3949,10 +3949,10 @@
         <v>0</v>
       </c>
       <c r="BB19">
-        <v>1.67</v>
+        <v>1.62</v>
       </c>
       <c r="BC19">
-        <v>2.45</v>
+        <v>2.5</v>
       </c>
       <c r="BD19" s="3">
         <v>45799.64583333334</v>
